--- a/lab3/Book1.xlsx
+++ b/lab3/Book1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Masters_Catlog\Master_Catlog\Sem 3\ComputerVision\lab2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Masters_Catlog\Master_Catlog\Sem 3\ComputerVision\lab3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5947A2DB-310F-4F9D-8374-D16AD1C34BD8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3375349C-0E73-4911-A282-D4068797E3D4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5C07B9A7-49B7-41C8-9BBB-936591106370}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5C07B9A7-49B7-41C8-9BBB-936591106370}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -772,7 +772,456 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$Y$2:$Y$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>3.6003600360036005E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.8802880288028802E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.4302430243024302E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0702070207020702E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.0702070207020702E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.9801980198019802E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5301530153015301E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.4401440144014401E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.4401440144014401E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.0009000900090012E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.1008100810081012E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.3006300630063005E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.6003600360036002E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9.0009000900090005E-4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9.0009000900090005E-4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$X$2:$X$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>3.9735099337748346E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.9735099337748346E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.9735099337748346E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.9735099337748346E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.9735099337748346E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.9735099337748346E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.9735099337748346E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.9735099337748346E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.9735099337748346E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.9735099337748346E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.9735099337748346E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.9735099337748346E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.9735099337748346E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.9735099337748346E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.3112582781456956E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.6490066225165563E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.9867549668874173E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.3245033112582781E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.6225165562913907E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6.6225165562913907E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BE11-4544-BCBD-C52BFD84A2E3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1451577743"/>
+        <c:axId val="1451197503"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1451577743"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1451197503"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1451197503"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1451577743"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1350,6 +1799,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1383,6 +2348,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A13772C-E250-480B-82FD-1C122798B1EE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1688,18 +2689,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{164C203D-EF02-42D6-9D62-66B310BB5300}">
-  <dimension ref="A1:M23"/>
+  <dimension ref="A1:Y23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="11" max="11" width="14.21875" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
@@ -1723,7 +2724,7 @@
       </c>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>150</v>
       </c>
@@ -1748,8 +2749,28 @@
         <v>0.80018001800180016</v>
       </c>
       <c r="M2" s="2"/>
+      <c r="T2">
+        <v>6</v>
+      </c>
+      <c r="U2">
+        <v>40</v>
+      </c>
+      <c r="V2">
+        <v>145</v>
+      </c>
+      <c r="W2">
+        <v>1071</v>
+      </c>
+      <c r="X2">
+        <f>T2/(T2+V2)</f>
+        <v>3.9735099337748346E-2</v>
+      </c>
+      <c r="Y2">
+        <f>U2/(U2+W2)</f>
+        <v>3.6003600360036005E-2</v>
+      </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>155</v>
       </c>
@@ -1774,8 +2795,28 @@
         <v>0.71197119711971202</v>
       </c>
       <c r="M3" s="2"/>
+      <c r="T3">
+        <v>6</v>
+      </c>
+      <c r="U3">
+        <v>32</v>
+      </c>
+      <c r="V3">
+        <v>145</v>
+      </c>
+      <c r="W3">
+        <v>1079</v>
+      </c>
+      <c r="X3">
+        <f t="shared" ref="X3:X23" si="2">T3/(T3+V3)</f>
+        <v>3.9735099337748346E-2</v>
+      </c>
+      <c r="Y3">
+        <f t="shared" ref="Y3:Y23" si="3">U3/(U3+W3)</f>
+        <v>2.8802880288028802E-2</v>
+      </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>160</v>
       </c>
@@ -1800,8 +2841,28 @@
         <v>0.60756075607560756</v>
       </c>
       <c r="M4" s="2"/>
+      <c r="T4">
+        <v>6</v>
+      </c>
+      <c r="U4">
+        <v>27</v>
+      </c>
+      <c r="V4">
+        <v>145</v>
+      </c>
+      <c r="W4">
+        <v>1084</v>
+      </c>
+      <c r="X4">
+        <f t="shared" si="2"/>
+        <v>3.9735099337748346E-2</v>
+      </c>
+      <c r="Y4">
+        <f t="shared" si="3"/>
+        <v>2.4302430243024302E-2</v>
+      </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>165</v>
       </c>
@@ -1826,8 +2887,28 @@
         <v>0.53735373537353737</v>
       </c>
       <c r="M5" s="2"/>
+      <c r="T5">
+        <v>6</v>
+      </c>
+      <c r="U5">
+        <v>23</v>
+      </c>
+      <c r="V5">
+        <v>145</v>
+      </c>
+      <c r="W5">
+        <v>1088</v>
+      </c>
+      <c r="X5">
+        <f t="shared" si="2"/>
+        <v>3.9735099337748346E-2</v>
+      </c>
+      <c r="Y5">
+        <f t="shared" si="3"/>
+        <v>2.0702070207020702E-2</v>
+      </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>170</v>
       </c>
@@ -1852,8 +2933,28 @@
         <v>0.48154815481548152</v>
       </c>
       <c r="M6" s="2"/>
+      <c r="T6">
+        <v>6</v>
+      </c>
+      <c r="U6">
+        <v>23</v>
+      </c>
+      <c r="V6">
+        <v>145</v>
+      </c>
+      <c r="W6">
+        <v>1088</v>
+      </c>
+      <c r="X6">
+        <f t="shared" si="2"/>
+        <v>3.9735099337748346E-2</v>
+      </c>
+      <c r="Y6">
+        <f t="shared" si="3"/>
+        <v>2.0702070207020702E-2</v>
+      </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>175</v>
       </c>
@@ -1878,8 +2979,28 @@
         <v>0.42124212421242124</v>
       </c>
       <c r="M7" s="2"/>
+      <c r="T7">
+        <v>6</v>
+      </c>
+      <c r="U7">
+        <v>22</v>
+      </c>
+      <c r="V7">
+        <v>145</v>
+      </c>
+      <c r="W7">
+        <v>1089</v>
+      </c>
+      <c r="X7">
+        <f t="shared" si="2"/>
+        <v>3.9735099337748346E-2</v>
+      </c>
+      <c r="Y7">
+        <f t="shared" si="3"/>
+        <v>1.9801980198019802E-2</v>
+      </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>180</v>
       </c>
@@ -1904,8 +3025,28 @@
         <v>0.34743474347434744</v>
       </c>
       <c r="M8" s="2"/>
+      <c r="T8">
+        <v>6</v>
+      </c>
+      <c r="U8">
+        <v>17</v>
+      </c>
+      <c r="V8">
+        <v>145</v>
+      </c>
+      <c r="W8">
+        <v>1094</v>
+      </c>
+      <c r="X8">
+        <f t="shared" si="2"/>
+        <v>3.9735099337748346E-2</v>
+      </c>
+      <c r="Y8">
+        <f t="shared" si="3"/>
+        <v>1.5301530153015301E-2</v>
+      </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>185</v>
       </c>
@@ -1930,8 +3071,28 @@
         <v>0.27722772277227725</v>
       </c>
       <c r="M9" s="2"/>
+      <c r="T9">
+        <v>6</v>
+      </c>
+      <c r="U9">
+        <v>16</v>
+      </c>
+      <c r="V9">
+        <v>145</v>
+      </c>
+      <c r="W9">
+        <v>1095</v>
+      </c>
+      <c r="X9">
+        <f t="shared" si="2"/>
+        <v>3.9735099337748346E-2</v>
+      </c>
+      <c r="Y9">
+        <f t="shared" si="3"/>
+        <v>1.4401440144014401E-2</v>
+      </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>190</v>
       </c>
@@ -1956,8 +3117,28 @@
         <v>0.20792079207920791</v>
       </c>
       <c r="M10" s="2"/>
+      <c r="T10">
+        <v>6</v>
+      </c>
+      <c r="U10">
+        <v>16</v>
+      </c>
+      <c r="V10">
+        <v>145</v>
+      </c>
+      <c r="W10">
+        <v>1095</v>
+      </c>
+      <c r="X10">
+        <f t="shared" si="2"/>
+        <v>3.9735099337748346E-2</v>
+      </c>
+      <c r="Y10">
+        <f t="shared" si="3"/>
+        <v>1.4401440144014401E-2</v>
+      </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>195</v>
       </c>
@@ -1982,8 +3163,28 @@
         <v>0.15211521152115212</v>
       </c>
       <c r="M11" s="2"/>
+      <c r="T11">
+        <v>6</v>
+      </c>
+      <c r="U11">
+        <v>10</v>
+      </c>
+      <c r="V11">
+        <v>145</v>
+      </c>
+      <c r="W11">
+        <v>1101</v>
+      </c>
+      <c r="X11">
+        <f t="shared" si="2"/>
+        <v>3.9735099337748346E-2</v>
+      </c>
+      <c r="Y11">
+        <f t="shared" si="3"/>
+        <v>9.0009000900090012E-3</v>
+      </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>200</v>
       </c>
@@ -2008,8 +3209,28 @@
         <v>0.11161116111611161</v>
       </c>
       <c r="M12" s="2"/>
+      <c r="T12">
+        <v>6</v>
+      </c>
+      <c r="U12">
+        <v>9</v>
+      </c>
+      <c r="V12">
+        <v>145</v>
+      </c>
+      <c r="W12">
+        <v>1102</v>
+      </c>
+      <c r="X12">
+        <f t="shared" si="2"/>
+        <v>3.9735099337748346E-2</v>
+      </c>
+      <c r="Y12">
+        <f t="shared" si="3"/>
+        <v>8.1008100810081012E-3</v>
+      </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>205</v>
       </c>
@@ -2034,8 +3255,28 @@
         <v>7.3807380738073802E-2</v>
       </c>
       <c r="M13" s="2"/>
+      <c r="T13">
+        <v>6</v>
+      </c>
+      <c r="U13">
+        <v>7</v>
+      </c>
+      <c r="V13">
+        <v>145</v>
+      </c>
+      <c r="W13">
+        <v>1104</v>
+      </c>
+      <c r="X13">
+        <f t="shared" si="2"/>
+        <v>3.9735099337748346E-2</v>
+      </c>
+      <c r="Y13">
+        <f t="shared" si="3"/>
+        <v>6.3006300630063005E-3</v>
+      </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>210</v>
       </c>
@@ -2060,8 +3301,28 @@
         <v>5.3105310531053107E-2</v>
       </c>
       <c r="M14" s="2"/>
+      <c r="T14">
+        <v>6</v>
+      </c>
+      <c r="U14">
+        <v>4</v>
+      </c>
+      <c r="V14">
+        <v>145</v>
+      </c>
+      <c r="W14">
+        <v>1107</v>
+      </c>
+      <c r="X14">
+        <f t="shared" si="2"/>
+        <v>3.9735099337748346E-2</v>
+      </c>
+      <c r="Y14">
+        <f t="shared" si="3"/>
+        <v>3.6003600360036002E-3</v>
+      </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>215</v>
       </c>
@@ -2086,8 +3347,28 @@
         <v>3.8703870387038701E-2</v>
       </c>
       <c r="M15" s="2"/>
+      <c r="T15">
+        <v>6</v>
+      </c>
+      <c r="U15">
+        <v>1</v>
+      </c>
+      <c r="V15">
+        <v>145</v>
+      </c>
+      <c r="W15">
+        <v>1110</v>
+      </c>
+      <c r="X15">
+        <f t="shared" si="2"/>
+        <v>3.9735099337748346E-2</v>
+      </c>
+      <c r="Y15">
+        <f t="shared" si="3"/>
+        <v>9.0009000900090005E-4</v>
+      </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>220</v>
       </c>
@@ -2112,8 +3393,28 @@
         <v>2.7002700270027002E-2</v>
       </c>
       <c r="M16" s="2"/>
+      <c r="T16">
+        <v>5</v>
+      </c>
+      <c r="U16">
+        <v>1</v>
+      </c>
+      <c r="V16">
+        <v>146</v>
+      </c>
+      <c r="W16">
+        <v>1110</v>
+      </c>
+      <c r="X16">
+        <f t="shared" si="2"/>
+        <v>3.3112582781456956E-2</v>
+      </c>
+      <c r="Y16">
+        <f t="shared" si="3"/>
+        <v>9.0009000900090005E-4</v>
+      </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>225</v>
       </c>
@@ -2138,8 +3439,28 @@
         <v>1.2601260126012601E-2</v>
       </c>
       <c r="M17" s="2"/>
+      <c r="T17">
+        <v>4</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <v>147</v>
+      </c>
+      <c r="W17">
+        <v>1111</v>
+      </c>
+      <c r="X17">
+        <f t="shared" si="2"/>
+        <v>2.6490066225165563E-2</v>
+      </c>
+      <c r="Y17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>230</v>
       </c>
@@ -2164,8 +3485,28 @@
         <v>4.5004500450045006E-3</v>
       </c>
       <c r="M18" s="2"/>
+      <c r="T18">
+        <v>3</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <v>148</v>
+      </c>
+      <c r="W18">
+        <v>1111</v>
+      </c>
+      <c r="X18">
+        <f t="shared" si="2"/>
+        <v>1.9867549668874173E-2</v>
+      </c>
+      <c r="Y18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>235</v>
       </c>
@@ -2190,8 +3531,28 @@
         <v>9.0009000900090005E-4</v>
       </c>
       <c r="M19" s="2"/>
+      <c r="T19">
+        <v>2</v>
+      </c>
+      <c r="U19">
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <v>149</v>
+      </c>
+      <c r="W19">
+        <v>1111</v>
+      </c>
+      <c r="X19">
+        <f t="shared" si="2"/>
+        <v>1.3245033112582781E-2</v>
+      </c>
+      <c r="Y19">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>240</v>
       </c>
@@ -2216,8 +3577,28 @@
         <v>0</v>
       </c>
       <c r="M20" s="2"/>
+      <c r="T20">
+        <v>1</v>
+      </c>
+      <c r="U20">
+        <v>0</v>
+      </c>
+      <c r="V20">
+        <v>150</v>
+      </c>
+      <c r="W20">
+        <v>1111</v>
+      </c>
+      <c r="X20">
+        <f t="shared" si="2"/>
+        <v>6.6225165562913907E-3</v>
+      </c>
+      <c r="Y20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>245</v>
       </c>
@@ -2242,8 +3623,28 @@
         <v>0</v>
       </c>
       <c r="M21" s="2"/>
+      <c r="T21">
+        <v>1</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <v>150</v>
+      </c>
+      <c r="W21">
+        <v>1111</v>
+      </c>
+      <c r="X21">
+        <f t="shared" si="2"/>
+        <v>6.6225165562913907E-3</v>
+      </c>
+      <c r="Y21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>250</v>
       </c>
@@ -2268,8 +3669,28 @@
         <v>0</v>
       </c>
       <c r="M22" s="2"/>
+      <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <v>0</v>
+      </c>
+      <c r="V22">
+        <v>151</v>
+      </c>
+      <c r="W22">
+        <v>1111</v>
+      </c>
+      <c r="X22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>255</v>
       </c>
@@ -2294,6 +3715,26 @@
         <v>0</v>
       </c>
       <c r="M23" s="2"/>
+      <c r="T23">
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <v>151</v>
+      </c>
+      <c r="W23">
+        <v>1111</v>
+      </c>
+      <c r="X23">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y23">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2310,9 +3751,9 @@
       <selection activeCell="H1" sqref="H1:H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2350,7 +3791,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2388,7 +3829,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -2426,7 +3867,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -2464,7 +3905,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -2502,7 +3943,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -2540,7 +3981,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -2578,7 +4019,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -2616,7 +4057,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -2654,7 +4095,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -2692,7 +4133,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -2730,7 +4171,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -2768,7 +4209,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -2806,7 +4247,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -2844,7 +4285,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -2882,7 +4323,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -2920,7 +4361,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -2958,7 +4399,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -2996,7 +4437,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -3034,7 +4475,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>0</v>
       </c>
@@ -3072,7 +4513,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>0</v>
       </c>
@@ -3110,7 +4551,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>0</v>
       </c>

--- a/lab3/Book1.xlsx
+++ b/lab3/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Masters_Catlog\Master_Catlog\Sem 3\ComputerVision\lab3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3375349C-0E73-4911-A282-D4068797E3D4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C235ECC-55B1-43A0-970F-452A96007363}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5C07B9A7-49B7-41C8-9BBB-936591106370}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="10">
   <si>
     <t>TP</t>
   </si>
@@ -56,6 +56,12 @@
   </si>
   <si>
     <t>FPR</t>
+  </si>
+  <si>
+    <t>Tp</t>
+  </si>
+  <si>
+    <t>TotalE</t>
   </si>
 </sst>
 </file>
@@ -169,59 +175,6 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
-              <a:gradFill>
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent1">
-                      <a:lumMod val="5000"/>
-                      <a:lumOff val="95000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="74000">
-                    <a:schemeClr val="accent1">
-                      <a:lumMod val="45000"/>
-                      <a:lumOff val="55000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="83000">
-                    <a:schemeClr val="accent1">
-                      <a:lumMod val="45000"/>
-                      <a:lumOff val="55000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent1">
-                      <a:lumMod val="30000"/>
-                      <a:lumOff val="70000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="1"/>
-              </a:gradFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
@@ -507,6 +460,708 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-E886-4434-9C19-3631685870B9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent2">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$Y$2:$Y$107</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="106"/>
+                <c:pt idx="0">
+                  <c:v>9.0009000900090008E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.0909090909090912E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.0909090909090912E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.0909090909090912E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.0909090909090912E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.0909090909090912E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.2709270927092705E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.2709270927092705E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.2709270927092705E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.2709270927092705E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.3609360936093608E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.2709270927092705E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9.2709270927092705E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9.2709270927092705E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9.2709270927092705E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9.2709270927092705E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9.2709270927092705E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9.2709270927092705E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9.1809180918091815E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.1809180918091815E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>9.1809180918091815E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9.0909090909090912E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>9.0909090909090912E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9.0009000900090008E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>8.9108910891089105E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>8.8208820882088215E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>8.6408640864086408E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>8.3708370837083712E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>8.1008100810081002E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>7.9207920792079209E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>7.7407740774077402E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>7.4707470747074706E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>7.0207020702070203E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>6.840684068406841E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>6.480648064806481E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>6.1206120612061203E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>5.7605760576057603E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>5.7605760576057603E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>5.4005400540054004E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4.9504950495049507E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4.6804680468046804E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4.4104410441044108E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4.0504050405040501E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3.8703870387038701E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3.6903690369036901E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3.4203420342034205E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3.1503150315031501E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2.6102610261026102E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2.5202520252025202E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2.2502250225022502E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2.1602160216021602E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.7101710171017102E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.7101710171017102E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.2601260126012601E-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.0801080108010801E-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>9.0009000900090012E-3</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>7.2007200720072004E-3</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>6.3006300630063005E-3</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>5.4005400540054005E-3</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>4.5004500450045006E-3</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.8001800180018001E-3</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$X$2:$X$107</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="106"/>
+                <c:pt idx="0">
+                  <c:v>0.66225165562913912</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.66225165562913912</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.66225165562913912</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.66225165562913912</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.66225165562913912</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.66225165562913912</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.66887417218543044</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.66887417218543044</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.66887417218543044</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.67549668874172186</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.67549668874172186</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.67549668874172186</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.67549668874172186</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.67549668874172186</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.67549668874172186</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.67549668874172186</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.67549668874172186</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.67549668874172186</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.67549668874172186</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.67549668874172186</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.67549668874172186</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.66887417218543044</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.66887417218543044</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.66887417218543044</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.66887417218543044</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.66225165562913912</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.66225165562913912</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.6556291390728477</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.6556291390728477</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.64900662251655628</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.64900662251655628</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.64900662251655628</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.64238410596026485</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.64238410596026485</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.64238410596026485</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.64238410596026485</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.64238410596026485</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.64238410596026485</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.64238410596026485</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.64238410596026485</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.63576158940397354</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.62913907284768211</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.62913907284768211</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.62251655629139069</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.62251655629139069</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.61589403973509937</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.61589403973509937</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.61589403973509937</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.61589403973509937</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.61589403973509937</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.61589403973509937</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.60264900662251653</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.59602649006622521</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.59602649006622521</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.58278145695364236</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.58278145695364236</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.58278145695364236</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.58278145695364236</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.58278145695364236</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.58278145695364236</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.57615894039735094</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.57615894039735094</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.57615894039735094</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.56953642384105962</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.5629139072847682</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.54966887417218546</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.54966887417218546</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.5298013245033113</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.51655629139072845</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.50331125827814571</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.49668874172185429</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.49006622516556292</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.47019867549668876</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.45033112582781459</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.43046357615894038</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.41721854304635764</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.41059602649006621</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.39072847682119205</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.37748344370860926</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.36423841059602646</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.3443708609271523</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.31788079470198677</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.29801324503311261</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.28476821192052981</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.25827814569536423</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.23178807947019867</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.20529801324503311</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.19867549668874171</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.19205298013245034</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.19205298013245034</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.17880794701986755</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.17880794701986755</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.15231788079470199</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.14569536423841059</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.12582781456953643</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>9.9337748344370855E-2</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>7.9470198675496692E-2</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>6.6225165562913912E-2</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>4.6357615894039736E-2</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>3.9735099337748346E-2</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>3.3112582781456956E-2</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>6.6225165562913907E-3</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>6.6225165562913907E-3</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>6.6225165562913907E-3</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>6.6225165562913907E-3</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>6.6225165562913907E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-AB49-4E99-831E-DA3ADC6FB180}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -772,456 +1427,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$Y$2:$Y$23</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
-                <c:pt idx="0">
-                  <c:v>3.6003600360036005E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.8802880288028802E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.4302430243024302E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.0702070207020702E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.0702070207020702E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.9801980198019802E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.5301530153015301E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.4401440144014401E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.4401440144014401E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9.0009000900090012E-3</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>8.1008100810081012E-3</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>6.3006300630063005E-3</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>3.6003600360036002E-3</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>9.0009000900090005E-4</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>9.0009000900090005E-4</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$X$2:$X$23</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
-                <c:pt idx="0">
-                  <c:v>3.9735099337748346E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.9735099337748346E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.9735099337748346E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.9735099337748346E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.9735099337748346E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.9735099337748346E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.9735099337748346E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.9735099337748346E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3.9735099337748346E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3.9735099337748346E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3.9735099337748346E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3.9735099337748346E-2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>3.9735099337748346E-2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3.9735099337748346E-2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3.3112582781456956E-2</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2.6490066225165563E-2</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.9867549668874173E-2</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.3245033112582781E-2</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>6.6225165562913907E-3</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>6.6225165562913907E-3</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-BE11-4544-BCBD-C52BFD84A2E3}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="1451577743"/>
-        <c:axId val="1451197503"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1451577743"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1451197503"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1451197503"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1451577743"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1799,536 +2005,20 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
+      <xdr:colOff>266699</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>175260</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>594360</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>371474</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2348,42 +2038,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>166687</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>52387</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A13772C-E250-480B-82FD-1C122798B1EE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2689,10 +2343,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{164C203D-EF02-42D6-9D62-66B310BB5300}">
-  <dimension ref="A1:Y23"/>
+  <dimension ref="A1:Y107"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2750,24 +2404,24 @@
       </c>
       <c r="M2" s="2"/>
       <c r="T2">
-        <v>6</v>
+        <v>100</v>
       </c>
       <c r="U2">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="V2">
-        <v>145</v>
+        <v>51</v>
       </c>
       <c r="W2">
-        <v>1071</v>
+        <v>1011</v>
       </c>
       <c r="X2">
         <f>T2/(T2+V2)</f>
-        <v>3.9735099337748346E-2</v>
+        <v>0.66225165562913912</v>
       </c>
       <c r="Y2">
         <f>U2/(U2+W2)</f>
-        <v>3.6003600360036005E-2</v>
+        <v>9.0009000900090008E-2</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -2796,24 +2450,24 @@
       </c>
       <c r="M3" s="2"/>
       <c r="T3">
-        <v>6</v>
+        <v>100</v>
       </c>
       <c r="U3">
-        <v>32</v>
+        <v>101</v>
       </c>
       <c r="V3">
-        <v>145</v>
+        <v>51</v>
       </c>
       <c r="W3">
-        <v>1079</v>
+        <v>1010</v>
       </c>
       <c r="X3">
-        <f t="shared" ref="X3:X23" si="2">T3/(T3+V3)</f>
-        <v>3.9735099337748346E-2</v>
+        <f t="shared" ref="X3:X66" si="2">T3/(T3+V3)</f>
+        <v>0.66225165562913912</v>
       </c>
       <c r="Y3">
-        <f t="shared" ref="Y3:Y23" si="3">U3/(U3+W3)</f>
-        <v>2.8802880288028802E-2</v>
+        <f t="shared" ref="Y3:Y66" si="3">U3/(U3+W3)</f>
+        <v>9.0909090909090912E-2</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -2842,24 +2496,24 @@
       </c>
       <c r="M4" s="2"/>
       <c r="T4">
-        <v>6</v>
+        <v>100</v>
       </c>
       <c r="U4">
-        <v>27</v>
+        <v>101</v>
       </c>
       <c r="V4">
-        <v>145</v>
+        <v>51</v>
       </c>
       <c r="W4">
-        <v>1084</v>
+        <v>1010</v>
       </c>
       <c r="X4">
         <f t="shared" si="2"/>
-        <v>3.9735099337748346E-2</v>
+        <v>0.66225165562913912</v>
       </c>
       <c r="Y4">
         <f t="shared" si="3"/>
-        <v>2.4302430243024302E-2</v>
+        <v>9.0909090909090912E-2</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -2888,24 +2542,24 @@
       </c>
       <c r="M5" s="2"/>
       <c r="T5">
-        <v>6</v>
+        <v>100</v>
       </c>
       <c r="U5">
-        <v>23</v>
+        <v>101</v>
       </c>
       <c r="V5">
-        <v>145</v>
+        <v>51</v>
       </c>
       <c r="W5">
-        <v>1088</v>
+        <v>1010</v>
       </c>
       <c r="X5">
         <f t="shared" si="2"/>
-        <v>3.9735099337748346E-2</v>
+        <v>0.66225165562913912</v>
       </c>
       <c r="Y5">
         <f t="shared" si="3"/>
-        <v>2.0702070207020702E-2</v>
+        <v>9.0909090909090912E-2</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
@@ -2934,24 +2588,24 @@
       </c>
       <c r="M6" s="2"/>
       <c r="T6">
-        <v>6</v>
+        <v>100</v>
       </c>
       <c r="U6">
-        <v>23</v>
+        <v>101</v>
       </c>
       <c r="V6">
-        <v>145</v>
+        <v>51</v>
       </c>
       <c r="W6">
-        <v>1088</v>
+        <v>1010</v>
       </c>
       <c r="X6">
         <f t="shared" si="2"/>
-        <v>3.9735099337748346E-2</v>
+        <v>0.66225165562913912</v>
       </c>
       <c r="Y6">
         <f t="shared" si="3"/>
-        <v>2.0702070207020702E-2</v>
+        <v>9.0909090909090912E-2</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
@@ -2980,24 +2634,24 @@
       </c>
       <c r="M7" s="2"/>
       <c r="T7">
-        <v>6</v>
+        <v>100</v>
       </c>
       <c r="U7">
-        <v>22</v>
+        <v>101</v>
       </c>
       <c r="V7">
-        <v>145</v>
+        <v>51</v>
       </c>
       <c r="W7">
-        <v>1089</v>
+        <v>1010</v>
       </c>
       <c r="X7">
         <f t="shared" si="2"/>
-        <v>3.9735099337748346E-2</v>
+        <v>0.66225165562913912</v>
       </c>
       <c r="Y7">
         <f t="shared" si="3"/>
-        <v>1.9801980198019802E-2</v>
+        <v>9.0909090909090912E-2</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
@@ -3026,24 +2680,24 @@
       </c>
       <c r="M8" s="2"/>
       <c r="T8">
-        <v>6</v>
+        <v>101</v>
       </c>
       <c r="U8">
-        <v>17</v>
+        <v>103</v>
       </c>
       <c r="V8">
-        <v>145</v>
+        <v>50</v>
       </c>
       <c r="W8">
-        <v>1094</v>
+        <v>1008</v>
       </c>
       <c r="X8">
         <f t="shared" si="2"/>
-        <v>3.9735099337748346E-2</v>
+        <v>0.66887417218543044</v>
       </c>
       <c r="Y8">
         <f t="shared" si="3"/>
-        <v>1.5301530153015301E-2</v>
+        <v>9.2709270927092705E-2</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
@@ -3072,24 +2726,24 @@
       </c>
       <c r="M9" s="2"/>
       <c r="T9">
-        <v>6</v>
+        <v>101</v>
       </c>
       <c r="U9">
-        <v>16</v>
+        <v>103</v>
       </c>
       <c r="V9">
-        <v>145</v>
+        <v>50</v>
       </c>
       <c r="W9">
-        <v>1095</v>
+        <v>1008</v>
       </c>
       <c r="X9">
         <f t="shared" si="2"/>
-        <v>3.9735099337748346E-2</v>
+        <v>0.66887417218543044</v>
       </c>
       <c r="Y9">
         <f t="shared" si="3"/>
-        <v>1.4401440144014401E-2</v>
+        <v>9.2709270927092705E-2</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
@@ -3118,24 +2772,24 @@
       </c>
       <c r="M10" s="2"/>
       <c r="T10">
-        <v>6</v>
+        <v>101</v>
       </c>
       <c r="U10">
-        <v>16</v>
+        <v>103</v>
       </c>
       <c r="V10">
-        <v>145</v>
+        <v>50</v>
       </c>
       <c r="W10">
-        <v>1095</v>
+        <v>1008</v>
       </c>
       <c r="X10">
         <f t="shared" si="2"/>
-        <v>3.9735099337748346E-2</v>
+        <v>0.66887417218543044</v>
       </c>
       <c r="Y10">
         <f t="shared" si="3"/>
-        <v>1.4401440144014401E-2</v>
+        <v>9.2709270927092705E-2</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
@@ -3164,24 +2818,24 @@
       </c>
       <c r="M11" s="2"/>
       <c r="T11">
-        <v>6</v>
+        <v>102</v>
       </c>
       <c r="U11">
-        <v>10</v>
+        <v>103</v>
       </c>
       <c r="V11">
-        <v>145</v>
+        <v>49</v>
       </c>
       <c r="W11">
-        <v>1101</v>
+        <v>1008</v>
       </c>
       <c r="X11">
         <f t="shared" si="2"/>
-        <v>3.9735099337748346E-2</v>
+        <v>0.67549668874172186</v>
       </c>
       <c r="Y11">
         <f t="shared" si="3"/>
-        <v>9.0009000900090012E-3</v>
+        <v>9.2709270927092705E-2</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
@@ -3210,24 +2864,24 @@
       </c>
       <c r="M12" s="2"/>
       <c r="T12">
-        <v>6</v>
+        <v>102</v>
       </c>
       <c r="U12">
-        <v>9</v>
+        <v>104</v>
       </c>
       <c r="V12">
-        <v>145</v>
+        <v>49</v>
       </c>
       <c r="W12">
-        <v>1102</v>
+        <v>1007</v>
       </c>
       <c r="X12">
         <f t="shared" si="2"/>
-        <v>3.9735099337748346E-2</v>
+        <v>0.67549668874172186</v>
       </c>
       <c r="Y12">
         <f t="shared" si="3"/>
-        <v>8.1008100810081012E-3</v>
+        <v>9.3609360936093608E-2</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
@@ -3256,24 +2910,24 @@
       </c>
       <c r="M13" s="2"/>
       <c r="T13">
-        <v>6</v>
+        <v>102</v>
       </c>
       <c r="U13">
-        <v>7</v>
+        <v>103</v>
       </c>
       <c r="V13">
-        <v>145</v>
+        <v>49</v>
       </c>
       <c r="W13">
-        <v>1104</v>
+        <v>1008</v>
       </c>
       <c r="X13">
         <f t="shared" si="2"/>
-        <v>3.9735099337748346E-2</v>
+        <v>0.67549668874172186</v>
       </c>
       <c r="Y13">
         <f t="shared" si="3"/>
-        <v>6.3006300630063005E-3</v>
+        <v>9.2709270927092705E-2</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
@@ -3302,24 +2956,24 @@
       </c>
       <c r="M14" s="2"/>
       <c r="T14">
-        <v>6</v>
+        <v>102</v>
       </c>
       <c r="U14">
-        <v>4</v>
+        <v>103</v>
       </c>
       <c r="V14">
-        <v>145</v>
+        <v>49</v>
       </c>
       <c r="W14">
-        <v>1107</v>
+        <v>1008</v>
       </c>
       <c r="X14">
         <f t="shared" si="2"/>
-        <v>3.9735099337748346E-2</v>
+        <v>0.67549668874172186</v>
       </c>
       <c r="Y14">
         <f t="shared" si="3"/>
-        <v>3.6003600360036002E-3</v>
+        <v>9.2709270927092705E-2</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
@@ -3348,24 +3002,24 @@
       </c>
       <c r="M15" s="2"/>
       <c r="T15">
-        <v>6</v>
+        <v>102</v>
       </c>
       <c r="U15">
-        <v>1</v>
+        <v>103</v>
       </c>
       <c r="V15">
-        <v>145</v>
+        <v>49</v>
       </c>
       <c r="W15">
-        <v>1110</v>
+        <v>1008</v>
       </c>
       <c r="X15">
         <f t="shared" si="2"/>
-        <v>3.9735099337748346E-2</v>
+        <v>0.67549668874172186</v>
       </c>
       <c r="Y15">
         <f t="shared" si="3"/>
-        <v>9.0009000900090005E-4</v>
+        <v>9.2709270927092705E-2</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
@@ -3394,24 +3048,24 @@
       </c>
       <c r="M16" s="2"/>
       <c r="T16">
-        <v>5</v>
+        <v>102</v>
       </c>
       <c r="U16">
-        <v>1</v>
+        <v>103</v>
       </c>
       <c r="V16">
-        <v>146</v>
+        <v>49</v>
       </c>
       <c r="W16">
-        <v>1110</v>
+        <v>1008</v>
       </c>
       <c r="X16">
         <f t="shared" si="2"/>
-        <v>3.3112582781456956E-2</v>
+        <v>0.67549668874172186</v>
       </c>
       <c r="Y16">
         <f t="shared" si="3"/>
-        <v>9.0009000900090005E-4</v>
+        <v>9.2709270927092705E-2</v>
       </c>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.25">
@@ -3440,24 +3094,24 @@
       </c>
       <c r="M17" s="2"/>
       <c r="T17">
-        <v>4</v>
+        <v>102</v>
       </c>
       <c r="U17">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="V17">
-        <v>147</v>
+        <v>49</v>
       </c>
       <c r="W17">
-        <v>1111</v>
+        <v>1008</v>
       </c>
       <c r="X17">
         <f t="shared" si="2"/>
-        <v>2.6490066225165563E-2</v>
+        <v>0.67549668874172186</v>
       </c>
       <c r="Y17">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>9.2709270927092705E-2</v>
       </c>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.25">
@@ -3486,24 +3140,24 @@
       </c>
       <c r="M18" s="2"/>
       <c r="T18">
-        <v>3</v>
+        <v>102</v>
       </c>
       <c r="U18">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="V18">
-        <v>148</v>
+        <v>49</v>
       </c>
       <c r="W18">
-        <v>1111</v>
+        <v>1008</v>
       </c>
       <c r="X18">
         <f t="shared" si="2"/>
-        <v>1.9867549668874173E-2</v>
+        <v>0.67549668874172186</v>
       </c>
       <c r="Y18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>9.2709270927092705E-2</v>
       </c>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.25">
@@ -3532,24 +3186,24 @@
       </c>
       <c r="M19" s="2"/>
       <c r="T19">
-        <v>2</v>
+        <v>102</v>
       </c>
       <c r="U19">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="V19">
-        <v>149</v>
+        <v>49</v>
       </c>
       <c r="W19">
-        <v>1111</v>
+        <v>1008</v>
       </c>
       <c r="X19">
         <f t="shared" si="2"/>
-        <v>1.3245033112582781E-2</v>
+        <v>0.67549668874172186</v>
       </c>
       <c r="Y19">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>9.2709270927092705E-2</v>
       </c>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.25">
@@ -3578,24 +3232,24 @@
       </c>
       <c r="M20" s="2"/>
       <c r="T20">
-        <v>1</v>
+        <v>102</v>
       </c>
       <c r="U20">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="V20">
-        <v>150</v>
+        <v>49</v>
       </c>
       <c r="W20">
-        <v>1111</v>
+        <v>1009</v>
       </c>
       <c r="X20">
         <f t="shared" si="2"/>
-        <v>6.6225165562913907E-3</v>
+        <v>0.67549668874172186</v>
       </c>
       <c r="Y20">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>9.1809180918091815E-2</v>
       </c>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.25">
@@ -3624,24 +3278,24 @@
       </c>
       <c r="M21" s="2"/>
       <c r="T21">
-        <v>1</v>
+        <v>102</v>
       </c>
       <c r="U21">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="V21">
-        <v>150</v>
+        <v>49</v>
       </c>
       <c r="W21">
-        <v>1111</v>
+        <v>1009</v>
       </c>
       <c r="X21">
         <f t="shared" si="2"/>
-        <v>6.6225165562913907E-3</v>
+        <v>0.67549668874172186</v>
       </c>
       <c r="Y21">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>9.1809180918091815E-2</v>
       </c>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.25">
@@ -3670,24 +3324,24 @@
       </c>
       <c r="M22" s="2"/>
       <c r="T22">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="U22">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="V22">
-        <v>151</v>
+        <v>49</v>
       </c>
       <c r="W22">
-        <v>1111</v>
+        <v>1009</v>
       </c>
       <c r="X22">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.67549668874172186</v>
       </c>
       <c r="Y22">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>9.1809180918091815E-2</v>
       </c>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.25">
@@ -3716,23 +3370,1871 @@
       </c>
       <c r="M23" s="2"/>
       <c r="T23">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="U23">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="V23">
-        <v>151</v>
+        <v>50</v>
       </c>
       <c r="W23">
-        <v>1111</v>
+        <v>1010</v>
       </c>
       <c r="X23">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.66887417218543044</v>
       </c>
       <c r="Y23">
         <f t="shared" si="3"/>
+        <v>9.0909090909090912E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="T24">
+        <v>101</v>
+      </c>
+      <c r="U24">
+        <v>101</v>
+      </c>
+      <c r="V24">
+        <v>50</v>
+      </c>
+      <c r="W24">
+        <v>1010</v>
+      </c>
+      <c r="X24">
+        <f t="shared" si="2"/>
+        <v>0.66887417218543044</v>
+      </c>
+      <c r="Y24">
+        <f t="shared" si="3"/>
+        <v>9.0909090909090912E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="T25">
+        <v>101</v>
+      </c>
+      <c r="U25">
+        <v>100</v>
+      </c>
+      <c r="V25">
+        <v>50</v>
+      </c>
+      <c r="W25">
+        <v>1011</v>
+      </c>
+      <c r="X25">
+        <f t="shared" si="2"/>
+        <v>0.66887417218543044</v>
+      </c>
+      <c r="Y25">
+        <f t="shared" si="3"/>
+        <v>9.0009000900090008E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="T26">
+        <v>101</v>
+      </c>
+      <c r="U26">
+        <v>99</v>
+      </c>
+      <c r="V26">
+        <v>50</v>
+      </c>
+      <c r="W26">
+        <v>1012</v>
+      </c>
+      <c r="X26">
+        <f t="shared" si="2"/>
+        <v>0.66887417218543044</v>
+      </c>
+      <c r="Y26">
+        <f t="shared" si="3"/>
+        <v>8.9108910891089105E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="T27">
+        <v>100</v>
+      </c>
+      <c r="U27">
+        <v>98</v>
+      </c>
+      <c r="V27">
+        <v>51</v>
+      </c>
+      <c r="W27">
+        <v>1013</v>
+      </c>
+      <c r="X27">
+        <f t="shared" si="2"/>
+        <v>0.66225165562913912</v>
+      </c>
+      <c r="Y27">
+        <f t="shared" si="3"/>
+        <v>8.8208820882088215E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="T28">
+        <v>100</v>
+      </c>
+      <c r="U28">
+        <v>96</v>
+      </c>
+      <c r="V28">
+        <v>51</v>
+      </c>
+      <c r="W28">
+        <v>1015</v>
+      </c>
+      <c r="X28">
+        <f t="shared" si="2"/>
+        <v>0.66225165562913912</v>
+      </c>
+      <c r="Y28">
+        <f t="shared" si="3"/>
+        <v>8.6408640864086408E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="T29">
+        <v>99</v>
+      </c>
+      <c r="U29">
+        <v>93</v>
+      </c>
+      <c r="V29">
+        <v>52</v>
+      </c>
+      <c r="W29">
+        <v>1018</v>
+      </c>
+      <c r="X29">
+        <f t="shared" si="2"/>
+        <v>0.6556291390728477</v>
+      </c>
+      <c r="Y29">
+        <f t="shared" si="3"/>
+        <v>8.3708370837083712E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="T30">
+        <v>99</v>
+      </c>
+      <c r="U30">
+        <v>90</v>
+      </c>
+      <c r="V30">
+        <v>52</v>
+      </c>
+      <c r="W30">
+        <v>1021</v>
+      </c>
+      <c r="X30">
+        <f t="shared" si="2"/>
+        <v>0.6556291390728477</v>
+      </c>
+      <c r="Y30">
+        <f t="shared" si="3"/>
+        <v>8.1008100810081002E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="T31">
+        <v>98</v>
+      </c>
+      <c r="U31">
+        <v>88</v>
+      </c>
+      <c r="V31">
+        <v>53</v>
+      </c>
+      <c r="W31">
+        <v>1023</v>
+      </c>
+      <c r="X31">
+        <f t="shared" si="2"/>
+        <v>0.64900662251655628</v>
+      </c>
+      <c r="Y31">
+        <f t="shared" si="3"/>
+        <v>7.9207920792079209E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="T32">
+        <v>98</v>
+      </c>
+      <c r="U32">
+        <v>86</v>
+      </c>
+      <c r="V32">
+        <v>53</v>
+      </c>
+      <c r="W32">
+        <v>1025</v>
+      </c>
+      <c r="X32">
+        <f t="shared" si="2"/>
+        <v>0.64900662251655628</v>
+      </c>
+      <c r="Y32">
+        <f t="shared" si="3"/>
+        <v>7.7407740774077402E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="20:25" x14ac:dyDescent="0.25">
+      <c r="T33">
+        <v>98</v>
+      </c>
+      <c r="U33">
+        <v>83</v>
+      </c>
+      <c r="V33">
+        <v>53</v>
+      </c>
+      <c r="W33">
+        <v>1028</v>
+      </c>
+      <c r="X33">
+        <f t="shared" si="2"/>
+        <v>0.64900662251655628</v>
+      </c>
+      <c r="Y33">
+        <f t="shared" si="3"/>
+        <v>7.4707470747074706E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="20:25" x14ac:dyDescent="0.25">
+      <c r="T34">
+        <v>97</v>
+      </c>
+      <c r="U34">
+        <v>78</v>
+      </c>
+      <c r="V34">
+        <v>54</v>
+      </c>
+      <c r="W34">
+        <v>1033</v>
+      </c>
+      <c r="X34">
+        <f t="shared" si="2"/>
+        <v>0.64238410596026485</v>
+      </c>
+      <c r="Y34">
+        <f t="shared" si="3"/>
+        <v>7.0207020702070203E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="20:25" x14ac:dyDescent="0.25">
+      <c r="T35">
+        <v>97</v>
+      </c>
+      <c r="U35">
+        <v>76</v>
+      </c>
+      <c r="V35">
+        <v>54</v>
+      </c>
+      <c r="W35">
+        <v>1035</v>
+      </c>
+      <c r="X35">
+        <f t="shared" si="2"/>
+        <v>0.64238410596026485</v>
+      </c>
+      <c r="Y35">
+        <f t="shared" si="3"/>
+        <v>6.840684068406841E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="20:25" x14ac:dyDescent="0.25">
+      <c r="T36">
+        <v>97</v>
+      </c>
+      <c r="U36">
+        <v>72</v>
+      </c>
+      <c r="V36">
+        <v>54</v>
+      </c>
+      <c r="W36">
+        <v>1039</v>
+      </c>
+      <c r="X36">
+        <f t="shared" si="2"/>
+        <v>0.64238410596026485</v>
+      </c>
+      <c r="Y36">
+        <f t="shared" si="3"/>
+        <v>6.480648064806481E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="20:25" x14ac:dyDescent="0.25">
+      <c r="T37">
+        <v>97</v>
+      </c>
+      <c r="U37">
+        <v>68</v>
+      </c>
+      <c r="V37">
+        <v>54</v>
+      </c>
+      <c r="W37">
+        <v>1043</v>
+      </c>
+      <c r="X37">
+        <f t="shared" si="2"/>
+        <v>0.64238410596026485</v>
+      </c>
+      <c r="Y37">
+        <f t="shared" si="3"/>
+        <v>6.1206120612061203E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="20:25" x14ac:dyDescent="0.25">
+      <c r="T38">
+        <v>97</v>
+      </c>
+      <c r="U38">
+        <v>64</v>
+      </c>
+      <c r="V38">
+        <v>54</v>
+      </c>
+      <c r="W38">
+        <v>1047</v>
+      </c>
+      <c r="X38">
+        <f t="shared" si="2"/>
+        <v>0.64238410596026485</v>
+      </c>
+      <c r="Y38">
+        <f t="shared" si="3"/>
+        <v>5.7605760576057603E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="20:25" x14ac:dyDescent="0.25">
+      <c r="T39">
+        <v>97</v>
+      </c>
+      <c r="U39">
+        <v>64</v>
+      </c>
+      <c r="V39">
+        <v>54</v>
+      </c>
+      <c r="W39">
+        <v>1047</v>
+      </c>
+      <c r="X39">
+        <f t="shared" si="2"/>
+        <v>0.64238410596026485</v>
+      </c>
+      <c r="Y39">
+        <f t="shared" si="3"/>
+        <v>5.7605760576057603E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="20:25" x14ac:dyDescent="0.25">
+      <c r="T40">
+        <v>97</v>
+      </c>
+      <c r="U40">
+        <v>60</v>
+      </c>
+      <c r="V40">
+        <v>54</v>
+      </c>
+      <c r="W40">
+        <v>1051</v>
+      </c>
+      <c r="X40">
+        <f t="shared" si="2"/>
+        <v>0.64238410596026485</v>
+      </c>
+      <c r="Y40">
+        <f t="shared" si="3"/>
+        <v>5.4005400540054004E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="20:25" x14ac:dyDescent="0.25">
+      <c r="T41">
+        <v>97</v>
+      </c>
+      <c r="U41">
+        <v>55</v>
+      </c>
+      <c r="V41">
+        <v>54</v>
+      </c>
+      <c r="W41">
+        <v>1056</v>
+      </c>
+      <c r="X41">
+        <f t="shared" si="2"/>
+        <v>0.64238410596026485</v>
+      </c>
+      <c r="Y41">
+        <f t="shared" si="3"/>
+        <v>4.9504950495049507E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="20:25" x14ac:dyDescent="0.25">
+      <c r="T42">
+        <v>96</v>
+      </c>
+      <c r="U42">
+        <v>52</v>
+      </c>
+      <c r="V42">
+        <v>55</v>
+      </c>
+      <c r="W42">
+        <v>1059</v>
+      </c>
+      <c r="X42">
+        <f t="shared" si="2"/>
+        <v>0.63576158940397354</v>
+      </c>
+      <c r="Y42">
+        <f t="shared" si="3"/>
+        <v>4.6804680468046804E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="20:25" x14ac:dyDescent="0.25">
+      <c r="T43">
+        <v>95</v>
+      </c>
+      <c r="U43">
+        <v>49</v>
+      </c>
+      <c r="V43">
+        <v>56</v>
+      </c>
+      <c r="W43">
+        <v>1062</v>
+      </c>
+      <c r="X43">
+        <f t="shared" si="2"/>
+        <v>0.62913907284768211</v>
+      </c>
+      <c r="Y43">
+        <f t="shared" si="3"/>
+        <v>4.4104410441044108E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="20:25" x14ac:dyDescent="0.25">
+      <c r="T44">
+        <v>95</v>
+      </c>
+      <c r="U44">
+        <v>45</v>
+      </c>
+      <c r="V44">
+        <v>56</v>
+      </c>
+      <c r="W44">
+        <v>1066</v>
+      </c>
+      <c r="X44">
+        <f t="shared" si="2"/>
+        <v>0.62913907284768211</v>
+      </c>
+      <c r="Y44">
+        <f t="shared" si="3"/>
+        <v>4.0504050405040501E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="20:25" x14ac:dyDescent="0.25">
+      <c r="T45">
+        <v>94</v>
+      </c>
+      <c r="U45">
+        <v>43</v>
+      </c>
+      <c r="V45">
+        <v>57</v>
+      </c>
+      <c r="W45">
+        <v>1068</v>
+      </c>
+      <c r="X45">
+        <f t="shared" si="2"/>
+        <v>0.62251655629139069</v>
+      </c>
+      <c r="Y45">
+        <f t="shared" si="3"/>
+        <v>3.8703870387038701E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="20:25" x14ac:dyDescent="0.25">
+      <c r="T46">
+        <v>94</v>
+      </c>
+      <c r="U46">
+        <v>41</v>
+      </c>
+      <c r="V46">
+        <v>57</v>
+      </c>
+      <c r="W46">
+        <v>1070</v>
+      </c>
+      <c r="X46">
+        <f t="shared" si="2"/>
+        <v>0.62251655629139069</v>
+      </c>
+      <c r="Y46">
+        <f t="shared" si="3"/>
+        <v>3.6903690369036901E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="20:25" x14ac:dyDescent="0.25">
+      <c r="T47">
+        <v>93</v>
+      </c>
+      <c r="U47">
+        <v>38</v>
+      </c>
+      <c r="V47">
+        <v>58</v>
+      </c>
+      <c r="W47">
+        <v>1073</v>
+      </c>
+      <c r="X47">
+        <f t="shared" si="2"/>
+        <v>0.61589403973509937</v>
+      </c>
+      <c r="Y47">
+        <f t="shared" si="3"/>
+        <v>3.4203420342034205E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="20:25" x14ac:dyDescent="0.25">
+      <c r="T48">
+        <v>93</v>
+      </c>
+      <c r="U48">
+        <v>35</v>
+      </c>
+      <c r="V48">
+        <v>58</v>
+      </c>
+      <c r="W48">
+        <v>1076</v>
+      </c>
+      <c r="X48">
+        <f t="shared" si="2"/>
+        <v>0.61589403973509937</v>
+      </c>
+      <c r="Y48">
+        <f t="shared" si="3"/>
+        <v>3.1503150315031501E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="20:25" x14ac:dyDescent="0.25">
+      <c r="T49">
+        <v>93</v>
+      </c>
+      <c r="U49">
+        <v>29</v>
+      </c>
+      <c r="V49">
+        <v>58</v>
+      </c>
+      <c r="W49">
+        <v>1082</v>
+      </c>
+      <c r="X49">
+        <f t="shared" si="2"/>
+        <v>0.61589403973509937</v>
+      </c>
+      <c r="Y49">
+        <f t="shared" si="3"/>
+        <v>2.6102610261026102E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="20:25" x14ac:dyDescent="0.25">
+      <c r="T50">
+        <v>93</v>
+      </c>
+      <c r="U50">
+        <v>28</v>
+      </c>
+      <c r="V50">
+        <v>58</v>
+      </c>
+      <c r="W50">
+        <v>1083</v>
+      </c>
+      <c r="X50">
+        <f t="shared" si="2"/>
+        <v>0.61589403973509937</v>
+      </c>
+      <c r="Y50">
+        <f t="shared" si="3"/>
+        <v>2.5202520252025202E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="20:25" x14ac:dyDescent="0.25">
+      <c r="T51">
+        <v>93</v>
+      </c>
+      <c r="U51">
+        <v>25</v>
+      </c>
+      <c r="V51">
+        <v>58</v>
+      </c>
+      <c r="W51">
+        <v>1086</v>
+      </c>
+      <c r="X51">
+        <f t="shared" si="2"/>
+        <v>0.61589403973509937</v>
+      </c>
+      <c r="Y51">
+        <f t="shared" si="3"/>
+        <v>2.2502250225022502E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="20:25" x14ac:dyDescent="0.25">
+      <c r="T52">
+        <v>93</v>
+      </c>
+      <c r="U52">
+        <v>24</v>
+      </c>
+      <c r="V52">
+        <v>58</v>
+      </c>
+      <c r="W52">
+        <v>1087</v>
+      </c>
+      <c r="X52">
+        <f t="shared" si="2"/>
+        <v>0.61589403973509937</v>
+      </c>
+      <c r="Y52">
+        <f t="shared" si="3"/>
+        <v>2.1602160216021602E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="20:25" x14ac:dyDescent="0.25">
+      <c r="T53">
+        <v>91</v>
+      </c>
+      <c r="U53">
+        <v>19</v>
+      </c>
+      <c r="V53">
+        <v>60</v>
+      </c>
+      <c r="W53">
+        <v>1092</v>
+      </c>
+      <c r="X53">
+        <f t="shared" si="2"/>
+        <v>0.60264900662251653</v>
+      </c>
+      <c r="Y53">
+        <f t="shared" si="3"/>
+        <v>1.7101710171017102E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="20:25" x14ac:dyDescent="0.25">
+      <c r="T54">
+        <v>90</v>
+      </c>
+      <c r="U54">
+        <v>19</v>
+      </c>
+      <c r="V54">
+        <v>61</v>
+      </c>
+      <c r="W54">
+        <v>1092</v>
+      </c>
+      <c r="X54">
+        <f t="shared" si="2"/>
+        <v>0.59602649006622521</v>
+      </c>
+      <c r="Y54">
+        <f t="shared" si="3"/>
+        <v>1.7101710171017102E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="20:25" x14ac:dyDescent="0.25">
+      <c r="T55">
+        <v>90</v>
+      </c>
+      <c r="U55">
+        <v>14</v>
+      </c>
+      <c r="V55">
+        <v>61</v>
+      </c>
+      <c r="W55">
+        <v>1097</v>
+      </c>
+      <c r="X55">
+        <f t="shared" si="2"/>
+        <v>0.59602649006622521</v>
+      </c>
+      <c r="Y55">
+        <f t="shared" si="3"/>
+        <v>1.2601260126012601E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="20:25" x14ac:dyDescent="0.25">
+      <c r="T56">
+        <v>88</v>
+      </c>
+      <c r="U56">
+        <v>12</v>
+      </c>
+      <c r="V56">
+        <v>63</v>
+      </c>
+      <c r="W56">
+        <v>1099</v>
+      </c>
+      <c r="X56">
+        <f t="shared" si="2"/>
+        <v>0.58278145695364236</v>
+      </c>
+      <c r="Y56">
+        <f t="shared" si="3"/>
+        <v>1.0801080108010801E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="20:25" x14ac:dyDescent="0.25">
+      <c r="T57">
+        <v>88</v>
+      </c>
+      <c r="U57">
+        <v>10</v>
+      </c>
+      <c r="V57">
+        <v>63</v>
+      </c>
+      <c r="W57">
+        <v>1101</v>
+      </c>
+      <c r="X57">
+        <f t="shared" si="2"/>
+        <v>0.58278145695364236</v>
+      </c>
+      <c r="Y57">
+        <f t="shared" si="3"/>
+        <v>9.0009000900090012E-3</v>
+      </c>
+    </row>
+    <row r="58" spans="20:25" x14ac:dyDescent="0.25">
+      <c r="T58">
+        <v>88</v>
+      </c>
+      <c r="U58">
+        <v>8</v>
+      </c>
+      <c r="V58">
+        <v>63</v>
+      </c>
+      <c r="W58">
+        <v>1103</v>
+      </c>
+      <c r="X58">
+        <f t="shared" si="2"/>
+        <v>0.58278145695364236</v>
+      </c>
+      <c r="Y58">
+        <f t="shared" si="3"/>
+        <v>7.2007200720072004E-3</v>
+      </c>
+    </row>
+    <row r="59" spans="20:25" x14ac:dyDescent="0.25">
+      <c r="T59">
+        <v>88</v>
+      </c>
+      <c r="U59">
+        <v>7</v>
+      </c>
+      <c r="V59">
+        <v>63</v>
+      </c>
+      <c r="W59">
+        <v>1104</v>
+      </c>
+      <c r="X59">
+        <f t="shared" si="2"/>
+        <v>0.58278145695364236</v>
+      </c>
+      <c r="Y59">
+        <f t="shared" si="3"/>
+        <v>6.3006300630063005E-3</v>
+      </c>
+    </row>
+    <row r="60" spans="20:25" x14ac:dyDescent="0.25">
+      <c r="T60">
+        <v>88</v>
+      </c>
+      <c r="U60">
+        <v>6</v>
+      </c>
+      <c r="V60">
+        <v>63</v>
+      </c>
+      <c r="W60">
+        <v>1105</v>
+      </c>
+      <c r="X60">
+        <f t="shared" si="2"/>
+        <v>0.58278145695364236</v>
+      </c>
+      <c r="Y60">
+        <f t="shared" si="3"/>
+        <v>5.4005400540054005E-3</v>
+      </c>
+    </row>
+    <row r="61" spans="20:25" x14ac:dyDescent="0.25">
+      <c r="T61">
+        <v>88</v>
+      </c>
+      <c r="U61">
+        <v>5</v>
+      </c>
+      <c r="V61">
+        <v>63</v>
+      </c>
+      <c r="W61">
+        <v>1106</v>
+      </c>
+      <c r="X61">
+        <f t="shared" si="2"/>
+        <v>0.58278145695364236</v>
+      </c>
+      <c r="Y61">
+        <f t="shared" si="3"/>
+        <v>4.5004500450045006E-3</v>
+      </c>
+    </row>
+    <row r="62" spans="20:25" x14ac:dyDescent="0.25">
+      <c r="T62">
+        <v>87</v>
+      </c>
+      <c r="U62">
+        <v>2</v>
+      </c>
+      <c r="V62">
+        <v>64</v>
+      </c>
+      <c r="W62">
+        <v>1109</v>
+      </c>
+      <c r="X62">
+        <f t="shared" si="2"/>
+        <v>0.57615894039735094</v>
+      </c>
+      <c r="Y62">
+        <f t="shared" si="3"/>
+        <v>1.8001800180018001E-3</v>
+      </c>
+    </row>
+    <row r="63" spans="20:25" x14ac:dyDescent="0.25">
+      <c r="T63">
+        <v>87</v>
+      </c>
+      <c r="U63">
+        <v>0</v>
+      </c>
+      <c r="V63">
+        <v>64</v>
+      </c>
+      <c r="W63">
+        <v>1111</v>
+      </c>
+      <c r="X63">
+        <f t="shared" si="2"/>
+        <v>0.57615894039735094</v>
+      </c>
+      <c r="Y63">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="20:25" x14ac:dyDescent="0.25">
+      <c r="T64">
+        <v>87</v>
+      </c>
+      <c r="U64">
+        <v>0</v>
+      </c>
+      <c r="V64">
+        <v>64</v>
+      </c>
+      <c r="W64">
+        <v>1111</v>
+      </c>
+      <c r="X64">
+        <f t="shared" si="2"/>
+        <v>0.57615894039735094</v>
+      </c>
+      <c r="Y64">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="20:25" x14ac:dyDescent="0.25">
+      <c r="T65">
+        <v>86</v>
+      </c>
+      <c r="U65">
+        <v>0</v>
+      </c>
+      <c r="V65">
+        <v>65</v>
+      </c>
+      <c r="W65">
+        <v>1111</v>
+      </c>
+      <c r="X65">
+        <f t="shared" si="2"/>
+        <v>0.56953642384105962</v>
+      </c>
+      <c r="Y65">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="20:25" x14ac:dyDescent="0.25">
+      <c r="T66">
+        <v>85</v>
+      </c>
+      <c r="U66">
+        <v>0</v>
+      </c>
+      <c r="V66">
+        <v>66</v>
+      </c>
+      <c r="W66">
+        <v>1111</v>
+      </c>
+      <c r="X66">
+        <f t="shared" si="2"/>
+        <v>0.5629139072847682</v>
+      </c>
+      <c r="Y66">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="20:25" x14ac:dyDescent="0.25">
+      <c r="T67">
+        <v>83</v>
+      </c>
+      <c r="U67">
+        <v>0</v>
+      </c>
+      <c r="V67">
+        <v>68</v>
+      </c>
+      <c r="W67">
+        <v>1111</v>
+      </c>
+      <c r="X67">
+        <f t="shared" ref="X67:X107" si="4">T67/(T67+V67)</f>
+        <v>0.54966887417218546</v>
+      </c>
+      <c r="Y67">
+        <f t="shared" ref="Y67:Y107" si="5">U67/(U67+W67)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="20:25" x14ac:dyDescent="0.25">
+      <c r="T68">
+        <v>83</v>
+      </c>
+      <c r="U68">
+        <v>0</v>
+      </c>
+      <c r="V68">
+        <v>68</v>
+      </c>
+      <c r="W68">
+        <v>1111</v>
+      </c>
+      <c r="X68">
+        <f t="shared" si="4"/>
+        <v>0.54966887417218546</v>
+      </c>
+      <c r="Y68">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="20:25" x14ac:dyDescent="0.25">
+      <c r="T69">
+        <v>80</v>
+      </c>
+      <c r="U69">
+        <v>0</v>
+      </c>
+      <c r="V69">
+        <v>71</v>
+      </c>
+      <c r="W69">
+        <v>1111</v>
+      </c>
+      <c r="X69">
+        <f t="shared" si="4"/>
+        <v>0.5298013245033113</v>
+      </c>
+      <c r="Y69">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="20:25" x14ac:dyDescent="0.25">
+      <c r="T70">
+        <v>78</v>
+      </c>
+      <c r="U70">
+        <v>0</v>
+      </c>
+      <c r="V70">
+        <v>73</v>
+      </c>
+      <c r="W70">
+        <v>1111</v>
+      </c>
+      <c r="X70">
+        <f t="shared" si="4"/>
+        <v>0.51655629139072845</v>
+      </c>
+      <c r="Y70">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="20:25" x14ac:dyDescent="0.25">
+      <c r="T71">
+        <v>76</v>
+      </c>
+      <c r="U71">
+        <v>0</v>
+      </c>
+      <c r="V71">
+        <v>75</v>
+      </c>
+      <c r="W71">
+        <v>1111</v>
+      </c>
+      <c r="X71">
+        <f t="shared" si="4"/>
+        <v>0.50331125827814571</v>
+      </c>
+      <c r="Y71">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="20:25" x14ac:dyDescent="0.25">
+      <c r="T72">
+        <v>75</v>
+      </c>
+      <c r="U72">
+        <v>0</v>
+      </c>
+      <c r="V72">
+        <v>76</v>
+      </c>
+      <c r="W72">
+        <v>1111</v>
+      </c>
+      <c r="X72">
+        <f t="shared" si="4"/>
+        <v>0.49668874172185429</v>
+      </c>
+      <c r="Y72">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="20:25" x14ac:dyDescent="0.25">
+      <c r="T73">
+        <v>74</v>
+      </c>
+      <c r="U73">
+        <v>0</v>
+      </c>
+      <c r="V73">
+        <v>77</v>
+      </c>
+      <c r="W73">
+        <v>1111</v>
+      </c>
+      <c r="X73">
+        <f t="shared" si="4"/>
+        <v>0.49006622516556292</v>
+      </c>
+      <c r="Y73">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="20:25" x14ac:dyDescent="0.25">
+      <c r="T74">
+        <v>71</v>
+      </c>
+      <c r="U74">
+        <v>0</v>
+      </c>
+      <c r="V74">
+        <v>80</v>
+      </c>
+      <c r="W74">
+        <v>1111</v>
+      </c>
+      <c r="X74">
+        <f t="shared" si="4"/>
+        <v>0.47019867549668876</v>
+      </c>
+      <c r="Y74">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="20:25" x14ac:dyDescent="0.25">
+      <c r="T75">
+        <v>68</v>
+      </c>
+      <c r="U75">
+        <v>0</v>
+      </c>
+      <c r="V75">
+        <v>83</v>
+      </c>
+      <c r="W75">
+        <v>1111</v>
+      </c>
+      <c r="X75">
+        <f t="shared" si="4"/>
+        <v>0.45033112582781459</v>
+      </c>
+      <c r="Y75">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="20:25" x14ac:dyDescent="0.25">
+      <c r="T76">
+        <v>65</v>
+      </c>
+      <c r="U76">
+        <v>0</v>
+      </c>
+      <c r="V76">
+        <v>86</v>
+      </c>
+      <c r="W76">
+        <v>1111</v>
+      </c>
+      <c r="X76">
+        <f t="shared" si="4"/>
+        <v>0.43046357615894038</v>
+      </c>
+      <c r="Y76">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="20:25" x14ac:dyDescent="0.25">
+      <c r="T77">
+        <v>63</v>
+      </c>
+      <c r="U77">
+        <v>0</v>
+      </c>
+      <c r="V77">
+        <v>88</v>
+      </c>
+      <c r="W77">
+        <v>1111</v>
+      </c>
+      <c r="X77">
+        <f t="shared" si="4"/>
+        <v>0.41721854304635764</v>
+      </c>
+      <c r="Y77">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="20:25" x14ac:dyDescent="0.25">
+      <c r="T78">
+        <v>62</v>
+      </c>
+      <c r="U78">
+        <v>0</v>
+      </c>
+      <c r="V78">
+        <v>89</v>
+      </c>
+      <c r="W78">
+        <v>1111</v>
+      </c>
+      <c r="X78">
+        <f t="shared" si="4"/>
+        <v>0.41059602649006621</v>
+      </c>
+      <c r="Y78">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="20:25" x14ac:dyDescent="0.25">
+      <c r="T79">
+        <v>59</v>
+      </c>
+      <c r="U79">
+        <v>0</v>
+      </c>
+      <c r="V79">
+        <v>92</v>
+      </c>
+      <c r="W79">
+        <v>1111</v>
+      </c>
+      <c r="X79">
+        <f t="shared" si="4"/>
+        <v>0.39072847682119205</v>
+      </c>
+      <c r="Y79">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="20:25" x14ac:dyDescent="0.25">
+      <c r="T80">
+        <v>57</v>
+      </c>
+      <c r="U80">
+        <v>0</v>
+      </c>
+      <c r="V80">
+        <v>94</v>
+      </c>
+      <c r="W80">
+        <v>1111</v>
+      </c>
+      <c r="X80">
+        <f t="shared" si="4"/>
+        <v>0.37748344370860926</v>
+      </c>
+      <c r="Y80">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="20:25" x14ac:dyDescent="0.25">
+      <c r="T81">
+        <v>55</v>
+      </c>
+      <c r="U81">
+        <v>0</v>
+      </c>
+      <c r="V81">
+        <v>96</v>
+      </c>
+      <c r="W81">
+        <v>1111</v>
+      </c>
+      <c r="X81">
+        <f t="shared" si="4"/>
+        <v>0.36423841059602646</v>
+      </c>
+      <c r="Y81">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="20:25" x14ac:dyDescent="0.25">
+      <c r="T82">
+        <v>52</v>
+      </c>
+      <c r="U82">
+        <v>0</v>
+      </c>
+      <c r="V82">
+        <v>99</v>
+      </c>
+      <c r="W82">
+        <v>1111</v>
+      </c>
+      <c r="X82">
+        <f t="shared" si="4"/>
+        <v>0.3443708609271523</v>
+      </c>
+      <c r="Y82">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="20:25" x14ac:dyDescent="0.25">
+      <c r="T83">
+        <v>48</v>
+      </c>
+      <c r="U83">
+        <v>0</v>
+      </c>
+      <c r="V83">
+        <v>103</v>
+      </c>
+      <c r="W83">
+        <v>1111</v>
+      </c>
+      <c r="X83">
+        <f t="shared" si="4"/>
+        <v>0.31788079470198677</v>
+      </c>
+      <c r="Y83">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="20:25" x14ac:dyDescent="0.25">
+      <c r="T84">
+        <v>45</v>
+      </c>
+      <c r="U84">
+        <v>0</v>
+      </c>
+      <c r="V84">
+        <v>106</v>
+      </c>
+      <c r="W84">
+        <v>1111</v>
+      </c>
+      <c r="X84">
+        <f t="shared" si="4"/>
+        <v>0.29801324503311261</v>
+      </c>
+      <c r="Y84">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="20:25" x14ac:dyDescent="0.25">
+      <c r="T85">
+        <v>43</v>
+      </c>
+      <c r="U85">
+        <v>0</v>
+      </c>
+      <c r="V85">
+        <v>108</v>
+      </c>
+      <c r="W85">
+        <v>1111</v>
+      </c>
+      <c r="X85">
+        <f t="shared" si="4"/>
+        <v>0.28476821192052981</v>
+      </c>
+      <c r="Y85">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="20:25" x14ac:dyDescent="0.25">
+      <c r="T86">
+        <v>39</v>
+      </c>
+      <c r="U86">
+        <v>0</v>
+      </c>
+      <c r="V86">
+        <v>112</v>
+      </c>
+      <c r="W86">
+        <v>1111</v>
+      </c>
+      <c r="X86">
+        <f t="shared" si="4"/>
+        <v>0.25827814569536423</v>
+      </c>
+      <c r="Y86">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="20:25" x14ac:dyDescent="0.25">
+      <c r="T87">
+        <v>35</v>
+      </c>
+      <c r="U87">
+        <v>0</v>
+      </c>
+      <c r="V87">
+        <v>116</v>
+      </c>
+      <c r="W87">
+        <v>1111</v>
+      </c>
+      <c r="X87">
+        <f t="shared" si="4"/>
+        <v>0.23178807947019867</v>
+      </c>
+      <c r="Y87">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="20:25" x14ac:dyDescent="0.25">
+      <c r="T88">
+        <v>31</v>
+      </c>
+      <c r="U88">
+        <v>0</v>
+      </c>
+      <c r="V88">
+        <v>120</v>
+      </c>
+      <c r="W88">
+        <v>1111</v>
+      </c>
+      <c r="X88">
+        <f t="shared" si="4"/>
+        <v>0.20529801324503311</v>
+      </c>
+      <c r="Y88">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="20:25" x14ac:dyDescent="0.25">
+      <c r="T89">
+        <v>30</v>
+      </c>
+      <c r="U89">
+        <v>0</v>
+      </c>
+      <c r="V89">
+        <v>121</v>
+      </c>
+      <c r="W89">
+        <v>1111</v>
+      </c>
+      <c r="X89">
+        <f t="shared" si="4"/>
+        <v>0.19867549668874171</v>
+      </c>
+      <c r="Y89">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="20:25" x14ac:dyDescent="0.25">
+      <c r="T90">
+        <v>29</v>
+      </c>
+      <c r="U90">
+        <v>0</v>
+      </c>
+      <c r="V90">
+        <v>122</v>
+      </c>
+      <c r="W90">
+        <v>1111</v>
+      </c>
+      <c r="X90">
+        <f t="shared" si="4"/>
+        <v>0.19205298013245034</v>
+      </c>
+      <c r="Y90">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="20:25" x14ac:dyDescent="0.25">
+      <c r="T91">
+        <v>29</v>
+      </c>
+      <c r="U91">
+        <v>0</v>
+      </c>
+      <c r="V91">
+        <v>122</v>
+      </c>
+      <c r="W91">
+        <v>1111</v>
+      </c>
+      <c r="X91">
+        <f t="shared" si="4"/>
+        <v>0.19205298013245034</v>
+      </c>
+      <c r="Y91">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="20:25" x14ac:dyDescent="0.25">
+      <c r="T92">
+        <v>27</v>
+      </c>
+      <c r="U92">
+        <v>0</v>
+      </c>
+      <c r="V92">
+        <v>124</v>
+      </c>
+      <c r="W92">
+        <v>1111</v>
+      </c>
+      <c r="X92">
+        <f t="shared" si="4"/>
+        <v>0.17880794701986755</v>
+      </c>
+      <c r="Y92">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="20:25" x14ac:dyDescent="0.25">
+      <c r="T93">
+        <v>27</v>
+      </c>
+      <c r="U93">
+        <v>0</v>
+      </c>
+      <c r="V93">
+        <v>124</v>
+      </c>
+      <c r="W93">
+        <v>1111</v>
+      </c>
+      <c r="X93">
+        <f t="shared" si="4"/>
+        <v>0.17880794701986755</v>
+      </c>
+      <c r="Y93">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="20:25" x14ac:dyDescent="0.25">
+      <c r="T94">
+        <v>23</v>
+      </c>
+      <c r="U94">
+        <v>0</v>
+      </c>
+      <c r="V94">
+        <v>128</v>
+      </c>
+      <c r="W94">
+        <v>1111</v>
+      </c>
+      <c r="X94">
+        <f t="shared" si="4"/>
+        <v>0.15231788079470199</v>
+      </c>
+      <c r="Y94">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="20:25" x14ac:dyDescent="0.25">
+      <c r="T95">
+        <v>22</v>
+      </c>
+      <c r="U95">
+        <v>0</v>
+      </c>
+      <c r="V95">
+        <v>129</v>
+      </c>
+      <c r="W95">
+        <v>1111</v>
+      </c>
+      <c r="X95">
+        <f t="shared" si="4"/>
+        <v>0.14569536423841059</v>
+      </c>
+      <c r="Y95">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="20:25" x14ac:dyDescent="0.25">
+      <c r="T96">
+        <v>19</v>
+      </c>
+      <c r="U96">
+        <v>0</v>
+      </c>
+      <c r="V96">
+        <v>132</v>
+      </c>
+      <c r="W96">
+        <v>1111</v>
+      </c>
+      <c r="X96">
+        <f t="shared" si="4"/>
+        <v>0.12582781456953643</v>
+      </c>
+      <c r="Y96">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="20:25" x14ac:dyDescent="0.25">
+      <c r="T97">
+        <v>15</v>
+      </c>
+      <c r="U97">
+        <v>0</v>
+      </c>
+      <c r="V97">
+        <v>136</v>
+      </c>
+      <c r="W97">
+        <v>1111</v>
+      </c>
+      <c r="X97">
+        <f t="shared" si="4"/>
+        <v>9.9337748344370855E-2</v>
+      </c>
+      <c r="Y97">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="20:25" x14ac:dyDescent="0.25">
+      <c r="T98">
+        <v>12</v>
+      </c>
+      <c r="U98">
+        <v>0</v>
+      </c>
+      <c r="V98">
+        <v>139</v>
+      </c>
+      <c r="W98">
+        <v>1111</v>
+      </c>
+      <c r="X98">
+        <f t="shared" si="4"/>
+        <v>7.9470198675496692E-2</v>
+      </c>
+      <c r="Y98">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="20:25" x14ac:dyDescent="0.25">
+      <c r="T99">
+        <v>10</v>
+      </c>
+      <c r="U99">
+        <v>0</v>
+      </c>
+      <c r="V99">
+        <v>141</v>
+      </c>
+      <c r="W99">
+        <v>1111</v>
+      </c>
+      <c r="X99">
+        <f t="shared" si="4"/>
+        <v>6.6225165562913912E-2</v>
+      </c>
+      <c r="Y99">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="20:25" x14ac:dyDescent="0.25">
+      <c r="T100">
+        <v>7</v>
+      </c>
+      <c r="U100">
+        <v>0</v>
+      </c>
+      <c r="V100">
+        <v>144</v>
+      </c>
+      <c r="W100">
+        <v>1111</v>
+      </c>
+      <c r="X100">
+        <f t="shared" si="4"/>
+        <v>4.6357615894039736E-2</v>
+      </c>
+      <c r="Y100">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="20:25" x14ac:dyDescent="0.25">
+      <c r="T101">
+        <v>6</v>
+      </c>
+      <c r="U101">
+        <v>0</v>
+      </c>
+      <c r="V101">
+        <v>145</v>
+      </c>
+      <c r="W101">
+        <v>1111</v>
+      </c>
+      <c r="X101">
+        <f t="shared" si="4"/>
+        <v>3.9735099337748346E-2</v>
+      </c>
+      <c r="Y101">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="20:25" x14ac:dyDescent="0.25">
+      <c r="T102">
+        <v>5</v>
+      </c>
+      <c r="U102">
+        <v>0</v>
+      </c>
+      <c r="V102">
+        <v>146</v>
+      </c>
+      <c r="W102">
+        <v>1111</v>
+      </c>
+      <c r="X102">
+        <f t="shared" si="4"/>
+        <v>3.3112582781456956E-2</v>
+      </c>
+      <c r="Y102">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="20:25" x14ac:dyDescent="0.25">
+      <c r="T103">
+        <v>1</v>
+      </c>
+      <c r="U103">
+        <v>0</v>
+      </c>
+      <c r="V103">
+        <v>150</v>
+      </c>
+      <c r="W103">
+        <v>1111</v>
+      </c>
+      <c r="X103">
+        <f t="shared" si="4"/>
+        <v>6.6225165562913907E-3</v>
+      </c>
+      <c r="Y103">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="20:25" x14ac:dyDescent="0.25">
+      <c r="T104">
+        <v>1</v>
+      </c>
+      <c r="U104">
+        <v>0</v>
+      </c>
+      <c r="V104">
+        <v>150</v>
+      </c>
+      <c r="W104">
+        <v>1111</v>
+      </c>
+      <c r="X104">
+        <f t="shared" si="4"/>
+        <v>6.6225165562913907E-3</v>
+      </c>
+      <c r="Y104">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="20:25" x14ac:dyDescent="0.25">
+      <c r="T105">
+        <v>1</v>
+      </c>
+      <c r="U105">
+        <v>0</v>
+      </c>
+      <c r="V105">
+        <v>150</v>
+      </c>
+      <c r="W105">
+        <v>1111</v>
+      </c>
+      <c r="X105">
+        <f t="shared" si="4"/>
+        <v>6.6225165562913907E-3</v>
+      </c>
+      <c r="Y105">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="20:25" x14ac:dyDescent="0.25">
+      <c r="T106">
+        <v>1</v>
+      </c>
+      <c r="U106">
+        <v>0</v>
+      </c>
+      <c r="V106">
+        <v>150</v>
+      </c>
+      <c r="W106">
+        <v>1111</v>
+      </c>
+      <c r="X106">
+        <f t="shared" si="4"/>
+        <v>6.6225165562913907E-3</v>
+      </c>
+      <c r="Y106">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="20:25" x14ac:dyDescent="0.25">
+      <c r="T107">
+        <v>1</v>
+      </c>
+      <c r="U107">
+        <v>0</v>
+      </c>
+      <c r="V107">
+        <v>150</v>
+      </c>
+      <c r="W107">
+        <v>1111</v>
+      </c>
+      <c r="X107">
+        <f t="shared" si="4"/>
+        <v>6.6225165562913907E-3</v>
+      </c>
+      <c r="Y107">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -3745,38 +5247,38 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11ABD654-7414-4BA5-A0D0-D04633A6838E}">
-  <dimension ref="A1:L22"/>
+  <dimension ref="A1:L106"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H22"/>
+    <sheetView topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:H106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B1">
-        <v>151</v>
+        <v>100</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1">
-        <v>889</v>
+        <v>100</v>
       </c>
       <c r="E1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F1">
-        <v>222</v>
+        <v>51</v>
       </c>
       <c r="G1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H1">
-        <v>0</v>
+        <v>1011</v>
       </c>
       <c r="I1" t="s">
         <v>5</v>
@@ -3785,36 +5287,36 @@
         <v>1262</v>
       </c>
       <c r="K1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="L1">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>151</v>
+        <v>100</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
       </c>
       <c r="D2">
-        <v>791</v>
+        <v>101</v>
       </c>
       <c r="E2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>320</v>
+        <v>51</v>
       </c>
       <c r="G2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1010</v>
       </c>
       <c r="I2" t="s">
         <v>5</v>
@@ -3823,36 +5325,36 @@
         <v>1262</v>
       </c>
       <c r="K2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="L2">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>151</v>
+        <v>100</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>675</v>
+        <v>101</v>
       </c>
       <c r="E3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>436</v>
+        <v>51</v>
       </c>
       <c r="G3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1010</v>
       </c>
       <c r="I3" t="s">
         <v>5</v>
@@ -3861,36 +5363,36 @@
         <v>1262</v>
       </c>
       <c r="K3" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="L3">
-        <v>160</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>151</v>
+        <v>100</v>
       </c>
       <c r="C4" t="s">
         <v>1</v>
       </c>
       <c r="D4">
-        <v>597</v>
+        <v>101</v>
       </c>
       <c r="E4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>514</v>
+        <v>51</v>
       </c>
       <c r="G4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1010</v>
       </c>
       <c r="I4" t="s">
         <v>5</v>
@@ -3899,36 +5401,36 @@
         <v>1262</v>
       </c>
       <c r="K4" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="L4">
-        <v>165</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B5">
-        <v>151</v>
+        <v>100</v>
       </c>
       <c r="C5" t="s">
         <v>1</v>
       </c>
       <c r="D5">
-        <v>535</v>
+        <v>101</v>
       </c>
       <c r="E5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>576</v>
+        <v>51</v>
       </c>
       <c r="G5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1010</v>
       </c>
       <c r="I5" t="s">
         <v>5</v>
@@ -3937,36 +5439,36 @@
         <v>1262</v>
       </c>
       <c r="K5" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="L5">
-        <v>170</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B6">
-        <v>151</v>
+        <v>100</v>
       </c>
       <c r="C6" t="s">
         <v>1</v>
       </c>
       <c r="D6">
-        <v>468</v>
+        <v>101</v>
       </c>
       <c r="E6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>643</v>
+        <v>51</v>
       </c>
       <c r="G6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1010</v>
       </c>
       <c r="I6" t="s">
         <v>5</v>
@@ -3975,36 +5477,36 @@
         <v>1262</v>
       </c>
       <c r="K6" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="L6">
-        <v>175</v>
+        <v>151</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="C7" t="s">
         <v>1</v>
       </c>
       <c r="D7">
-        <v>386</v>
+        <v>103</v>
       </c>
       <c r="E7" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>725</v>
+        <v>50</v>
       </c>
       <c r="G7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1008</v>
       </c>
       <c r="I7" t="s">
         <v>5</v>
@@ -4013,36 +5515,36 @@
         <v>1262</v>
       </c>
       <c r="K7" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="L7">
-        <v>180</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B8">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="C8" t="s">
         <v>1</v>
       </c>
       <c r="D8">
-        <v>308</v>
+        <v>103</v>
       </c>
       <c r="E8" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>803</v>
+        <v>50</v>
       </c>
       <c r="G8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1008</v>
       </c>
       <c r="I8" t="s">
         <v>5</v>
@@ -4051,36 +5553,36 @@
         <v>1262</v>
       </c>
       <c r="K8" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="L8">
-        <v>185</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B9">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="C9" t="s">
         <v>1</v>
       </c>
       <c r="D9">
-        <v>231</v>
+        <v>103</v>
       </c>
       <c r="E9" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>880</v>
+        <v>50</v>
       </c>
       <c r="G9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1008</v>
       </c>
       <c r="I9" t="s">
         <v>5</v>
@@ -4089,36 +5591,36 @@
         <v>1262</v>
       </c>
       <c r="K9" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="L9">
-        <v>190</v>
+        <v>151</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>151</v>
+        <v>102</v>
       </c>
       <c r="C10" t="s">
         <v>1</v>
       </c>
       <c r="D10">
-        <v>169</v>
+        <v>103</v>
       </c>
       <c r="E10" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>942</v>
+        <v>49</v>
       </c>
       <c r="G10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1008</v>
       </c>
       <c r="I10" t="s">
         <v>5</v>
@@ -4127,36 +5629,36 @@
         <v>1262</v>
       </c>
       <c r="K10" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="L10">
-        <v>195</v>
+        <v>151</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B11">
-        <v>151</v>
+        <v>102</v>
       </c>
       <c r="C11" t="s">
         <v>1</v>
       </c>
       <c r="D11">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="E11" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>987</v>
+        <v>49</v>
       </c>
       <c r="G11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1007</v>
       </c>
       <c r="I11" t="s">
         <v>5</v>
@@ -4165,36 +5667,36 @@
         <v>1262</v>
       </c>
       <c r="K11" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="L11">
-        <v>200</v>
+        <v>151</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B12">
-        <v>148</v>
+        <v>102</v>
       </c>
       <c r="C12" t="s">
         <v>1</v>
       </c>
       <c r="D12">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="E12" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>1029</v>
+        <v>49</v>
       </c>
       <c r="G12" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H12">
-        <v>3</v>
+        <v>1008</v>
       </c>
       <c r="I12" t="s">
         <v>5</v>
@@ -4203,36 +5705,36 @@
         <v>1262</v>
       </c>
       <c r="K12" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="L12">
-        <v>205</v>
+        <v>151</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B13">
-        <v>143</v>
+        <v>102</v>
       </c>
       <c r="C13" t="s">
         <v>1</v>
       </c>
       <c r="D13">
-        <v>59</v>
+        <v>103</v>
       </c>
       <c r="E13" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>1052</v>
+        <v>49</v>
       </c>
       <c r="G13" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H13">
-        <v>8</v>
+        <v>1008</v>
       </c>
       <c r="I13" t="s">
         <v>5</v>
@@ -4241,36 +5743,36 @@
         <v>1262</v>
       </c>
       <c r="K13" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="L13">
-        <v>210</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B14">
-        <v>133</v>
+        <v>102</v>
       </c>
       <c r="C14" t="s">
         <v>1</v>
       </c>
       <c r="D14">
-        <v>43</v>
+        <v>103</v>
       </c>
       <c r="E14" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>1068</v>
+        <v>49</v>
       </c>
       <c r="G14" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H14">
-        <v>18</v>
+        <v>1008</v>
       </c>
       <c r="I14" t="s">
         <v>5</v>
@@ -4279,36 +5781,36 @@
         <v>1262</v>
       </c>
       <c r="K14" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="L14">
-        <v>215</v>
+        <v>151</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B15">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="C15" t="s">
         <v>1</v>
       </c>
       <c r="D15">
-        <v>30</v>
+        <v>103</v>
       </c>
       <c r="E15" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>1081</v>
+        <v>49</v>
       </c>
       <c r="G15" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H15">
-        <v>30</v>
+        <v>1008</v>
       </c>
       <c r="I15" t="s">
         <v>5</v>
@@ -4317,36 +5819,36 @@
         <v>1262</v>
       </c>
       <c r="K15" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="L15">
-        <v>220</v>
+        <v>151</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B16">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C16" t="s">
         <v>1</v>
       </c>
       <c r="D16">
-        <v>14</v>
+        <v>103</v>
       </c>
       <c r="E16" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>1097</v>
+        <v>49</v>
       </c>
       <c r="G16" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H16">
-        <v>52</v>
+        <v>1008</v>
       </c>
       <c r="I16" t="s">
         <v>5</v>
@@ -4355,36 +5857,36 @@
         <v>1262</v>
       </c>
       <c r="K16" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="L16">
-        <v>225</v>
+        <v>151</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B17">
-        <v>75</v>
+        <v>102</v>
       </c>
       <c r="C17" t="s">
         <v>1</v>
       </c>
       <c r="D17">
-        <v>5</v>
+        <v>103</v>
       </c>
       <c r="E17" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>1106</v>
+        <v>49</v>
       </c>
       <c r="G17" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H17">
-        <v>76</v>
+        <v>1008</v>
       </c>
       <c r="I17" t="s">
         <v>5</v>
@@ -4393,36 +5895,36 @@
         <v>1262</v>
       </c>
       <c r="K17" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="L17">
-        <v>230</v>
+        <v>151</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B18">
-        <v>48</v>
+        <v>102</v>
       </c>
       <c r="C18" t="s">
         <v>1</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>103</v>
       </c>
       <c r="E18" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>1110</v>
+        <v>49</v>
       </c>
       <c r="G18" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H18">
-        <v>103</v>
+        <v>1008</v>
       </c>
       <c r="I18" t="s">
         <v>5</v>
@@ -4431,36 +5933,36 @@
         <v>1262</v>
       </c>
       <c r="K18" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="L18">
-        <v>235</v>
+        <v>151</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B19">
-        <v>31</v>
+        <v>102</v>
       </c>
       <c r="C19" t="s">
         <v>1</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="E19" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19">
-        <v>1111</v>
+        <v>49</v>
       </c>
       <c r="G19" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H19">
-        <v>120</v>
+        <v>1009</v>
       </c>
       <c r="I19" t="s">
         <v>5</v>
@@ -4469,36 +5971,36 @@
         <v>1262</v>
       </c>
       <c r="K19" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="L19">
-        <v>240</v>
+        <v>151</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B20">
-        <v>16</v>
+        <v>102</v>
       </c>
       <c r="C20" t="s">
         <v>1</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="E20" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F20">
-        <v>1111</v>
+        <v>49</v>
       </c>
       <c r="G20" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H20">
-        <v>135</v>
+        <v>1009</v>
       </c>
       <c r="I20" t="s">
         <v>5</v>
@@ -4507,36 +6009,36 @@
         <v>1262</v>
       </c>
       <c r="K20" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="L20">
-        <v>245</v>
+        <v>151</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B21">
-        <v>5</v>
+        <v>102</v>
       </c>
       <c r="C21" t="s">
         <v>1</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="E21" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F21">
-        <v>1111</v>
+        <v>49</v>
       </c>
       <c r="G21" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H21">
-        <v>146</v>
+        <v>1009</v>
       </c>
       <c r="I21" t="s">
         <v>5</v>
@@ -4545,48 +6047,3240 @@
         <v>1262</v>
       </c>
       <c r="K21" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="L21">
-        <v>250</v>
+        <v>151</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>101</v>
       </c>
       <c r="C22" t="s">
         <v>1</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="E22" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F22">
-        <v>1111</v>
+        <v>50</v>
       </c>
       <c r="G22" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H22">
+        <v>1010</v>
+      </c>
+      <c r="I22" t="s">
+        <v>5</v>
+      </c>
+      <c r="J22">
+        <v>1262</v>
+      </c>
+      <c r="K22" t="s">
+        <v>9</v>
+      </c>
+      <c r="L22">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23">
+        <v>101</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>101</v>
+      </c>
+      <c r="E23" t="s">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>50</v>
+      </c>
+      <c r="G23" t="s">
+        <v>2</v>
+      </c>
+      <c r="H23">
+        <v>1010</v>
+      </c>
+      <c r="I23" t="s">
+        <v>5</v>
+      </c>
+      <c r="J23">
+        <v>1262</v>
+      </c>
+      <c r="K23" t="s">
+        <v>9</v>
+      </c>
+      <c r="L23">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24">
+        <v>101</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>100</v>
+      </c>
+      <c r="E24" t="s">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>50</v>
+      </c>
+      <c r="G24" t="s">
+        <v>2</v>
+      </c>
+      <c r="H24">
+        <v>1011</v>
+      </c>
+      <c r="I24" t="s">
+        <v>5</v>
+      </c>
+      <c r="J24">
+        <v>1262</v>
+      </c>
+      <c r="K24" t="s">
+        <v>9</v>
+      </c>
+      <c r="L24">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25">
+        <v>101</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>99</v>
+      </c>
+      <c r="E25" t="s">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>50</v>
+      </c>
+      <c r="G25" t="s">
+        <v>2</v>
+      </c>
+      <c r="H25">
+        <v>1012</v>
+      </c>
+      <c r="I25" t="s">
+        <v>5</v>
+      </c>
+      <c r="J25">
+        <v>1262</v>
+      </c>
+      <c r="K25" t="s">
+        <v>9</v>
+      </c>
+      <c r="L25">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26">
+        <v>100</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>98</v>
+      </c>
+      <c r="E26" t="s">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>51</v>
+      </c>
+      <c r="G26" t="s">
+        <v>2</v>
+      </c>
+      <c r="H26">
+        <v>1013</v>
+      </c>
+      <c r="I26" t="s">
+        <v>5</v>
+      </c>
+      <c r="J26">
+        <v>1262</v>
+      </c>
+      <c r="K26" t="s">
+        <v>9</v>
+      </c>
+      <c r="L26">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27">
+        <v>100</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>96</v>
+      </c>
+      <c r="E27" t="s">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>51</v>
+      </c>
+      <c r="G27" t="s">
+        <v>2</v>
+      </c>
+      <c r="H27">
+        <v>1015</v>
+      </c>
+      <c r="I27" t="s">
+        <v>5</v>
+      </c>
+      <c r="J27">
+        <v>1262</v>
+      </c>
+      <c r="K27" t="s">
+        <v>9</v>
+      </c>
+      <c r="L27">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28">
+        <v>99</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>93</v>
+      </c>
+      <c r="E28" t="s">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>52</v>
+      </c>
+      <c r="G28" t="s">
+        <v>2</v>
+      </c>
+      <c r="H28">
+        <v>1018</v>
+      </c>
+      <c r="I28" t="s">
+        <v>5</v>
+      </c>
+      <c r="J28">
+        <v>1262</v>
+      </c>
+      <c r="K28" t="s">
+        <v>9</v>
+      </c>
+      <c r="L28">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29">
+        <v>99</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>90</v>
+      </c>
+      <c r="E29" t="s">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>52</v>
+      </c>
+      <c r="G29" t="s">
+        <v>2</v>
+      </c>
+      <c r="H29">
+        <v>1021</v>
+      </c>
+      <c r="I29" t="s">
+        <v>5</v>
+      </c>
+      <c r="J29">
+        <v>1262</v>
+      </c>
+      <c r="K29" t="s">
+        <v>9</v>
+      </c>
+      <c r="L29">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30">
+        <v>98</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>88</v>
+      </c>
+      <c r="E30" t="s">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>53</v>
+      </c>
+      <c r="G30" t="s">
+        <v>2</v>
+      </c>
+      <c r="H30">
+        <v>1023</v>
+      </c>
+      <c r="I30" t="s">
+        <v>5</v>
+      </c>
+      <c r="J30">
+        <v>1262</v>
+      </c>
+      <c r="K30" t="s">
+        <v>9</v>
+      </c>
+      <c r="L30">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31">
+        <v>98</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>86</v>
+      </c>
+      <c r="E31" t="s">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>53</v>
+      </c>
+      <c r="G31" t="s">
+        <v>2</v>
+      </c>
+      <c r="H31">
+        <v>1025</v>
+      </c>
+      <c r="I31" t="s">
+        <v>5</v>
+      </c>
+      <c r="J31">
+        <v>1262</v>
+      </c>
+      <c r="K31" t="s">
+        <v>9</v>
+      </c>
+      <c r="L31">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32">
+        <v>98</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>83</v>
+      </c>
+      <c r="E32" t="s">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>53</v>
+      </c>
+      <c r="G32" t="s">
+        <v>2</v>
+      </c>
+      <c r="H32">
+        <v>1028</v>
+      </c>
+      <c r="I32" t="s">
+        <v>5</v>
+      </c>
+      <c r="J32">
+        <v>1262</v>
+      </c>
+      <c r="K32" t="s">
+        <v>9</v>
+      </c>
+      <c r="L32">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33">
+        <v>97</v>
+      </c>
+      <c r="C33" t="s">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>78</v>
+      </c>
+      <c r="E33" t="s">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>54</v>
+      </c>
+      <c r="G33" t="s">
+        <v>2</v>
+      </c>
+      <c r="H33">
+        <v>1033</v>
+      </c>
+      <c r="I33" t="s">
+        <v>5</v>
+      </c>
+      <c r="J33">
+        <v>1262</v>
+      </c>
+      <c r="K33" t="s">
+        <v>9</v>
+      </c>
+      <c r="L33">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>8</v>
+      </c>
+      <c r="B34">
+        <v>97</v>
+      </c>
+      <c r="C34" t="s">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>76</v>
+      </c>
+      <c r="E34" t="s">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>54</v>
+      </c>
+      <c r="G34" t="s">
+        <v>2</v>
+      </c>
+      <c r="H34">
+        <v>1035</v>
+      </c>
+      <c r="I34" t="s">
+        <v>5</v>
+      </c>
+      <c r="J34">
+        <v>1262</v>
+      </c>
+      <c r="K34" t="s">
+        <v>9</v>
+      </c>
+      <c r="L34">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>8</v>
+      </c>
+      <c r="B35">
+        <v>97</v>
+      </c>
+      <c r="C35" t="s">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>72</v>
+      </c>
+      <c r="E35" t="s">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>54</v>
+      </c>
+      <c r="G35" t="s">
+        <v>2</v>
+      </c>
+      <c r="H35">
+        <v>1039</v>
+      </c>
+      <c r="I35" t="s">
+        <v>5</v>
+      </c>
+      <c r="J35">
+        <v>1262</v>
+      </c>
+      <c r="K35" t="s">
+        <v>9</v>
+      </c>
+      <c r="L35">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>8</v>
+      </c>
+      <c r="B36">
+        <v>97</v>
+      </c>
+      <c r="C36" t="s">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>68</v>
+      </c>
+      <c r="E36" t="s">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>54</v>
+      </c>
+      <c r="G36" t="s">
+        <v>2</v>
+      </c>
+      <c r="H36">
+        <v>1043</v>
+      </c>
+      <c r="I36" t="s">
+        <v>5</v>
+      </c>
+      <c r="J36">
+        <v>1262</v>
+      </c>
+      <c r="K36" t="s">
+        <v>9</v>
+      </c>
+      <c r="L36">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>8</v>
+      </c>
+      <c r="B37">
+        <v>97</v>
+      </c>
+      <c r="C37" t="s">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>64</v>
+      </c>
+      <c r="E37" t="s">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>54</v>
+      </c>
+      <c r="G37" t="s">
+        <v>2</v>
+      </c>
+      <c r="H37">
+        <v>1047</v>
+      </c>
+      <c r="I37" t="s">
+        <v>5</v>
+      </c>
+      <c r="J37">
+        <v>1262</v>
+      </c>
+      <c r="K37" t="s">
+        <v>9</v>
+      </c>
+      <c r="L37">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>8</v>
+      </c>
+      <c r="B38">
+        <v>97</v>
+      </c>
+      <c r="C38" t="s">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>64</v>
+      </c>
+      <c r="E38" t="s">
+        <v>3</v>
+      </c>
+      <c r="F38">
+        <v>54</v>
+      </c>
+      <c r="G38" t="s">
+        <v>2</v>
+      </c>
+      <c r="H38">
+        <v>1047</v>
+      </c>
+      <c r="I38" t="s">
+        <v>5</v>
+      </c>
+      <c r="J38">
+        <v>1262</v>
+      </c>
+      <c r="K38" t="s">
+        <v>9</v>
+      </c>
+      <c r="L38">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>8</v>
+      </c>
+      <c r="B39">
+        <v>97</v>
+      </c>
+      <c r="C39" t="s">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>60</v>
+      </c>
+      <c r="E39" t="s">
+        <v>3</v>
+      </c>
+      <c r="F39">
+        <v>54</v>
+      </c>
+      <c r="G39" t="s">
+        <v>2</v>
+      </c>
+      <c r="H39">
+        <v>1051</v>
+      </c>
+      <c r="I39" t="s">
+        <v>5</v>
+      </c>
+      <c r="J39">
+        <v>1262</v>
+      </c>
+      <c r="K39" t="s">
+        <v>9</v>
+      </c>
+      <c r="L39">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>8</v>
+      </c>
+      <c r="B40">
+        <v>97</v>
+      </c>
+      <c r="C40" t="s">
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <v>55</v>
+      </c>
+      <c r="E40" t="s">
+        <v>3</v>
+      </c>
+      <c r="F40">
+        <v>54</v>
+      </c>
+      <c r="G40" t="s">
+        <v>2</v>
+      </c>
+      <c r="H40">
+        <v>1056</v>
+      </c>
+      <c r="I40" t="s">
+        <v>5</v>
+      </c>
+      <c r="J40">
+        <v>1262</v>
+      </c>
+      <c r="K40" t="s">
+        <v>9</v>
+      </c>
+      <c r="L40">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>8</v>
+      </c>
+      <c r="B41">
+        <v>96</v>
+      </c>
+      <c r="C41" t="s">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>52</v>
+      </c>
+      <c r="E41" t="s">
+        <v>3</v>
+      </c>
+      <c r="F41">
+        <v>55</v>
+      </c>
+      <c r="G41" t="s">
+        <v>2</v>
+      </c>
+      <c r="H41">
+        <v>1059</v>
+      </c>
+      <c r="I41" t="s">
+        <v>5</v>
+      </c>
+      <c r="J41">
+        <v>1262</v>
+      </c>
+      <c r="K41" t="s">
+        <v>9</v>
+      </c>
+      <c r="L41">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>8</v>
+      </c>
+      <c r="B42">
+        <v>95</v>
+      </c>
+      <c r="C42" t="s">
+        <v>1</v>
+      </c>
+      <c r="D42">
+        <v>49</v>
+      </c>
+      <c r="E42" t="s">
+        <v>3</v>
+      </c>
+      <c r="F42">
+        <v>56</v>
+      </c>
+      <c r="G42" t="s">
+        <v>2</v>
+      </c>
+      <c r="H42">
+        <v>1062</v>
+      </c>
+      <c r="I42" t="s">
+        <v>5</v>
+      </c>
+      <c r="J42">
+        <v>1262</v>
+      </c>
+      <c r="K42" t="s">
+        <v>9</v>
+      </c>
+      <c r="L42">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>8</v>
+      </c>
+      <c r="B43">
+        <v>95</v>
+      </c>
+      <c r="C43" t="s">
+        <v>1</v>
+      </c>
+      <c r="D43">
+        <v>45</v>
+      </c>
+      <c r="E43" t="s">
+        <v>3</v>
+      </c>
+      <c r="F43">
+        <v>56</v>
+      </c>
+      <c r="G43" t="s">
+        <v>2</v>
+      </c>
+      <c r="H43">
+        <v>1066</v>
+      </c>
+      <c r="I43" t="s">
+        <v>5</v>
+      </c>
+      <c r="J43">
+        <v>1262</v>
+      </c>
+      <c r="K43" t="s">
+        <v>9</v>
+      </c>
+      <c r="L43">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>8</v>
+      </c>
+      <c r="B44">
+        <v>94</v>
+      </c>
+      <c r="C44" t="s">
+        <v>1</v>
+      </c>
+      <c r="D44">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>3</v>
+      </c>
+      <c r="F44">
+        <v>57</v>
+      </c>
+      <c r="G44" t="s">
+        <v>2</v>
+      </c>
+      <c r="H44">
+        <v>1068</v>
+      </c>
+      <c r="I44" t="s">
+        <v>5</v>
+      </c>
+      <c r="J44">
+        <v>1262</v>
+      </c>
+      <c r="K44" t="s">
+        <v>9</v>
+      </c>
+      <c r="L44">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>8</v>
+      </c>
+      <c r="B45">
+        <v>94</v>
+      </c>
+      <c r="C45" t="s">
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <v>41</v>
+      </c>
+      <c r="E45" t="s">
+        <v>3</v>
+      </c>
+      <c r="F45">
+        <v>57</v>
+      </c>
+      <c r="G45" t="s">
+        <v>2</v>
+      </c>
+      <c r="H45">
+        <v>1070</v>
+      </c>
+      <c r="I45" t="s">
+        <v>5</v>
+      </c>
+      <c r="J45">
+        <v>1262</v>
+      </c>
+      <c r="K45" t="s">
+        <v>9</v>
+      </c>
+      <c r="L45">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>8</v>
+      </c>
+      <c r="B46">
+        <v>93</v>
+      </c>
+      <c r="C46" t="s">
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <v>38</v>
+      </c>
+      <c r="E46" t="s">
+        <v>3</v>
+      </c>
+      <c r="F46">
+        <v>58</v>
+      </c>
+      <c r="G46" t="s">
+        <v>2</v>
+      </c>
+      <c r="H46">
+        <v>1073</v>
+      </c>
+      <c r="I46" t="s">
+        <v>5</v>
+      </c>
+      <c r="J46">
+        <v>1262</v>
+      </c>
+      <c r="K46" t="s">
+        <v>9</v>
+      </c>
+      <c r="L46">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>8</v>
+      </c>
+      <c r="B47">
+        <v>93</v>
+      </c>
+      <c r="C47" t="s">
+        <v>1</v>
+      </c>
+      <c r="D47">
+        <v>35</v>
+      </c>
+      <c r="E47" t="s">
+        <v>3</v>
+      </c>
+      <c r="F47">
+        <v>58</v>
+      </c>
+      <c r="G47" t="s">
+        <v>2</v>
+      </c>
+      <c r="H47">
+        <v>1076</v>
+      </c>
+      <c r="I47" t="s">
+        <v>5</v>
+      </c>
+      <c r="J47">
+        <v>1262</v>
+      </c>
+      <c r="K47" t="s">
+        <v>9</v>
+      </c>
+      <c r="L47">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>8</v>
+      </c>
+      <c r="B48">
+        <v>93</v>
+      </c>
+      <c r="C48" t="s">
+        <v>1</v>
+      </c>
+      <c r="D48">
+        <v>29</v>
+      </c>
+      <c r="E48" t="s">
+        <v>3</v>
+      </c>
+      <c r="F48">
+        <v>58</v>
+      </c>
+      <c r="G48" t="s">
+        <v>2</v>
+      </c>
+      <c r="H48">
+        <v>1082</v>
+      </c>
+      <c r="I48" t="s">
+        <v>5</v>
+      </c>
+      <c r="J48">
+        <v>1262</v>
+      </c>
+      <c r="K48" t="s">
+        <v>9</v>
+      </c>
+      <c r="L48">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>8</v>
+      </c>
+      <c r="B49">
+        <v>93</v>
+      </c>
+      <c r="C49" t="s">
+        <v>1</v>
+      </c>
+      <c r="D49">
+        <v>28</v>
+      </c>
+      <c r="E49" t="s">
+        <v>3</v>
+      </c>
+      <c r="F49">
+        <v>58</v>
+      </c>
+      <c r="G49" t="s">
+        <v>2</v>
+      </c>
+      <c r="H49">
+        <v>1083</v>
+      </c>
+      <c r="I49" t="s">
+        <v>5</v>
+      </c>
+      <c r="J49">
+        <v>1262</v>
+      </c>
+      <c r="K49" t="s">
+        <v>9</v>
+      </c>
+      <c r="L49">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>8</v>
+      </c>
+      <c r="B50">
+        <v>93</v>
+      </c>
+      <c r="C50" t="s">
+        <v>1</v>
+      </c>
+      <c r="D50">
+        <v>25</v>
+      </c>
+      <c r="E50" t="s">
+        <v>3</v>
+      </c>
+      <c r="F50">
+        <v>58</v>
+      </c>
+      <c r="G50" t="s">
+        <v>2</v>
+      </c>
+      <c r="H50">
+        <v>1086</v>
+      </c>
+      <c r="I50" t="s">
+        <v>5</v>
+      </c>
+      <c r="J50">
+        <v>1262</v>
+      </c>
+      <c r="K50" t="s">
+        <v>9</v>
+      </c>
+      <c r="L50">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>8</v>
+      </c>
+      <c r="B51">
+        <v>93</v>
+      </c>
+      <c r="C51" t="s">
+        <v>1</v>
+      </c>
+      <c r="D51">
+        <v>24</v>
+      </c>
+      <c r="E51" t="s">
+        <v>3</v>
+      </c>
+      <c r="F51">
+        <v>58</v>
+      </c>
+      <c r="G51" t="s">
+        <v>2</v>
+      </c>
+      <c r="H51">
+        <v>1087</v>
+      </c>
+      <c r="I51" t="s">
+        <v>5</v>
+      </c>
+      <c r="J51">
+        <v>1262</v>
+      </c>
+      <c r="K51" t="s">
+        <v>9</v>
+      </c>
+      <c r="L51">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>8</v>
+      </c>
+      <c r="B52">
+        <v>91</v>
+      </c>
+      <c r="C52" t="s">
+        <v>1</v>
+      </c>
+      <c r="D52">
+        <v>19</v>
+      </c>
+      <c r="E52" t="s">
+        <v>3</v>
+      </c>
+      <c r="F52">
+        <v>60</v>
+      </c>
+      <c r="G52" t="s">
+        <v>2</v>
+      </c>
+      <c r="H52">
+        <v>1092</v>
+      </c>
+      <c r="I52" t="s">
+        <v>5</v>
+      </c>
+      <c r="J52">
+        <v>1262</v>
+      </c>
+      <c r="K52" t="s">
+        <v>9</v>
+      </c>
+      <c r="L52">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>8</v>
+      </c>
+      <c r="B53">
+        <v>90</v>
+      </c>
+      <c r="C53" t="s">
+        <v>1</v>
+      </c>
+      <c r="D53">
+        <v>19</v>
+      </c>
+      <c r="E53" t="s">
+        <v>3</v>
+      </c>
+      <c r="F53">
+        <v>61</v>
+      </c>
+      <c r="G53" t="s">
+        <v>2</v>
+      </c>
+      <c r="H53">
+        <v>1092</v>
+      </c>
+      <c r="I53" t="s">
+        <v>5</v>
+      </c>
+      <c r="J53">
+        <v>1262</v>
+      </c>
+      <c r="K53" t="s">
+        <v>9</v>
+      </c>
+      <c r="L53">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>8</v>
+      </c>
+      <c r="B54">
+        <v>90</v>
+      </c>
+      <c r="C54" t="s">
+        <v>1</v>
+      </c>
+      <c r="D54">
+        <v>14</v>
+      </c>
+      <c r="E54" t="s">
+        <v>3</v>
+      </c>
+      <c r="F54">
+        <v>61</v>
+      </c>
+      <c r="G54" t="s">
+        <v>2</v>
+      </c>
+      <c r="H54">
+        <v>1097</v>
+      </c>
+      <c r="I54" t="s">
+        <v>5</v>
+      </c>
+      <c r="J54">
+        <v>1262</v>
+      </c>
+      <c r="K54" t="s">
+        <v>9</v>
+      </c>
+      <c r="L54">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>8</v>
+      </c>
+      <c r="B55">
+        <v>88</v>
+      </c>
+      <c r="C55" t="s">
+        <v>1</v>
+      </c>
+      <c r="D55">
+        <v>12</v>
+      </c>
+      <c r="E55" t="s">
+        <v>3</v>
+      </c>
+      <c r="F55">
+        <v>63</v>
+      </c>
+      <c r="G55" t="s">
+        <v>2</v>
+      </c>
+      <c r="H55">
+        <v>1099</v>
+      </c>
+      <c r="I55" t="s">
+        <v>5</v>
+      </c>
+      <c r="J55">
+        <v>1262</v>
+      </c>
+      <c r="K55" t="s">
+        <v>9</v>
+      </c>
+      <c r="L55">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>8</v>
+      </c>
+      <c r="B56">
+        <v>88</v>
+      </c>
+      <c r="C56" t="s">
+        <v>1</v>
+      </c>
+      <c r="D56">
+        <v>10</v>
+      </c>
+      <c r="E56" t="s">
+        <v>3</v>
+      </c>
+      <c r="F56">
+        <v>63</v>
+      </c>
+      <c r="G56" t="s">
+        <v>2</v>
+      </c>
+      <c r="H56">
+        <v>1101</v>
+      </c>
+      <c r="I56" t="s">
+        <v>5</v>
+      </c>
+      <c r="J56">
+        <v>1262</v>
+      </c>
+      <c r="K56" t="s">
+        <v>9</v>
+      </c>
+      <c r="L56">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>8</v>
+      </c>
+      <c r="B57">
+        <v>88</v>
+      </c>
+      <c r="C57" t="s">
+        <v>1</v>
+      </c>
+      <c r="D57">
+        <v>8</v>
+      </c>
+      <c r="E57" t="s">
+        <v>3</v>
+      </c>
+      <c r="F57">
+        <v>63</v>
+      </c>
+      <c r="G57" t="s">
+        <v>2</v>
+      </c>
+      <c r="H57">
+        <v>1103</v>
+      </c>
+      <c r="I57" t="s">
+        <v>5</v>
+      </c>
+      <c r="J57">
+        <v>1262</v>
+      </c>
+      <c r="K57" t="s">
+        <v>9</v>
+      </c>
+      <c r="L57">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>8</v>
+      </c>
+      <c r="B58">
+        <v>88</v>
+      </c>
+      <c r="C58" t="s">
+        <v>1</v>
+      </c>
+      <c r="D58">
+        <v>7</v>
+      </c>
+      <c r="E58" t="s">
+        <v>3</v>
+      </c>
+      <c r="F58">
+        <v>63</v>
+      </c>
+      <c r="G58" t="s">
+        <v>2</v>
+      </c>
+      <c r="H58">
+        <v>1104</v>
+      </c>
+      <c r="I58" t="s">
+        <v>5</v>
+      </c>
+      <c r="J58">
+        <v>1262</v>
+      </c>
+      <c r="K58" t="s">
+        <v>9</v>
+      </c>
+      <c r="L58">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>8</v>
+      </c>
+      <c r="B59">
+        <v>88</v>
+      </c>
+      <c r="C59" t="s">
+        <v>1</v>
+      </c>
+      <c r="D59">
+        <v>6</v>
+      </c>
+      <c r="E59" t="s">
+        <v>3</v>
+      </c>
+      <c r="F59">
+        <v>63</v>
+      </c>
+      <c r="G59" t="s">
+        <v>2</v>
+      </c>
+      <c r="H59">
+        <v>1105</v>
+      </c>
+      <c r="I59" t="s">
+        <v>5</v>
+      </c>
+      <c r="J59">
+        <v>1262</v>
+      </c>
+      <c r="K59" t="s">
+        <v>9</v>
+      </c>
+      <c r="L59">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>8</v>
+      </c>
+      <c r="B60">
+        <v>88</v>
+      </c>
+      <c r="C60" t="s">
+        <v>1</v>
+      </c>
+      <c r="D60">
+        <v>5</v>
+      </c>
+      <c r="E60" t="s">
+        <v>3</v>
+      </c>
+      <c r="F60">
+        <v>63</v>
+      </c>
+      <c r="G60" t="s">
+        <v>2</v>
+      </c>
+      <c r="H60">
+        <v>1106</v>
+      </c>
+      <c r="I60" t="s">
+        <v>5</v>
+      </c>
+      <c r="J60">
+        <v>1262</v>
+      </c>
+      <c r="K60" t="s">
+        <v>9</v>
+      </c>
+      <c r="L60">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>8</v>
+      </c>
+      <c r="B61">
+        <v>87</v>
+      </c>
+      <c r="C61" t="s">
+        <v>1</v>
+      </c>
+      <c r="D61">
+        <v>2</v>
+      </c>
+      <c r="E61" t="s">
+        <v>3</v>
+      </c>
+      <c r="F61">
+        <v>64</v>
+      </c>
+      <c r="G61" t="s">
+        <v>2</v>
+      </c>
+      <c r="H61">
+        <v>1109</v>
+      </c>
+      <c r="I61" t="s">
+        <v>5</v>
+      </c>
+      <c r="J61">
+        <v>1262</v>
+      </c>
+      <c r="K61" t="s">
+        <v>9</v>
+      </c>
+      <c r="L61">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>8</v>
+      </c>
+      <c r="B62">
+        <v>87</v>
+      </c>
+      <c r="C62" t="s">
+        <v>1</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62" t="s">
+        <v>3</v>
+      </c>
+      <c r="F62">
+        <v>64</v>
+      </c>
+      <c r="G62" t="s">
+        <v>2</v>
+      </c>
+      <c r="H62">
+        <v>1111</v>
+      </c>
+      <c r="I62" t="s">
+        <v>5</v>
+      </c>
+      <c r="J62">
+        <v>1262</v>
+      </c>
+      <c r="K62" t="s">
+        <v>9</v>
+      </c>
+      <c r="L62">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>8</v>
+      </c>
+      <c r="B63">
+        <v>87</v>
+      </c>
+      <c r="C63" t="s">
+        <v>1</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63" t="s">
+        <v>3</v>
+      </c>
+      <c r="F63">
+        <v>64</v>
+      </c>
+      <c r="G63" t="s">
+        <v>2</v>
+      </c>
+      <c r="H63">
+        <v>1111</v>
+      </c>
+      <c r="I63" t="s">
+        <v>5</v>
+      </c>
+      <c r="J63">
+        <v>1262</v>
+      </c>
+      <c r="K63" t="s">
+        <v>9</v>
+      </c>
+      <c r="L63">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>8</v>
+      </c>
+      <c r="B64">
+        <v>86</v>
+      </c>
+      <c r="C64" t="s">
+        <v>1</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64" t="s">
+        <v>3</v>
+      </c>
+      <c r="F64">
+        <v>65</v>
+      </c>
+      <c r="G64" t="s">
+        <v>2</v>
+      </c>
+      <c r="H64">
+        <v>1111</v>
+      </c>
+      <c r="I64" t="s">
+        <v>5</v>
+      </c>
+      <c r="J64">
+        <v>1262</v>
+      </c>
+      <c r="K64" t="s">
+        <v>9</v>
+      </c>
+      <c r="L64">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>8</v>
+      </c>
+      <c r="B65">
+        <v>85</v>
+      </c>
+      <c r="C65" t="s">
+        <v>1</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65" t="s">
+        <v>3</v>
+      </c>
+      <c r="F65">
+        <v>66</v>
+      </c>
+      <c r="G65" t="s">
+        <v>2</v>
+      </c>
+      <c r="H65">
+        <v>1111</v>
+      </c>
+      <c r="I65" t="s">
+        <v>5</v>
+      </c>
+      <c r="J65">
+        <v>1262</v>
+      </c>
+      <c r="K65" t="s">
+        <v>9</v>
+      </c>
+      <c r="L65">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>8</v>
+      </c>
+      <c r="B66">
+        <v>83</v>
+      </c>
+      <c r="C66" t="s">
+        <v>1</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66" t="s">
+        <v>3</v>
+      </c>
+      <c r="F66">
+        <v>68</v>
+      </c>
+      <c r="G66" t="s">
+        <v>2</v>
+      </c>
+      <c r="H66">
+        <v>1111</v>
+      </c>
+      <c r="I66" t="s">
+        <v>5</v>
+      </c>
+      <c r="J66">
+        <v>1262</v>
+      </c>
+      <c r="K66" t="s">
+        <v>9</v>
+      </c>
+      <c r="L66">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>8</v>
+      </c>
+      <c r="B67">
+        <v>83</v>
+      </c>
+      <c r="C67" t="s">
+        <v>1</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67" t="s">
+        <v>3</v>
+      </c>
+      <c r="F67">
+        <v>68</v>
+      </c>
+      <c r="G67" t="s">
+        <v>2</v>
+      </c>
+      <c r="H67">
+        <v>1111</v>
+      </c>
+      <c r="I67" t="s">
+        <v>5</v>
+      </c>
+      <c r="J67">
+        <v>1262</v>
+      </c>
+      <c r="K67" t="s">
+        <v>9</v>
+      </c>
+      <c r="L67">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>8</v>
+      </c>
+      <c r="B68">
+        <v>80</v>
+      </c>
+      <c r="C68" t="s">
+        <v>1</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68" t="s">
+        <v>3</v>
+      </c>
+      <c r="F68">
+        <v>71</v>
+      </c>
+      <c r="G68" t="s">
+        <v>2</v>
+      </c>
+      <c r="H68">
+        <v>1111</v>
+      </c>
+      <c r="I68" t="s">
+        <v>5</v>
+      </c>
+      <c r="J68">
+        <v>1262</v>
+      </c>
+      <c r="K68" t="s">
+        <v>9</v>
+      </c>
+      <c r="L68">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>8</v>
+      </c>
+      <c r="B69">
+        <v>78</v>
+      </c>
+      <c r="C69" t="s">
+        <v>1</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69" t="s">
+        <v>3</v>
+      </c>
+      <c r="F69">
+        <v>73</v>
+      </c>
+      <c r="G69" t="s">
+        <v>2</v>
+      </c>
+      <c r="H69">
+        <v>1111</v>
+      </c>
+      <c r="I69" t="s">
+        <v>5</v>
+      </c>
+      <c r="J69">
+        <v>1262</v>
+      </c>
+      <c r="K69" t="s">
+        <v>9</v>
+      </c>
+      <c r="L69">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>8</v>
+      </c>
+      <c r="B70">
+        <v>76</v>
+      </c>
+      <c r="C70" t="s">
+        <v>1</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70" t="s">
+        <v>3</v>
+      </c>
+      <c r="F70">
+        <v>75</v>
+      </c>
+      <c r="G70" t="s">
+        <v>2</v>
+      </c>
+      <c r="H70">
+        <v>1111</v>
+      </c>
+      <c r="I70" t="s">
+        <v>5</v>
+      </c>
+      <c r="J70">
+        <v>1262</v>
+      </c>
+      <c r="K70" t="s">
+        <v>9</v>
+      </c>
+      <c r="L70">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>8</v>
+      </c>
+      <c r="B71">
+        <v>75</v>
+      </c>
+      <c r="C71" t="s">
+        <v>1</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71" t="s">
+        <v>3</v>
+      </c>
+      <c r="F71">
+        <v>76</v>
+      </c>
+      <c r="G71" t="s">
+        <v>2</v>
+      </c>
+      <c r="H71">
+        <v>1111</v>
+      </c>
+      <c r="I71" t="s">
+        <v>5</v>
+      </c>
+      <c r="J71">
+        <v>1262</v>
+      </c>
+      <c r="K71" t="s">
+        <v>9</v>
+      </c>
+      <c r="L71">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>8</v>
+      </c>
+      <c r="B72">
+        <v>74</v>
+      </c>
+      <c r="C72" t="s">
+        <v>1</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72" t="s">
+        <v>3</v>
+      </c>
+      <c r="F72">
+        <v>77</v>
+      </c>
+      <c r="G72" t="s">
+        <v>2</v>
+      </c>
+      <c r="H72">
+        <v>1111</v>
+      </c>
+      <c r="I72" t="s">
+        <v>5</v>
+      </c>
+      <c r="J72">
+        <v>1262</v>
+      </c>
+      <c r="K72" t="s">
+        <v>9</v>
+      </c>
+      <c r="L72">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>8</v>
+      </c>
+      <c r="B73">
+        <v>71</v>
+      </c>
+      <c r="C73" t="s">
+        <v>1</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="E73" t="s">
+        <v>3</v>
+      </c>
+      <c r="F73">
+        <v>80</v>
+      </c>
+      <c r="G73" t="s">
+        <v>2</v>
+      </c>
+      <c r="H73">
+        <v>1111</v>
+      </c>
+      <c r="I73" t="s">
+        <v>5</v>
+      </c>
+      <c r="J73">
+        <v>1262</v>
+      </c>
+      <c r="K73" t="s">
+        <v>9</v>
+      </c>
+      <c r="L73">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>8</v>
+      </c>
+      <c r="B74">
+        <v>68</v>
+      </c>
+      <c r="C74" t="s">
+        <v>1</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74" t="s">
+        <v>3</v>
+      </c>
+      <c r="F74">
+        <v>83</v>
+      </c>
+      <c r="G74" t="s">
+        <v>2</v>
+      </c>
+      <c r="H74">
+        <v>1111</v>
+      </c>
+      <c r="I74" t="s">
+        <v>5</v>
+      </c>
+      <c r="J74">
+        <v>1262</v>
+      </c>
+      <c r="K74" t="s">
+        <v>9</v>
+      </c>
+      <c r="L74">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>8</v>
+      </c>
+      <c r="B75">
+        <v>65</v>
+      </c>
+      <c r="C75" t="s">
+        <v>1</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="E75" t="s">
+        <v>3</v>
+      </c>
+      <c r="F75">
+        <v>86</v>
+      </c>
+      <c r="G75" t="s">
+        <v>2</v>
+      </c>
+      <c r="H75">
+        <v>1111</v>
+      </c>
+      <c r="I75" t="s">
+        <v>5</v>
+      </c>
+      <c r="J75">
+        <v>1262</v>
+      </c>
+      <c r="K75" t="s">
+        <v>9</v>
+      </c>
+      <c r="L75">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>8</v>
+      </c>
+      <c r="B76">
+        <v>63</v>
+      </c>
+      <c r="C76" t="s">
+        <v>1</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76" t="s">
+        <v>3</v>
+      </c>
+      <c r="F76">
+        <v>88</v>
+      </c>
+      <c r="G76" t="s">
+        <v>2</v>
+      </c>
+      <c r="H76">
+        <v>1111</v>
+      </c>
+      <c r="I76" t="s">
+        <v>5</v>
+      </c>
+      <c r="J76">
+        <v>1262</v>
+      </c>
+      <c r="K76" t="s">
+        <v>9</v>
+      </c>
+      <c r="L76">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>8</v>
+      </c>
+      <c r="B77">
+        <v>62</v>
+      </c>
+      <c r="C77" t="s">
+        <v>1</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77" t="s">
+        <v>3</v>
+      </c>
+      <c r="F77">
+        <v>89</v>
+      </c>
+      <c r="G77" t="s">
+        <v>2</v>
+      </c>
+      <c r="H77">
+        <v>1111</v>
+      </c>
+      <c r="I77" t="s">
+        <v>5</v>
+      </c>
+      <c r="J77">
+        <v>1262</v>
+      </c>
+      <c r="K77" t="s">
+        <v>9</v>
+      </c>
+      <c r="L77">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>8</v>
+      </c>
+      <c r="B78">
+        <v>59</v>
+      </c>
+      <c r="C78" t="s">
+        <v>1</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="E78" t="s">
+        <v>3</v>
+      </c>
+      <c r="F78">
+        <v>92</v>
+      </c>
+      <c r="G78" t="s">
+        <v>2</v>
+      </c>
+      <c r="H78">
+        <v>1111</v>
+      </c>
+      <c r="I78" t="s">
+        <v>5</v>
+      </c>
+      <c r="J78">
+        <v>1262</v>
+      </c>
+      <c r="K78" t="s">
+        <v>9</v>
+      </c>
+      <c r="L78">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>8</v>
+      </c>
+      <c r="B79">
+        <v>57</v>
+      </c>
+      <c r="C79" t="s">
+        <v>1</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="E79" t="s">
+        <v>3</v>
+      </c>
+      <c r="F79">
+        <v>94</v>
+      </c>
+      <c r="G79" t="s">
+        <v>2</v>
+      </c>
+      <c r="H79">
+        <v>1111</v>
+      </c>
+      <c r="I79" t="s">
+        <v>5</v>
+      </c>
+      <c r="J79">
+        <v>1262</v>
+      </c>
+      <c r="K79" t="s">
+        <v>9</v>
+      </c>
+      <c r="L79">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>8</v>
+      </c>
+      <c r="B80">
+        <v>55</v>
+      </c>
+      <c r="C80" t="s">
+        <v>1</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="E80" t="s">
+        <v>3</v>
+      </c>
+      <c r="F80">
+        <v>96</v>
+      </c>
+      <c r="G80" t="s">
+        <v>2</v>
+      </c>
+      <c r="H80">
+        <v>1111</v>
+      </c>
+      <c r="I80" t="s">
+        <v>5</v>
+      </c>
+      <c r="J80">
+        <v>1262</v>
+      </c>
+      <c r="K80" t="s">
+        <v>9</v>
+      </c>
+      <c r="L80">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>8</v>
+      </c>
+      <c r="B81">
+        <v>52</v>
+      </c>
+      <c r="C81" t="s">
+        <v>1</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="E81" t="s">
+        <v>3</v>
+      </c>
+      <c r="F81">
+        <v>99</v>
+      </c>
+      <c r="G81" t="s">
+        <v>2</v>
+      </c>
+      <c r="H81">
+        <v>1111</v>
+      </c>
+      <c r="I81" t="s">
+        <v>5</v>
+      </c>
+      <c r="J81">
+        <v>1262</v>
+      </c>
+      <c r="K81" t="s">
+        <v>9</v>
+      </c>
+      <c r="L81">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>8</v>
+      </c>
+      <c r="B82">
+        <v>48</v>
+      </c>
+      <c r="C82" t="s">
+        <v>1</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+      <c r="E82" t="s">
+        <v>3</v>
+      </c>
+      <c r="F82">
+        <v>103</v>
+      </c>
+      <c r="G82" t="s">
+        <v>2</v>
+      </c>
+      <c r="H82">
+        <v>1111</v>
+      </c>
+      <c r="I82" t="s">
+        <v>5</v>
+      </c>
+      <c r="J82">
+        <v>1262</v>
+      </c>
+      <c r="K82" t="s">
+        <v>9</v>
+      </c>
+      <c r="L82">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>8</v>
+      </c>
+      <c r="B83">
+        <v>45</v>
+      </c>
+      <c r="C83" t="s">
+        <v>1</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+      <c r="E83" t="s">
+        <v>3</v>
+      </c>
+      <c r="F83">
+        <v>106</v>
+      </c>
+      <c r="G83" t="s">
+        <v>2</v>
+      </c>
+      <c r="H83">
+        <v>1111</v>
+      </c>
+      <c r="I83" t="s">
+        <v>5</v>
+      </c>
+      <c r="J83">
+        <v>1262</v>
+      </c>
+      <c r="K83" t="s">
+        <v>9</v>
+      </c>
+      <c r="L83">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>8</v>
+      </c>
+      <c r="B84">
+        <v>43</v>
+      </c>
+      <c r="C84" t="s">
+        <v>1</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+      <c r="E84" t="s">
+        <v>3</v>
+      </c>
+      <c r="F84">
+        <v>108</v>
+      </c>
+      <c r="G84" t="s">
+        <v>2</v>
+      </c>
+      <c r="H84">
+        <v>1111</v>
+      </c>
+      <c r="I84" t="s">
+        <v>5</v>
+      </c>
+      <c r="J84">
+        <v>1262</v>
+      </c>
+      <c r="K84" t="s">
+        <v>9</v>
+      </c>
+      <c r="L84">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>8</v>
+      </c>
+      <c r="B85">
+        <v>39</v>
+      </c>
+      <c r="C85" t="s">
+        <v>1</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+      <c r="E85" t="s">
+        <v>3</v>
+      </c>
+      <c r="F85">
+        <v>112</v>
+      </c>
+      <c r="G85" t="s">
+        <v>2</v>
+      </c>
+      <c r="H85">
+        <v>1111</v>
+      </c>
+      <c r="I85" t="s">
+        <v>5</v>
+      </c>
+      <c r="J85">
+        <v>1262</v>
+      </c>
+      <c r="K85" t="s">
+        <v>9</v>
+      </c>
+      <c r="L85">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>8</v>
+      </c>
+      <c r="B86">
+        <v>35</v>
+      </c>
+      <c r="C86" t="s">
+        <v>1</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+      <c r="E86" t="s">
+        <v>3</v>
+      </c>
+      <c r="F86">
+        <v>116</v>
+      </c>
+      <c r="G86" t="s">
+        <v>2</v>
+      </c>
+      <c r="H86">
+        <v>1111</v>
+      </c>
+      <c r="I86" t="s">
+        <v>5</v>
+      </c>
+      <c r="J86">
+        <v>1262</v>
+      </c>
+      <c r="K86" t="s">
+        <v>9</v>
+      </c>
+      <c r="L86">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>8</v>
+      </c>
+      <c r="B87">
+        <v>31</v>
+      </c>
+      <c r="C87" t="s">
+        <v>1</v>
+      </c>
+      <c r="D87">
+        <v>0</v>
+      </c>
+      <c r="E87" t="s">
+        <v>3</v>
+      </c>
+      <c r="F87">
+        <v>120</v>
+      </c>
+      <c r="G87" t="s">
+        <v>2</v>
+      </c>
+      <c r="H87">
+        <v>1111</v>
+      </c>
+      <c r="I87" t="s">
+        <v>5</v>
+      </c>
+      <c r="J87">
+        <v>1262</v>
+      </c>
+      <c r="K87" t="s">
+        <v>9</v>
+      </c>
+      <c r="L87">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>8</v>
+      </c>
+      <c r="B88">
+        <v>30</v>
+      </c>
+      <c r="C88" t="s">
+        <v>1</v>
+      </c>
+      <c r="D88">
+        <v>0</v>
+      </c>
+      <c r="E88" t="s">
+        <v>3</v>
+      </c>
+      <c r="F88">
+        <v>121</v>
+      </c>
+      <c r="G88" t="s">
+        <v>2</v>
+      </c>
+      <c r="H88">
+        <v>1111</v>
+      </c>
+      <c r="I88" t="s">
+        <v>5</v>
+      </c>
+      <c r="J88">
+        <v>1262</v>
+      </c>
+      <c r="K88" t="s">
+        <v>9</v>
+      </c>
+      <c r="L88">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>8</v>
+      </c>
+      <c r="B89">
+        <v>29</v>
+      </c>
+      <c r="C89" t="s">
+        <v>1</v>
+      </c>
+      <c r="D89">
+        <v>0</v>
+      </c>
+      <c r="E89" t="s">
+        <v>3</v>
+      </c>
+      <c r="F89">
+        <v>122</v>
+      </c>
+      <c r="G89" t="s">
+        <v>2</v>
+      </c>
+      <c r="H89">
+        <v>1111</v>
+      </c>
+      <c r="I89" t="s">
+        <v>5</v>
+      </c>
+      <c r="J89">
+        <v>1262</v>
+      </c>
+      <c r="K89" t="s">
+        <v>9</v>
+      </c>
+      <c r="L89">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>8</v>
+      </c>
+      <c r="B90">
+        <v>29</v>
+      </c>
+      <c r="C90" t="s">
+        <v>1</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+      <c r="E90" t="s">
+        <v>3</v>
+      </c>
+      <c r="F90">
+        <v>122</v>
+      </c>
+      <c r="G90" t="s">
+        <v>2</v>
+      </c>
+      <c r="H90">
+        <v>1111</v>
+      </c>
+      <c r="I90" t="s">
+        <v>5</v>
+      </c>
+      <c r="J90">
+        <v>1262</v>
+      </c>
+      <c r="K90" t="s">
+        <v>9</v>
+      </c>
+      <c r="L90">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>8</v>
+      </c>
+      <c r="B91">
+        <v>27</v>
+      </c>
+      <c r="C91" t="s">
+        <v>1</v>
+      </c>
+      <c r="D91">
+        <v>0</v>
+      </c>
+      <c r="E91" t="s">
+        <v>3</v>
+      </c>
+      <c r="F91">
+        <v>124</v>
+      </c>
+      <c r="G91" t="s">
+        <v>2</v>
+      </c>
+      <c r="H91">
+        <v>1111</v>
+      </c>
+      <c r="I91" t="s">
+        <v>5</v>
+      </c>
+      <c r="J91">
+        <v>1262</v>
+      </c>
+      <c r="K91" t="s">
+        <v>9</v>
+      </c>
+      <c r="L91">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>8</v>
+      </c>
+      <c r="B92">
+        <v>27</v>
+      </c>
+      <c r="C92" t="s">
+        <v>1</v>
+      </c>
+      <c r="D92">
+        <v>0</v>
+      </c>
+      <c r="E92" t="s">
+        <v>3</v>
+      </c>
+      <c r="F92">
+        <v>124</v>
+      </c>
+      <c r="G92" t="s">
+        <v>2</v>
+      </c>
+      <c r="H92">
+        <v>1111</v>
+      </c>
+      <c r="I92" t="s">
+        <v>5</v>
+      </c>
+      <c r="J92">
+        <v>1262</v>
+      </c>
+      <c r="K92" t="s">
+        <v>9</v>
+      </c>
+      <c r="L92">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>8</v>
+      </c>
+      <c r="B93">
+        <v>23</v>
+      </c>
+      <c r="C93" t="s">
+        <v>1</v>
+      </c>
+      <c r="D93">
+        <v>0</v>
+      </c>
+      <c r="E93" t="s">
+        <v>3</v>
+      </c>
+      <c r="F93">
+        <v>128</v>
+      </c>
+      <c r="G93" t="s">
+        <v>2</v>
+      </c>
+      <c r="H93">
+        <v>1111</v>
+      </c>
+      <c r="I93" t="s">
+        <v>5</v>
+      </c>
+      <c r="J93">
+        <v>1262</v>
+      </c>
+      <c r="K93" t="s">
+        <v>9</v>
+      </c>
+      <c r="L93">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>8</v>
+      </c>
+      <c r="B94">
+        <v>22</v>
+      </c>
+      <c r="C94" t="s">
+        <v>1</v>
+      </c>
+      <c r="D94">
+        <v>0</v>
+      </c>
+      <c r="E94" t="s">
+        <v>3</v>
+      </c>
+      <c r="F94">
+        <v>129</v>
+      </c>
+      <c r="G94" t="s">
+        <v>2</v>
+      </c>
+      <c r="H94">
+        <v>1111</v>
+      </c>
+      <c r="I94" t="s">
+        <v>5</v>
+      </c>
+      <c r="J94">
+        <v>1262</v>
+      </c>
+      <c r="K94" t="s">
+        <v>9</v>
+      </c>
+      <c r="L94">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>8</v>
+      </c>
+      <c r="B95">
+        <v>19</v>
+      </c>
+      <c r="C95" t="s">
+        <v>1</v>
+      </c>
+      <c r="D95">
+        <v>0</v>
+      </c>
+      <c r="E95" t="s">
+        <v>3</v>
+      </c>
+      <c r="F95">
+        <v>132</v>
+      </c>
+      <c r="G95" t="s">
+        <v>2</v>
+      </c>
+      <c r="H95">
+        <v>1111</v>
+      </c>
+      <c r="I95" t="s">
+        <v>5</v>
+      </c>
+      <c r="J95">
+        <v>1262</v>
+      </c>
+      <c r="K95" t="s">
+        <v>9</v>
+      </c>
+      <c r="L95">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>8</v>
+      </c>
+      <c r="B96">
+        <v>15</v>
+      </c>
+      <c r="C96" t="s">
+        <v>1</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96" t="s">
+        <v>3</v>
+      </c>
+      <c r="F96">
+        <v>136</v>
+      </c>
+      <c r="G96" t="s">
+        <v>2</v>
+      </c>
+      <c r="H96">
+        <v>1111</v>
+      </c>
+      <c r="I96" t="s">
+        <v>5</v>
+      </c>
+      <c r="J96">
+        <v>1262</v>
+      </c>
+      <c r="K96" t="s">
+        <v>9</v>
+      </c>
+      <c r="L96">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>8</v>
+      </c>
+      <c r="B97">
+        <v>12</v>
+      </c>
+      <c r="C97" t="s">
+        <v>1</v>
+      </c>
+      <c r="D97">
+        <v>0</v>
+      </c>
+      <c r="E97" t="s">
+        <v>3</v>
+      </c>
+      <c r="F97">
+        <v>139</v>
+      </c>
+      <c r="G97" t="s">
+        <v>2</v>
+      </c>
+      <c r="H97">
+        <v>1111</v>
+      </c>
+      <c r="I97" t="s">
+        <v>5</v>
+      </c>
+      <c r="J97">
+        <v>1262</v>
+      </c>
+      <c r="K97" t="s">
+        <v>9</v>
+      </c>
+      <c r="L97">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>8</v>
+      </c>
+      <c r="B98">
+        <v>10</v>
+      </c>
+      <c r="C98" t="s">
+        <v>1</v>
+      </c>
+      <c r="D98">
+        <v>0</v>
+      </c>
+      <c r="E98" t="s">
+        <v>3</v>
+      </c>
+      <c r="F98">
+        <v>141</v>
+      </c>
+      <c r="G98" t="s">
+        <v>2</v>
+      </c>
+      <c r="H98">
+        <v>1111</v>
+      </c>
+      <c r="I98" t="s">
+        <v>5</v>
+      </c>
+      <c r="J98">
+        <v>1262</v>
+      </c>
+      <c r="K98" t="s">
+        <v>9</v>
+      </c>
+      <c r="L98">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>8</v>
+      </c>
+      <c r="B99">
+        <v>7</v>
+      </c>
+      <c r="C99" t="s">
+        <v>1</v>
+      </c>
+      <c r="D99">
+        <v>0</v>
+      </c>
+      <c r="E99" t="s">
+        <v>3</v>
+      </c>
+      <c r="F99">
+        <v>144</v>
+      </c>
+      <c r="G99" t="s">
+        <v>2</v>
+      </c>
+      <c r="H99">
+        <v>1111</v>
+      </c>
+      <c r="I99" t="s">
+        <v>5</v>
+      </c>
+      <c r="J99">
+        <v>1262</v>
+      </c>
+      <c r="K99" t="s">
+        <v>9</v>
+      </c>
+      <c r="L99">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>8</v>
+      </c>
+      <c r="B100">
+        <v>6</v>
+      </c>
+      <c r="C100" t="s">
+        <v>1</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100" t="s">
+        <v>3</v>
+      </c>
+      <c r="F100">
+        <v>145</v>
+      </c>
+      <c r="G100" t="s">
+        <v>2</v>
+      </c>
+      <c r="H100">
+        <v>1111</v>
+      </c>
+      <c r="I100" t="s">
+        <v>5</v>
+      </c>
+      <c r="J100">
+        <v>1262</v>
+      </c>
+      <c r="K100" t="s">
+        <v>9</v>
+      </c>
+      <c r="L100">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>8</v>
+      </c>
+      <c r="B101">
+        <v>5</v>
+      </c>
+      <c r="C101" t="s">
+        <v>1</v>
+      </c>
+      <c r="D101">
+        <v>0</v>
+      </c>
+      <c r="E101" t="s">
+        <v>3</v>
+      </c>
+      <c r="F101">
+        <v>146</v>
+      </c>
+      <c r="G101" t="s">
+        <v>2</v>
+      </c>
+      <c r="H101">
+        <v>1111</v>
+      </c>
+      <c r="I101" t="s">
+        <v>5</v>
+      </c>
+      <c r="J101">
+        <v>1262</v>
+      </c>
+      <c r="K101" t="s">
+        <v>9</v>
+      </c>
+      <c r="L101">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>8</v>
+      </c>
+      <c r="B102">
+        <v>1</v>
+      </c>
+      <c r="C102" t="s">
+        <v>1</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102" t="s">
+        <v>3</v>
+      </c>
+      <c r="F102">
         <v>150</v>
       </c>
-      <c r="I22" t="s">
-        <v>5</v>
-      </c>
-      <c r="J22">
-        <v>1262</v>
-      </c>
-      <c r="K22" t="s">
-        <v>4</v>
-      </c>
-      <c r="L22">
-        <v>255</v>
+      <c r="G102" t="s">
+        <v>2</v>
+      </c>
+      <c r="H102">
+        <v>1111</v>
+      </c>
+      <c r="I102" t="s">
+        <v>5</v>
+      </c>
+      <c r="J102">
+        <v>1262</v>
+      </c>
+      <c r="K102" t="s">
+        <v>9</v>
+      </c>
+      <c r="L102">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>8</v>
+      </c>
+      <c r="B103">
+        <v>1</v>
+      </c>
+      <c r="C103" t="s">
+        <v>1</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103" t="s">
+        <v>3</v>
+      </c>
+      <c r="F103">
+        <v>150</v>
+      </c>
+      <c r="G103" t="s">
+        <v>2</v>
+      </c>
+      <c r="H103">
+        <v>1111</v>
+      </c>
+      <c r="I103" t="s">
+        <v>5</v>
+      </c>
+      <c r="J103">
+        <v>1262</v>
+      </c>
+      <c r="K103" t="s">
+        <v>9</v>
+      </c>
+      <c r="L103">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>8</v>
+      </c>
+      <c r="B104">
+        <v>1</v>
+      </c>
+      <c r="C104" t="s">
+        <v>1</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104" t="s">
+        <v>3</v>
+      </c>
+      <c r="F104">
+        <v>150</v>
+      </c>
+      <c r="G104" t="s">
+        <v>2</v>
+      </c>
+      <c r="H104">
+        <v>1111</v>
+      </c>
+      <c r="I104" t="s">
+        <v>5</v>
+      </c>
+      <c r="J104">
+        <v>1262</v>
+      </c>
+      <c r="K104" t="s">
+        <v>9</v>
+      </c>
+      <c r="L104">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>8</v>
+      </c>
+      <c r="B105">
+        <v>1</v>
+      </c>
+      <c r="C105" t="s">
+        <v>1</v>
+      </c>
+      <c r="D105">
+        <v>0</v>
+      </c>
+      <c r="E105" t="s">
+        <v>3</v>
+      </c>
+      <c r="F105">
+        <v>150</v>
+      </c>
+      <c r="G105" t="s">
+        <v>2</v>
+      </c>
+      <c r="H105">
+        <v>1111</v>
+      </c>
+      <c r="I105" t="s">
+        <v>5</v>
+      </c>
+      <c r="J105">
+        <v>1262</v>
+      </c>
+      <c r="K105" t="s">
+        <v>9</v>
+      </c>
+      <c r="L105">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>8</v>
+      </c>
+      <c r="B106">
+        <v>1</v>
+      </c>
+      <c r="C106" t="s">
+        <v>1</v>
+      </c>
+      <c r="D106">
+        <v>0</v>
+      </c>
+      <c r="E106" t="s">
+        <v>3</v>
+      </c>
+      <c r="F106">
+        <v>150</v>
+      </c>
+      <c r="G106" t="s">
+        <v>2</v>
+      </c>
+      <c r="H106">
+        <v>1111</v>
+      </c>
+      <c r="I106" t="s">
+        <v>5</v>
+      </c>
+      <c r="J106">
+        <v>1262</v>
+      </c>
+      <c r="K106" t="s">
+        <v>9</v>
+      </c>
+      <c r="L106">
+        <v>151</v>
       </c>
     </row>
   </sheetData>

--- a/lab3/Book1.xlsx
+++ b/lab3/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Masters_Catlog\Master_Catlog\Sem 3\ComputerVision\lab3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB4935E3-C6AB-4CBC-A2AA-267991482B8A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4029F8C1-670E-483C-A40C-F1CCAF26991E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5C07B9A7-49B7-41C8-9BBB-936591106370}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>TP</t>
   </si>
@@ -53,9 +53,6 @@
   </si>
   <si>
     <t>FPR</t>
-  </si>
-  <si>
-    <t>TotalE</t>
   </si>
 </sst>
 </file>
@@ -431,43 +428,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="22"/>
                 <c:pt idx="0">
-                  <c:v>0.66225165562913912</c:v>
+                  <c:v>0.69930069930069927</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.66447368421052633</c:v>
+                  <c:v>0.70138888888888884</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.6797385620915033</c:v>
+                  <c:v>0.71724137931034482</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.67763157894736847</c:v>
+                  <c:v>0.71527777777777779</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.67549668874172186</c:v>
+                  <c:v>0.71328671328671334</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.65771812080536918</c:v>
+                  <c:v>0.69503546099290781</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.61870503597122306</c:v>
+                  <c:v>0.65648854961832059</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.55737704918032782</c:v>
+                  <c:v>0.59649122807017541</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.48598130841121495</c:v>
+                  <c:v>0.5252525252525253</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.39583333333333331</c:v>
+                  <c:v>0.43181818181818182</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.29268292682926828</c:v>
+                  <c:v>0.32432432432432434</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.13698630136986301</c:v>
+                  <c:v>0.15384615384615385</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.0303030303030304E-2</c:v>
+                  <c:v>3.3898305084745763E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0</c:v>
@@ -506,58 +503,58 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="22"/>
                 <c:pt idx="0">
-                  <c:v>9.0009000900090008E-2</c:v>
+                  <c:v>9.6514745308310987E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.0090090090090086E-2</c:v>
+                  <c:v>9.6601073345259386E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.1974752028854828E-2</c:v>
+                  <c:v>9.8478066248880933E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.1891891891891897E-2</c:v>
+                  <c:v>9.838998211091235E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.1809180918091815E-2</c:v>
+                  <c:v>9.8302055406613048E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.9847259658580411E-2</c:v>
+                  <c:v>9.6342551293487955E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.7266251113089943E-2</c:v>
+                  <c:v>9.3722369584438553E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.5087719298245615E-2</c:v>
+                  <c:v>9.1463414634146339E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.3116883116883117E-2</c:v>
+                  <c:v>8.9423903697334481E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.9759862778730706E-2</c:v>
+                  <c:v>8.603066439522998E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7.8813559322033905E-2</c:v>
+                  <c:v>8.5016835016835018E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7.4011774600504621E-2</c:v>
+                  <c:v>8.0200501253132828E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7.2742474916387953E-2</c:v>
+                  <c:v>7.813798836242726E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6.9514237855946404E-2</c:v>
+                  <c:v>7.4166666666666672E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6.3237774030354132E-2</c:v>
+                  <c:v>6.7170445004198151E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.3662691652470187E-2</c:v>
+                  <c:v>5.6876061120543296E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4.471195184866724E-2</c:v>
+                  <c:v>4.716981132075472E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3.0541012216404886E-2</c:v>
+                  <c:v>3.3072236727589209E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>2.3725834797891036E-2</c:v>
@@ -920,43 +917,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="22"/>
                 <c:pt idx="0">
-                  <c:v>0.66225165562913912</c:v>
+                  <c:v>0.69930069930069927</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.66447368421052633</c:v>
+                  <c:v>0.70138888888888884</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.6797385620915033</c:v>
+                  <c:v>0.71724137931034482</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.67763157894736847</c:v>
+                  <c:v>0.71527777777777779</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.67549668874172186</c:v>
+                  <c:v>0.71328671328671334</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.65771812080536918</c:v>
+                  <c:v>0.69503546099290781</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.61870503597122306</c:v>
+                  <c:v>0.65648854961832059</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.55737704918032782</c:v>
+                  <c:v>0.59649122807017541</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.48598130841121495</c:v>
+                  <c:v>0.5252525252525253</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.39583333333333331</c:v>
+                  <c:v>0.43181818181818182</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.29268292682926828</c:v>
+                  <c:v>0.32432432432432434</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.13698630136986301</c:v>
+                  <c:v>0.15384615384615385</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.0303030303030304E-2</c:v>
+                  <c:v>3.3898305084745763E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0</c:v>
@@ -995,58 +992,58 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="22"/>
                 <c:pt idx="0">
-                  <c:v>9.0009000900090008E-2</c:v>
+                  <c:v>9.6514745308310987E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.0090090090090086E-2</c:v>
+                  <c:v>9.6601073345259386E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.1974752028854828E-2</c:v>
+                  <c:v>9.8478066248880933E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.1891891891891897E-2</c:v>
+                  <c:v>9.838998211091235E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.1809180918091815E-2</c:v>
+                  <c:v>9.8302055406613048E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.9847259658580411E-2</c:v>
+                  <c:v>9.6342551293487955E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.7266251113089943E-2</c:v>
+                  <c:v>9.3722369584438553E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.5087719298245615E-2</c:v>
+                  <c:v>9.1463414634146339E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.3116883116883117E-2</c:v>
+                  <c:v>8.9423903697334481E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.9759862778730706E-2</c:v>
+                  <c:v>8.603066439522998E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7.8813559322033905E-2</c:v>
+                  <c:v>8.5016835016835018E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7.4011774600504621E-2</c:v>
+                  <c:v>8.0200501253132828E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7.2742474916387953E-2</c:v>
+                  <c:v>7.813798836242726E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6.9514237855946404E-2</c:v>
+                  <c:v>7.4166666666666672E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6.3237774030354132E-2</c:v>
+                  <c:v>6.7170445004198151E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.3662691652470187E-2</c:v>
+                  <c:v>5.6876061120543296E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4.471195184866724E-2</c:v>
+                  <c:v>4.716981132075472E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3.0541012216404886E-2</c:v>
+                  <c:v>3.3072236727589209E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>2.3725834797891036E-2</c:v>
@@ -1109,8 +1106,9 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:noFill/>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -2785,8 +2783,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{164C203D-EF02-42D6-9D62-66B310BB5300}">
   <dimension ref="A1:Y107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J40" sqref="J40"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2881,11 +2879,11 @@
         <v>0</v>
       </c>
       <c r="F3" s="2">
-        <f t="shared" ref="F3:F23" si="0">B3/(B3+E3)</f>
+        <f t="shared" ref="F3:F22" si="0">B3/(B3+E3)</f>
         <v>1</v>
       </c>
       <c r="G3" s="2">
-        <f t="shared" ref="G3:G23" si="1">C3/(C3+D3)</f>
+        <f t="shared" ref="G3:G22" si="1">C3/(C3+D3)</f>
         <v>0.71197119711971202</v>
       </c>
       <c r="M3" s="2"/>
@@ -3879,24 +3877,24 @@
         <v>150</v>
       </c>
       <c r="B26" s="2">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="C26" s="2">
         <v>100</v>
       </c>
       <c r="D26" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="E26" s="2">
         <v>1011</v>
       </c>
       <c r="F26" s="2">
         <f>B26/(B26+E26)</f>
-        <v>9.0009000900090008E-2</v>
+        <v>9.6514745308310987E-2</v>
       </c>
       <c r="G26" s="2">
         <f>C26/(C26+D26)</f>
-        <v>0.66225165562913912</v>
+        <v>0.69930069930069927</v>
       </c>
       <c r="T26">
         <v>101</v>
@@ -3924,24 +3922,24 @@
         <v>155</v>
       </c>
       <c r="B27" s="2">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="C27" s="2">
         <v>101</v>
       </c>
       <c r="D27" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="E27" s="2">
         <v>1010</v>
       </c>
       <c r="F27" s="2">
         <f t="shared" ref="F27:F47" si="4">B27/(B27+E27)</f>
-        <v>9.0090090090090086E-2</v>
+        <v>9.6601073345259386E-2</v>
       </c>
       <c r="G27" s="2">
         <f t="shared" ref="G27:G47" si="5">C27/(C27+D27)</f>
-        <v>0.66447368421052633</v>
+        <v>0.70138888888888884</v>
       </c>
       <c r="T27">
         <v>100</v>
@@ -3969,24 +3967,24 @@
         <v>160</v>
       </c>
       <c r="B28" s="2">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="C28" s="2">
         <v>104</v>
       </c>
       <c r="D28" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="E28" s="2">
         <v>1007</v>
       </c>
       <c r="F28" s="2">
         <f t="shared" si="4"/>
-        <v>9.1974752028854828E-2</v>
+        <v>9.8478066248880933E-2</v>
       </c>
       <c r="G28" s="2">
         <f t="shared" si="5"/>
-        <v>0.6797385620915033</v>
+        <v>0.71724137931034482</v>
       </c>
       <c r="T28">
         <v>100</v>
@@ -4014,24 +4012,24 @@
         <v>165</v>
       </c>
       <c r="B29" s="2">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="C29" s="2">
         <v>103</v>
       </c>
       <c r="D29" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="E29" s="2">
         <v>1008</v>
       </c>
       <c r="F29" s="2">
         <f t="shared" si="4"/>
-        <v>9.1891891891891897E-2</v>
+        <v>9.838998211091235E-2</v>
       </c>
       <c r="G29" s="2">
         <f t="shared" si="5"/>
-        <v>0.67763157894736847</v>
+        <v>0.71527777777777779</v>
       </c>
       <c r="T29">
         <v>99</v>
@@ -4059,24 +4057,24 @@
         <v>170</v>
       </c>
       <c r="B30" s="2">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="C30" s="2">
         <v>102</v>
       </c>
       <c r="D30" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="E30" s="2">
         <v>1009</v>
       </c>
       <c r="F30" s="2">
         <f t="shared" si="4"/>
-        <v>9.1809180918091815E-2</v>
+        <v>9.8302055406613048E-2</v>
       </c>
       <c r="G30" s="2">
         <f t="shared" si="5"/>
-        <v>0.67549668874172186</v>
+        <v>0.71328671328671334</v>
       </c>
       <c r="T30">
         <v>99</v>
@@ -4104,24 +4102,24 @@
         <v>175</v>
       </c>
       <c r="B31" s="2">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="C31" s="2">
         <v>98</v>
       </c>
       <c r="D31" s="2">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="E31" s="2">
         <v>1013</v>
       </c>
       <c r="F31" s="2">
         <f t="shared" si="4"/>
-        <v>8.9847259658580411E-2</v>
+        <v>9.6342551293487955E-2</v>
       </c>
       <c r="G31" s="2">
         <f t="shared" si="5"/>
-        <v>0.65771812080536918</v>
+        <v>0.69503546099290781</v>
       </c>
       <c r="T31">
         <v>98</v>
@@ -4149,24 +4147,24 @@
         <v>180</v>
       </c>
       <c r="B32" s="2">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="C32" s="2">
         <v>86</v>
       </c>
       <c r="D32" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="E32" s="2">
         <v>1025</v>
       </c>
       <c r="F32" s="2">
         <f t="shared" si="4"/>
-        <v>8.7266251113089943E-2</v>
+        <v>9.3722369584438553E-2</v>
       </c>
       <c r="G32" s="2">
         <f t="shared" si="5"/>
-        <v>0.61870503597122306</v>
+        <v>0.65648854961832059</v>
       </c>
       <c r="T32">
         <v>98</v>
@@ -4194,24 +4192,24 @@
         <v>185</v>
       </c>
       <c r="B33" s="2">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="C33" s="2">
         <v>68</v>
       </c>
       <c r="D33" s="2">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="E33" s="2">
         <v>1043</v>
       </c>
       <c r="F33" s="2">
         <f t="shared" si="4"/>
-        <v>8.5087719298245615E-2</v>
+        <v>9.1463414634146339E-2</v>
       </c>
       <c r="G33" s="2">
         <f t="shared" si="5"/>
-        <v>0.55737704918032782</v>
+        <v>0.59649122807017541</v>
       </c>
       <c r="T33">
         <v>98</v>
@@ -4239,24 +4237,24 @@
         <v>190</v>
       </c>
       <c r="B34" s="2">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="C34" s="2">
         <v>52</v>
       </c>
       <c r="D34" s="2">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="E34" s="2">
         <v>1059</v>
       </c>
       <c r="F34" s="2">
         <f t="shared" si="4"/>
-        <v>8.3116883116883117E-2</v>
+        <v>8.9423903697334481E-2</v>
       </c>
       <c r="G34" s="2">
         <f t="shared" si="5"/>
-        <v>0.48598130841121495</v>
+        <v>0.5252525252525253</v>
       </c>
       <c r="T34">
         <v>97</v>
@@ -4284,24 +4282,24 @@
         <v>195</v>
       </c>
       <c r="B35" s="2">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="C35" s="2">
         <v>38</v>
       </c>
       <c r="D35" s="2">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="E35" s="2">
         <v>1073</v>
       </c>
       <c r="F35" s="2">
         <f t="shared" si="4"/>
-        <v>7.9759862778730706E-2</v>
+        <v>8.603066439522998E-2</v>
       </c>
       <c r="G35" s="2">
         <f t="shared" si="5"/>
-        <v>0.39583333333333331</v>
+        <v>0.43181818181818182</v>
       </c>
       <c r="T35">
         <v>97</v>
@@ -4329,24 +4327,24 @@
         <v>200</v>
       </c>
       <c r="B36" s="2">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="C36" s="2">
         <v>24</v>
       </c>
       <c r="D36" s="2">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="E36" s="2">
         <v>1087</v>
       </c>
       <c r="F36" s="2">
         <f t="shared" si="4"/>
-        <v>7.8813559322033905E-2</v>
+        <v>8.5016835016835018E-2</v>
       </c>
       <c r="G36" s="2">
         <f t="shared" si="5"/>
-        <v>0.29268292682926828</v>
+        <v>0.32432432432432434</v>
       </c>
       <c r="T36">
         <v>97</v>
@@ -4374,24 +4372,24 @@
         <v>205</v>
       </c>
       <c r="B37" s="2">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="C37" s="2">
         <v>10</v>
       </c>
       <c r="D37" s="2">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="E37" s="2">
         <v>1101</v>
       </c>
       <c r="F37" s="2">
         <f t="shared" si="4"/>
-        <v>7.4011774600504621E-2</v>
+        <v>8.0200501253132828E-2</v>
       </c>
       <c r="G37" s="2">
         <f t="shared" si="5"/>
-        <v>0.13698630136986301</v>
+        <v>0.15384615384615385</v>
       </c>
       <c r="T37">
         <v>97</v>
@@ -4419,24 +4417,24 @@
         <v>210</v>
       </c>
       <c r="B38" s="2">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="C38" s="2">
         <v>2</v>
       </c>
       <c r="D38" s="2">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="E38" s="2">
         <v>1109</v>
       </c>
       <c r="F38" s="2">
         <f t="shared" si="4"/>
-        <v>7.2742474916387953E-2</v>
+        <v>7.813798836242726E-2</v>
       </c>
       <c r="G38" s="2">
         <f t="shared" si="5"/>
-        <v>3.0303030303030304E-2</v>
+        <v>3.3898305084745763E-2</v>
       </c>
       <c r="T38">
         <v>97</v>
@@ -4464,20 +4462,20 @@
         <v>215</v>
       </c>
       <c r="B39" s="2">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="C39" s="2">
         <v>0</v>
       </c>
       <c r="D39" s="2">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="E39" s="2">
         <v>1111</v>
       </c>
       <c r="F39" s="2">
         <f t="shared" si="4"/>
-        <v>6.9514237855946404E-2</v>
+        <v>7.4166666666666672E-2</v>
       </c>
       <c r="G39" s="2">
         <f t="shared" si="5"/>
@@ -4509,20 +4507,20 @@
         <v>220</v>
       </c>
       <c r="B40" s="2">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C40" s="2">
         <v>0</v>
       </c>
       <c r="D40" s="2">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="E40" s="2">
         <v>1111</v>
       </c>
       <c r="F40" s="2">
         <f t="shared" si="4"/>
-        <v>6.3237774030354132E-2</v>
+        <v>6.7170445004198151E-2</v>
       </c>
       <c r="G40" s="2">
         <f t="shared" si="5"/>
@@ -4554,20 +4552,20 @@
         <v>225</v>
       </c>
       <c r="B41" s="2">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C41" s="2">
         <v>0</v>
       </c>
       <c r="D41" s="2">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E41" s="2">
         <v>1111</v>
       </c>
       <c r="F41" s="2">
         <f t="shared" si="4"/>
-        <v>5.3662691652470187E-2</v>
+        <v>5.6876061120543296E-2</v>
       </c>
       <c r="G41" s="2">
         <f t="shared" si="5"/>
@@ -4599,20 +4597,20 @@
         <v>230</v>
       </c>
       <c r="B42" s="2">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C42" s="2">
         <v>0</v>
       </c>
       <c r="D42" s="2">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E42" s="2">
         <v>1111</v>
       </c>
       <c r="F42" s="2">
         <f t="shared" si="4"/>
-        <v>4.471195184866724E-2</v>
+        <v>4.716981132075472E-2</v>
       </c>
       <c r="G42" s="2">
         <f t="shared" si="5"/>
@@ -4644,20 +4642,20 @@
         <v>235</v>
       </c>
       <c r="B43" s="2">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C43" s="2">
         <v>0</v>
       </c>
       <c r="D43" s="2">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E43" s="2">
         <v>1111</v>
       </c>
       <c r="F43" s="2">
         <f t="shared" si="4"/>
-        <v>3.0541012216404886E-2</v>
+        <v>3.3072236727589209E-2</v>
       </c>
       <c r="G43" s="2">
         <f t="shared" si="5"/>
@@ -6193,7 +6191,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11ABD654-7414-4BA5-A0D0-D04633A6838E}">
-  <dimension ref="J1:L22"/>
+  <dimension ref="B1:L22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:E22"/>
@@ -6201,243 +6199,441 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B1">
+        <v>108</v>
+      </c>
+      <c r="C1">
+        <v>100</v>
+      </c>
+      <c r="D1">
+        <v>43</v>
+      </c>
+      <c r="E1">
+        <v>1011</v>
+      </c>
       <c r="J1">
         <v>1262</v>
       </c>
-      <c r="K1" t="s">
-        <v>7</v>
-      </c>
       <c r="L1">
         <v>151</v>
       </c>
     </row>
-    <row r="2" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>108</v>
+      </c>
+      <c r="C2">
+        <v>101</v>
+      </c>
+      <c r="D2">
+        <v>43</v>
+      </c>
+      <c r="E2">
+        <v>1010</v>
+      </c>
       <c r="J2">
         <v>1262</v>
       </c>
-      <c r="K2" t="s">
-        <v>7</v>
-      </c>
       <c r="L2">
         <v>151</v>
       </c>
     </row>
-    <row r="3" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>110</v>
+      </c>
+      <c r="C3">
+        <v>104</v>
+      </c>
+      <c r="D3">
+        <v>41</v>
+      </c>
+      <c r="E3">
+        <v>1007</v>
+      </c>
       <c r="J3">
         <v>1262</v>
       </c>
-      <c r="K3" t="s">
-        <v>7</v>
-      </c>
       <c r="L3">
         <v>151</v>
       </c>
     </row>
-    <row r="4" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>110</v>
+      </c>
+      <c r="C4">
+        <v>103</v>
+      </c>
+      <c r="D4">
+        <v>41</v>
+      </c>
+      <c r="E4">
+        <v>1008</v>
+      </c>
       <c r="J4">
         <v>1262</v>
       </c>
-      <c r="K4" t="s">
-        <v>7</v>
-      </c>
       <c r="L4">
         <v>151</v>
       </c>
     </row>
-    <row r="5" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>110</v>
+      </c>
+      <c r="C5">
+        <v>102</v>
+      </c>
+      <c r="D5">
+        <v>41</v>
+      </c>
+      <c r="E5">
+        <v>1009</v>
+      </c>
       <c r="J5">
         <v>1262</v>
       </c>
-      <c r="K5" t="s">
-        <v>7</v>
-      </c>
       <c r="L5">
         <v>151</v>
       </c>
     </row>
-    <row r="6" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>108</v>
+      </c>
+      <c r="C6">
+        <v>98</v>
+      </c>
+      <c r="D6">
+        <v>43</v>
+      </c>
+      <c r="E6">
+        <v>1013</v>
+      </c>
       <c r="J6">
         <v>1262</v>
       </c>
-      <c r="K6" t="s">
-        <v>7</v>
-      </c>
       <c r="L6">
         <v>151</v>
       </c>
     </row>
-    <row r="7" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>106</v>
+      </c>
+      <c r="C7">
+        <v>86</v>
+      </c>
+      <c r="D7">
+        <v>45</v>
+      </c>
+      <c r="E7">
+        <v>1025</v>
+      </c>
       <c r="J7">
         <v>1262</v>
       </c>
-      <c r="K7" t="s">
-        <v>7</v>
-      </c>
       <c r="L7">
         <v>151</v>
       </c>
     </row>
-    <row r="8" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>105</v>
+      </c>
+      <c r="C8">
+        <v>68</v>
+      </c>
+      <c r="D8">
+        <v>46</v>
+      </c>
+      <c r="E8">
+        <v>1043</v>
+      </c>
       <c r="J8">
         <v>1262</v>
       </c>
-      <c r="K8" t="s">
-        <v>7</v>
-      </c>
       <c r="L8">
         <v>151</v>
       </c>
     </row>
-    <row r="9" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>104</v>
+      </c>
+      <c r="C9">
+        <v>52</v>
+      </c>
+      <c r="D9">
+        <v>47</v>
+      </c>
+      <c r="E9">
+        <v>1059</v>
+      </c>
       <c r="J9">
         <v>1262</v>
       </c>
-      <c r="K9" t="s">
-        <v>7</v>
-      </c>
       <c r="L9">
         <v>151</v>
       </c>
     </row>
-    <row r="10" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>101</v>
+      </c>
+      <c r="C10">
+        <v>38</v>
+      </c>
+      <c r="D10">
+        <v>50</v>
+      </c>
+      <c r="E10">
+        <v>1073</v>
+      </c>
       <c r="J10">
         <v>1262</v>
       </c>
-      <c r="K10" t="s">
-        <v>7</v>
-      </c>
       <c r="L10">
         <v>151</v>
       </c>
     </row>
-    <row r="11" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>101</v>
+      </c>
+      <c r="C11">
+        <v>24</v>
+      </c>
+      <c r="D11">
+        <v>50</v>
+      </c>
+      <c r="E11">
+        <v>1087</v>
+      </c>
       <c r="J11">
         <v>1262</v>
       </c>
-      <c r="K11" t="s">
-        <v>7</v>
-      </c>
       <c r="L11">
         <v>151</v>
       </c>
     </row>
-    <row r="12" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>96</v>
+      </c>
+      <c r="C12">
+        <v>10</v>
+      </c>
+      <c r="D12">
+        <v>55</v>
+      </c>
+      <c r="E12">
+        <v>1101</v>
+      </c>
       <c r="J12">
         <v>1262</v>
       </c>
-      <c r="K12" t="s">
-        <v>7</v>
-      </c>
       <c r="L12">
         <v>151</v>
       </c>
     </row>
-    <row r="13" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>94</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <v>57</v>
+      </c>
+      <c r="E13">
+        <v>1109</v>
+      </c>
       <c r="J13">
         <v>1262</v>
       </c>
-      <c r="K13" t="s">
-        <v>7</v>
-      </c>
       <c r="L13">
         <v>151</v>
       </c>
     </row>
-    <row r="14" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>89</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>62</v>
+      </c>
+      <c r="E14">
+        <v>1111</v>
+      </c>
       <c r="J14">
         <v>1262</v>
       </c>
-      <c r="K14" t="s">
-        <v>7</v>
-      </c>
       <c r="L14">
         <v>151</v>
       </c>
     </row>
-    <row r="15" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>80</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>71</v>
+      </c>
+      <c r="E15">
+        <v>1111</v>
+      </c>
       <c r="J15">
         <v>1262</v>
       </c>
-      <c r="K15" t="s">
-        <v>7</v>
-      </c>
       <c r="L15">
         <v>151</v>
       </c>
     </row>
-    <row r="16" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>67</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>84</v>
+      </c>
+      <c r="E16">
+        <v>1111</v>
+      </c>
       <c r="J16">
         <v>1262</v>
       </c>
-      <c r="K16" t="s">
-        <v>7</v>
-      </c>
       <c r="L16">
         <v>151</v>
       </c>
     </row>
-    <row r="17" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>55</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>96</v>
+      </c>
+      <c r="E17">
+        <v>1111</v>
+      </c>
       <c r="J17">
         <v>1262</v>
       </c>
-      <c r="K17" t="s">
-        <v>7</v>
-      </c>
       <c r="L17">
         <v>151</v>
       </c>
     </row>
-    <row r="18" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>38</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>113</v>
+      </c>
+      <c r="E18">
+        <v>1111</v>
+      </c>
       <c r="J18">
         <v>1262</v>
       </c>
-      <c r="K18" t="s">
-        <v>7</v>
-      </c>
       <c r="L18">
         <v>151</v>
       </c>
     </row>
-    <row r="19" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>27</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>124</v>
+      </c>
+      <c r="E19">
+        <v>1111</v>
+      </c>
       <c r="J19">
         <v>1262</v>
       </c>
-      <c r="K19" t="s">
-        <v>7</v>
-      </c>
       <c r="L19">
         <v>151</v>
       </c>
     </row>
-    <row r="20" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>15</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>136</v>
+      </c>
+      <c r="E20">
+        <v>1111</v>
+      </c>
       <c r="J20">
         <v>1262</v>
       </c>
-      <c r="K20" t="s">
-        <v>7</v>
-      </c>
       <c r="L20">
         <v>151</v>
       </c>
     </row>
-    <row r="21" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>5</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>146</v>
+      </c>
+      <c r="E21">
+        <v>1111</v>
+      </c>
       <c r="J21">
         <v>1262</v>
       </c>
-      <c r="K21" t="s">
-        <v>7</v>
-      </c>
       <c r="L21">
         <v>151</v>
       </c>
     </row>
-    <row r="22" spans="10:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>150</v>
+      </c>
+      <c r="E22">
+        <v>1111</v>
+      </c>
       <c r="J22">
         <v>1262</v>
-      </c>
-      <c r="K22" t="s">
-        <v>7</v>
       </c>
       <c r="L22">
         <v>151</v>

--- a/lab3/Book1.xlsx
+++ b/lab3/Book1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Masters_Catlog\Master_Catlog\Sem 3\ComputerVision\lab2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Masters_Catlog\Master_Catlog\Sem 3\ComputerVision\lab3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5947A2DB-310F-4F9D-8374-D16AD1C34BD8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9A30BD3-029C-4483-89D0-C2802A144C3B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5C07B9A7-49B7-41C8-9BBB-936591106370}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5C07B9A7-49B7-41C8-9BBB-936591106370}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="9">
   <si>
     <t>TP</t>
   </si>
@@ -49,13 +49,16 @@
     <t>Threshold</t>
   </si>
   <si>
-    <t>Total</t>
-  </si>
-  <si>
     <t>TPR</t>
   </si>
   <si>
     <t>FPR</t>
+  </si>
+  <si>
+    <t>Lab2 Results</t>
+  </si>
+  <si>
+    <t>Lab3 Results</t>
   </si>
 </sst>
 </file>
@@ -99,7 +102,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -122,20 +125,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -170,6 +203,30 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Lab2 and Lab3 Comparison</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -184,35 +241,11 @@
         <a:p>
           <a:pPr>
             <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
-              <a:gradFill>
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent1">
-                      <a:lumMod val="5000"/>
-                      <a:lumOff val="95000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="74000">
-                    <a:schemeClr val="accent1">
-                      <a:lumMod val="45000"/>
-                      <a:lumOff val="55000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="83000">
-                    <a:schemeClr val="accent1">
-                      <a:lumMod val="45000"/>
-                      <a:lumOff val="55000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent1">
-                      <a:lumMod val="30000"/>
-                      <a:lumOff val="70000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="1"/>
-              </a:gradFill>
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
@@ -224,106 +257,25 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="6.7325886589757689E-2"/>
-          <c:y val="0.20857142857142857"/>
-          <c:w val="0.89427922056938502"/>
-          <c:h val="0.66502914408426217"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="1"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$2:$A$23</c:f>
-              <c:strCache>
-                <c:ptCount val="22"/>
-                <c:pt idx="0">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>155</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>160</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>165</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>170</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>175</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>185</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>190</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>195</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>205</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>210</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>215</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>220</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>225</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>230</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>235</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>240</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>245</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>255</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Lab2</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="22225" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
             </a:ln>
             <a:effectLst>
               <a:glow rad="139700">
-                <a:schemeClr val="accent1">
+                <a:schemeClr val="accent2">
                   <a:satMod val="175000"/>
                   <a:alpha val="14000"/>
                 </a:schemeClr>
@@ -331,31 +283,11 @@
             </a:effectLst>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="3"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:glow rad="63500">
-                  <a:schemeClr val="accent1">
-                    <a:satMod val="175000"/>
-                    <a:alpha val="25000"/>
-                  </a:schemeClr>
-                </a:glow>
-              </a:effectLst>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$G$2:$G$23</c:f>
+              <c:f>Sheet1!$G$3:$G$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="22"/>
@@ -430,7 +362,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$2:$F$23</c:f>
+              <c:f>Sheet1!$F$3:$F$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="22"/>
@@ -506,11 +438,193 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-E886-4434-9C19-3631685870B9}"/>
+              <c16:uniqueId val="{00000003-9E4C-4AB8-9A60-06EBDBD5EED9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Lab3</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent3">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$28:$G$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>9.0009000900090008E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.0909090909090912E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.3609360936093608E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.2709270927092705E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.1809180918091815E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.8208820882088215E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.7407740774077402E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.1206120612061203E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.6804680468046804E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.4203420342034205E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.1602160216021602E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.0009000900090012E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.8001800180018001E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$28:$F$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>0.71523178807947019</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.71523178807947019</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.72847682119205293</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.72847682119205293</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.72847682119205293</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.71523178807947019</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.70198675496688745</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.69536423841059603</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.6887417218543046</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.66887417218543044</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.66887417218543044</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.63576158940397354</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.62251655629139069</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.58940397350993379</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.5298013245033113</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.44370860927152317</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.36423841059602646</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.25165562913907286</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.17880794701986755</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.9337748344370855E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.3112582781456956E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6.6225165562913907E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-9E4C-4AB8-9A60-06EBDBD5EED9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -518,11 +632,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1754437856"/>
-        <c:axId val="1990840736"/>
+        <c:axId val="1619255008"/>
+        <c:axId val="1629778320"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1754437856"/>
+        <c:axId val="1619255008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -543,6 +657,59 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>FPR</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -561,35 +728,11 @@
           <a:p>
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:gradFill>
-                  <a:gsLst>
-                    <a:gs pos="0">
-                      <a:schemeClr val="accent1">
-                        <a:lumMod val="5000"/>
-                        <a:lumOff val="95000"/>
-                      </a:schemeClr>
-                    </a:gs>
-                    <a:gs pos="74000">
-                      <a:schemeClr val="accent1">
-                        <a:lumMod val="45000"/>
-                        <a:lumOff val="55000"/>
-                      </a:schemeClr>
-                    </a:gs>
-                    <a:gs pos="83000">
-                      <a:schemeClr val="accent1">
-                        <a:lumMod val="45000"/>
-                        <a:lumOff val="55000"/>
-                      </a:schemeClr>
-                    </a:gs>
-                    <a:gs pos="100000">
-                      <a:schemeClr val="accent1">
-                        <a:lumMod val="30000"/>
-                        <a:lumOff val="70000"/>
-                      </a:schemeClr>
-                    </a:gs>
-                  </a:gsLst>
-                  <a:lin ang="5400000" scaled="1"/>
-                </a:gradFill>
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
@@ -598,12 +741,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1990840736"/>
+        <c:crossAx val="1629778320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1990840736"/>
+        <c:axId val="1629778320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -624,6 +767,59 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>TPR</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -646,35 +842,11 @@
           <a:p>
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:gradFill>
-                  <a:gsLst>
-                    <a:gs pos="0">
-                      <a:schemeClr val="accent1">
-                        <a:lumMod val="5000"/>
-                        <a:lumOff val="95000"/>
-                      </a:schemeClr>
-                    </a:gs>
-                    <a:gs pos="74000">
-                      <a:schemeClr val="accent1">
-                        <a:lumMod val="45000"/>
-                        <a:lumOff val="55000"/>
-                      </a:schemeClr>
-                    </a:gs>
-                    <a:gs pos="83000">
-                      <a:schemeClr val="accent1">
-                        <a:lumMod val="45000"/>
-                        <a:lumOff val="55000"/>
-                      </a:schemeClr>
-                    </a:gs>
-                    <a:gs pos="100000">
-                      <a:schemeClr val="accent1">
-                        <a:lumMod val="30000"/>
-                        <a:lumOff val="70000"/>
-                      </a:schemeClr>
-                    </a:gs>
-                  </a:gsLst>
-                  <a:lin ang="5400000" scaled="1"/>
-                </a:gradFill>
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
@@ -683,7 +855,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1754437856"/>
+        <c:crossAx val="1619255008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -695,6 +867,579 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>lab3</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$28:$G$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>9.0009000900090008E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.0909090909090912E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.3609360936093608E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.2709270927092705E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.1809180918091815E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.8208820882088215E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.7407740774077402E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.1206120612061203E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.6804680468046804E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.4203420342034205E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.1602160216021602E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.0009000900090012E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.8001800180018001E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$28:$F$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>0.71523178807947019</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.71523178807947019</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.72847682119205293</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.72847682119205293</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.72847682119205293</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.71523178807947019</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.70198675496688745</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.69536423841059603</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.6887417218543046</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.66887417218543044</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.66887417218543044</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.63576158940397354</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.62251655629139069</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.58940397350993379</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.5298013245033113</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.44370860927152317</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.36423841059602646</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.25165562913907286</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.17880794701986755</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.9337748344370855E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.3112582781456956E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6.6225165562913907E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-76E0-4F21-B219-E42F731BF4EA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1619255008"/>
+        <c:axId val="1629778320"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1619255008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>FPR</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1629778320"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1629778320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>TPR</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1619255008"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -729,37 +1474,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr>
-          <a:gradFill>
-            <a:gsLst>
-              <a:gs pos="0">
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="5000"/>
-                  <a:lumOff val="95000"/>
-                </a:schemeClr>
-              </a:gs>
-              <a:gs pos="74000">
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="45000"/>
-                  <a:lumOff val="55000"/>
-                </a:schemeClr>
-              </a:gs>
-              <a:gs pos="83000">
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="45000"/>
-                  <a:lumOff val="55000"/>
-                </a:schemeClr>
-              </a:gs>
-              <a:gs pos="100000">
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="30000"/>
-                  <a:lumOff val="70000"/>
-                </a:schemeClr>
-              </a:gs>
-            </a:gsLst>
-            <a:lin ang="5400000" scaled="1"/>
-          </a:gradFill>
-        </a:defRPr>
+        <a:defRPr/>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -812,6 +1527,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="245">
   <cs:axisTitle>
@@ -1350,20 +2105,558 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="245">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="3"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
+      <xdr:colOff>124558</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
+      <xdr:rowOff>179759</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>594360</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>56837</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>175950</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1383,6 +2676,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>312</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>174432</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>329500</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>55370</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5281C6D6-B348-4136-8628-BB5776F31DF6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1688,614 +3017,1415 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{164C203D-EF02-42D6-9D62-66B310BB5300}">
-  <dimension ref="A1:M23"/>
+  <dimension ref="A1:P49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="11" max="11" width="14.21875" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="M1" s="1"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>150</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B3" s="1">
         <v>151</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C3" s="1">
         <v>889</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D3" s="1">
         <v>222</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E3" s="1">
         <v>0</v>
       </c>
-      <c r="F2" s="2">
-        <f>B2/(B2+E2)</f>
+      <c r="F3" s="1">
+        <f>B3/(B3+E3)</f>
         <v>1</v>
       </c>
-      <c r="G2" s="2">
-        <f>C2/(C2+D2)</f>
+      <c r="G3" s="5">
+        <f>C3/(C3+D3)</f>
         <v>0.80018001800180016</v>
       </c>
-      <c r="M2" s="2"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>155</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B4" s="1">
         <v>151</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C4" s="1">
         <v>791</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D4" s="1">
         <v>320</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E4" s="1">
         <v>0</v>
       </c>
-      <c r="F3" s="2">
-        <f t="shared" ref="F3:F23" si="0">B3/(B3+E3)</f>
+      <c r="F4" s="1">
+        <f t="shared" ref="F4:F24" si="0">B4/(B4+E4)</f>
         <v>1</v>
       </c>
-      <c r="G3" s="2">
-        <f t="shared" ref="G3:G23" si="1">C3/(C3+D3)</f>
+      <c r="G4" s="5">
+        <f t="shared" ref="G4:G24" si="1">C4/(C4+D4)</f>
         <v>0.71197119711971202</v>
       </c>
-      <c r="M3" s="2"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>160</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B5" s="1">
         <v>151</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C5" s="1">
         <v>675</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D5" s="1">
         <v>436</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E5" s="1">
         <v>0</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F5" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G5" s="5">
         <f t="shared" si="1"/>
         <v>0.60756075607560756</v>
       </c>
-      <c r="M4" s="2"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>165</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B6" s="1">
         <v>151</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C6" s="1">
         <v>597</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D6" s="1">
         <v>514</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E6" s="1">
         <v>0</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F6" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G6" s="5">
         <f t="shared" si="1"/>
         <v>0.53735373537353737</v>
       </c>
-      <c r="M5" s="2"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>170</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B7" s="1">
         <v>151</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C7" s="1">
         <v>535</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D7" s="1">
         <v>576</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E7" s="1">
         <v>0</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F7" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G7" s="5">
         <f t="shared" si="1"/>
         <v>0.48154815481548152</v>
       </c>
-      <c r="M6" s="2"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>175</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B8" s="1">
         <v>151</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C8" s="1">
         <v>468</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D8" s="1">
         <v>643</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E8" s="1">
         <v>0</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F8" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G8" s="5">
         <f t="shared" si="1"/>
         <v>0.42124212421242124</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>180</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B9" s="1">
         <v>151</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C9" s="1">
         <v>386</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D9" s="1">
         <v>725</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E9" s="1">
         <v>0</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F9" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G9" s="5">
         <f t="shared" si="1"/>
         <v>0.34743474347434744</v>
       </c>
-      <c r="M8" s="2"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
         <v>185</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B10" s="1">
         <v>151</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C10" s="1">
         <v>308</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D10" s="1">
         <v>803</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E10" s="1">
         <v>0</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F10" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G10" s="5">
         <f t="shared" si="1"/>
         <v>0.27722772277227725</v>
       </c>
-      <c r="M9" s="2"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
         <v>190</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B11" s="1">
         <v>151</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C11" s="1">
         <v>231</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D11" s="1">
         <v>880</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E11" s="1">
         <v>0</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F11" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G11" s="5">
         <f t="shared" si="1"/>
         <v>0.20792079207920791</v>
       </c>
-      <c r="M10" s="2"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
         <v>195</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B12" s="1">
         <v>151</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C12" s="1">
         <v>169</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D12" s="1">
         <v>942</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E12" s="1">
         <v>0</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F12" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G12" s="5">
         <f t="shared" si="1"/>
         <v>0.15211521152115212</v>
       </c>
-      <c r="M11" s="2"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
         <v>200</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B13" s="1">
         <v>151</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C13" s="1">
         <v>124</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D13" s="1">
         <v>987</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E13" s="1">
         <v>0</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F13" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G13" s="5">
         <f t="shared" si="1"/>
         <v>0.11161116111611161</v>
       </c>
-      <c r="M12" s="2"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
         <v>205</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B14" s="1">
         <v>148</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C14" s="1">
         <v>82</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D14" s="1">
         <v>1029</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E14" s="1">
         <v>3</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F14" s="1">
         <f t="shared" si="0"/>
         <v>0.98013245033112584</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G14" s="5">
         <f t="shared" si="1"/>
         <v>7.3807380738073802E-2</v>
       </c>
-      <c r="M13" s="2"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="2">
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
         <v>210</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B15" s="1">
         <v>143</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C15" s="1">
         <v>59</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D15" s="1">
         <v>1052</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E15" s="1">
         <v>8</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F15" s="1">
         <f t="shared" si="0"/>
         <v>0.94701986754966883</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G15" s="5">
         <f t="shared" si="1"/>
         <v>5.3105310531053107E-2</v>
       </c>
-      <c r="M14" s="2"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="2">
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
         <v>215</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B16" s="1">
         <v>133</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C16" s="1">
         <v>43</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D16" s="1">
         <v>1068</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E16" s="1">
         <v>18</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F16" s="1">
         <f t="shared" si="0"/>
         <v>0.88079470198675491</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G16" s="5">
         <f t="shared" si="1"/>
         <v>3.8703870387038701E-2</v>
       </c>
-      <c r="M15" s="2"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="2">
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
         <v>220</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B17" s="1">
         <v>121</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C17" s="1">
         <v>30</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D17" s="1">
         <v>1081</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E17" s="1">
         <v>30</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F17" s="1">
         <f t="shared" si="0"/>
         <v>0.80132450331125826</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G17" s="5">
         <f t="shared" si="1"/>
         <v>2.7002700270027002E-2</v>
       </c>
-      <c r="M16" s="2"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="2">
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
         <v>225</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B18" s="1">
         <v>99</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C18" s="1">
         <v>14</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D18" s="1">
         <v>1097</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E18" s="1">
         <v>52</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F18" s="1">
         <f t="shared" si="0"/>
         <v>0.6556291390728477</v>
       </c>
-      <c r="G17" s="2">
+      <c r="G18" s="5">
         <f t="shared" si="1"/>
         <v>1.2601260126012601E-2</v>
       </c>
-      <c r="M17" s="2"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" s="2">
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
         <v>230</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B19" s="1">
         <v>75</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C19" s="1">
         <v>5</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D19" s="1">
         <v>1106</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E19" s="1">
         <v>76</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F19" s="1">
         <f t="shared" si="0"/>
         <v>0.49668874172185429</v>
       </c>
-      <c r="G18" s="2">
+      <c r="G19" s="5">
         <f t="shared" si="1"/>
         <v>4.5004500450045006E-3</v>
       </c>
-      <c r="M18" s="2"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" s="2">
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
         <v>235</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B20" s="1">
         <v>48</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C20" s="1">
         <v>1</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D20" s="1">
         <v>1110</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E20" s="1">
         <v>103</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F20" s="1">
         <f t="shared" si="0"/>
         <v>0.31788079470198677</v>
       </c>
-      <c r="G19" s="2">
+      <c r="G20" s="5">
         <f t="shared" si="1"/>
         <v>9.0009000900090005E-4</v>
       </c>
-      <c r="M19" s="2"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="2">
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="6"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
         <v>240</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B21" s="1">
         <v>31</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C21" s="1">
         <v>0</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D21" s="1">
         <v>1111</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E21" s="1">
         <v>120</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F21" s="1">
         <f t="shared" si="0"/>
         <v>0.20529801324503311</v>
       </c>
-      <c r="G20" s="2">
+      <c r="G21" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M20" s="2"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" s="2">
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="6"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
         <v>245</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B22" s="1">
         <v>16</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C22" s="1">
         <v>0</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D22" s="1">
         <v>1111</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E22" s="1">
         <v>135</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F22" s="1">
         <f t="shared" si="0"/>
         <v>0.10596026490066225</v>
       </c>
-      <c r="G21" s="2">
+      <c r="G22" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M21" s="2"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22" s="2">
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="6"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
         <v>250</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B23" s="1">
         <v>5</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C23" s="1">
         <v>0</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D23" s="1">
         <v>1111</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E23" s="1">
         <v>146</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F23" s="1">
         <f t="shared" si="0"/>
         <v>3.3112582781456956E-2</v>
       </c>
-      <c r="G22" s="2">
+      <c r="G23" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M22" s="2"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A23" s="2">
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="6"/>
+      <c r="P23" s="6"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
         <v>255</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B24" s="1">
         <v>1</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C24" s="1">
         <v>0</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D24" s="1">
         <v>1111</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E24" s="1">
         <v>150</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F24" s="1">
         <f t="shared" si="0"/>
         <v>6.6225165562913907E-3</v>
       </c>
-      <c r="G23" s="2">
+      <c r="G24" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M23" s="2"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="6"/>
+      <c r="O24" s="6"/>
+      <c r="P24" s="6"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" s="6"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>150</v>
+      </c>
+      <c r="B28" s="1">
+        <v>108</v>
+      </c>
+      <c r="C28" s="1">
+        <v>100</v>
+      </c>
+      <c r="D28" s="1">
+        <v>1011</v>
+      </c>
+      <c r="E28" s="1">
+        <v>43</v>
+      </c>
+      <c r="F28" s="1">
+        <f>B28/(B28+E28)</f>
+        <v>0.71523178807947019</v>
+      </c>
+      <c r="G28" s="1">
+        <f>C28/(C28+D28)</f>
+        <v>9.0009000900090008E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>155</v>
+      </c>
+      <c r="B29" s="1">
+        <v>108</v>
+      </c>
+      <c r="C29" s="1">
+        <v>101</v>
+      </c>
+      <c r="D29" s="1">
+        <v>1010</v>
+      </c>
+      <c r="E29" s="1">
+        <v>43</v>
+      </c>
+      <c r="F29" s="1">
+        <f t="shared" ref="F29:F49" si="2">B29/(B29+E29)</f>
+        <v>0.71523178807947019</v>
+      </c>
+      <c r="G29" s="1">
+        <f t="shared" ref="G29:G49" si="3">C29/(C29+D29)</f>
+        <v>9.0909090909090912E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>160</v>
+      </c>
+      <c r="B30" s="1">
+        <v>110</v>
+      </c>
+      <c r="C30" s="1">
+        <v>104</v>
+      </c>
+      <c r="D30" s="1">
+        <v>1007</v>
+      </c>
+      <c r="E30" s="1">
+        <v>41</v>
+      </c>
+      <c r="F30" s="1">
+        <f t="shared" si="2"/>
+        <v>0.72847682119205293</v>
+      </c>
+      <c r="G30" s="1">
+        <f t="shared" si="3"/>
+        <v>9.3609360936093608E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>165</v>
+      </c>
+      <c r="B31" s="1">
+        <v>110</v>
+      </c>
+      <c r="C31" s="1">
+        <v>103</v>
+      </c>
+      <c r="D31" s="1">
+        <v>1008</v>
+      </c>
+      <c r="E31" s="1">
+        <v>41</v>
+      </c>
+      <c r="F31" s="1">
+        <f t="shared" si="2"/>
+        <v>0.72847682119205293</v>
+      </c>
+      <c r="G31" s="1">
+        <f t="shared" si="3"/>
+        <v>9.2709270927092705E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>170</v>
+      </c>
+      <c r="B32" s="1">
+        <v>110</v>
+      </c>
+      <c r="C32" s="1">
+        <v>102</v>
+      </c>
+      <c r="D32" s="1">
+        <v>1009</v>
+      </c>
+      <c r="E32" s="1">
+        <v>41</v>
+      </c>
+      <c r="F32" s="1">
+        <f t="shared" si="2"/>
+        <v>0.72847682119205293</v>
+      </c>
+      <c r="G32" s="1">
+        <f t="shared" si="3"/>
+        <v>9.1809180918091815E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>175</v>
+      </c>
+      <c r="B33" s="1">
+        <v>108</v>
+      </c>
+      <c r="C33" s="1">
+        <v>98</v>
+      </c>
+      <c r="D33" s="1">
+        <v>1013</v>
+      </c>
+      <c r="E33" s="1">
+        <v>43</v>
+      </c>
+      <c r="F33" s="1">
+        <f t="shared" si="2"/>
+        <v>0.71523178807947019</v>
+      </c>
+      <c r="G33" s="1">
+        <f t="shared" si="3"/>
+        <v>8.8208820882088215E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>180</v>
+      </c>
+      <c r="B34" s="1">
+        <v>106</v>
+      </c>
+      <c r="C34" s="1">
+        <v>86</v>
+      </c>
+      <c r="D34" s="1">
+        <v>1025</v>
+      </c>
+      <c r="E34" s="1">
+        <v>45</v>
+      </c>
+      <c r="F34" s="1">
+        <f t="shared" si="2"/>
+        <v>0.70198675496688745</v>
+      </c>
+      <c r="G34" s="1">
+        <f t="shared" si="3"/>
+        <v>7.7407740774077402E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>185</v>
+      </c>
+      <c r="B35" s="1">
+        <v>105</v>
+      </c>
+      <c r="C35" s="1">
+        <v>68</v>
+      </c>
+      <c r="D35" s="1">
+        <v>1043</v>
+      </c>
+      <c r="E35" s="1">
+        <v>46</v>
+      </c>
+      <c r="F35" s="1">
+        <f t="shared" si="2"/>
+        <v>0.69536423841059603</v>
+      </c>
+      <c r="G35" s="1">
+        <f t="shared" si="3"/>
+        <v>6.1206120612061203E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>190</v>
+      </c>
+      <c r="B36" s="1">
+        <v>104</v>
+      </c>
+      <c r="C36" s="1">
+        <v>52</v>
+      </c>
+      <c r="D36" s="1">
+        <v>1059</v>
+      </c>
+      <c r="E36" s="1">
+        <v>47</v>
+      </c>
+      <c r="F36" s="1">
+        <f t="shared" si="2"/>
+        <v>0.6887417218543046</v>
+      </c>
+      <c r="G36" s="1">
+        <f t="shared" si="3"/>
+        <v>4.6804680468046804E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>195</v>
+      </c>
+      <c r="B37" s="1">
+        <v>101</v>
+      </c>
+      <c r="C37" s="1">
+        <v>38</v>
+      </c>
+      <c r="D37" s="1">
+        <v>1073</v>
+      </c>
+      <c r="E37" s="1">
+        <v>50</v>
+      </c>
+      <c r="F37" s="1">
+        <f t="shared" si="2"/>
+        <v>0.66887417218543044</v>
+      </c>
+      <c r="G37" s="1">
+        <f t="shared" si="3"/>
+        <v>3.4203420342034205E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>200</v>
+      </c>
+      <c r="B38" s="1">
+        <v>101</v>
+      </c>
+      <c r="C38" s="1">
+        <v>24</v>
+      </c>
+      <c r="D38" s="1">
+        <v>1087</v>
+      </c>
+      <c r="E38" s="1">
+        <v>50</v>
+      </c>
+      <c r="F38" s="1">
+        <f t="shared" si="2"/>
+        <v>0.66887417218543044</v>
+      </c>
+      <c r="G38" s="1">
+        <f t="shared" si="3"/>
+        <v>2.1602160216021602E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>205</v>
+      </c>
+      <c r="B39" s="1">
+        <v>96</v>
+      </c>
+      <c r="C39" s="1">
+        <v>10</v>
+      </c>
+      <c r="D39" s="1">
+        <v>1101</v>
+      </c>
+      <c r="E39" s="1">
+        <v>55</v>
+      </c>
+      <c r="F39" s="1">
+        <f t="shared" si="2"/>
+        <v>0.63576158940397354</v>
+      </c>
+      <c r="G39" s="1">
+        <f t="shared" si="3"/>
+        <v>9.0009000900090012E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>210</v>
+      </c>
+      <c r="B40" s="1">
+        <v>94</v>
+      </c>
+      <c r="C40" s="1">
+        <v>2</v>
+      </c>
+      <c r="D40" s="1">
+        <v>1109</v>
+      </c>
+      <c r="E40" s="1">
+        <v>57</v>
+      </c>
+      <c r="F40" s="1">
+        <f t="shared" si="2"/>
+        <v>0.62251655629139069</v>
+      </c>
+      <c r="G40" s="1">
+        <f t="shared" si="3"/>
+        <v>1.8001800180018001E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>215</v>
+      </c>
+      <c r="B41" s="1">
+        <v>89</v>
+      </c>
+      <c r="C41" s="1">
+        <v>0</v>
+      </c>
+      <c r="D41" s="1">
+        <v>1111</v>
+      </c>
+      <c r="E41" s="1">
+        <v>62</v>
+      </c>
+      <c r="F41" s="1">
+        <f t="shared" si="2"/>
+        <v>0.58940397350993379</v>
+      </c>
+      <c r="G41" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>220</v>
+      </c>
+      <c r="B42" s="1">
+        <v>80</v>
+      </c>
+      <c r="C42" s="1">
+        <v>0</v>
+      </c>
+      <c r="D42" s="1">
+        <v>1111</v>
+      </c>
+      <c r="E42" s="1">
+        <v>71</v>
+      </c>
+      <c r="F42" s="1">
+        <f t="shared" si="2"/>
+        <v>0.5298013245033113</v>
+      </c>
+      <c r="G42" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>225</v>
+      </c>
+      <c r="B43" s="1">
+        <v>67</v>
+      </c>
+      <c r="C43" s="1">
+        <v>0</v>
+      </c>
+      <c r="D43" s="1">
+        <v>1111</v>
+      </c>
+      <c r="E43" s="1">
+        <v>84</v>
+      </c>
+      <c r="F43" s="1">
+        <f t="shared" si="2"/>
+        <v>0.44370860927152317</v>
+      </c>
+      <c r="G43" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>230</v>
+      </c>
+      <c r="B44" s="1">
+        <v>55</v>
+      </c>
+      <c r="C44" s="1">
+        <v>0</v>
+      </c>
+      <c r="D44" s="1">
+        <v>1111</v>
+      </c>
+      <c r="E44" s="1">
+        <v>96</v>
+      </c>
+      <c r="F44" s="1">
+        <f t="shared" si="2"/>
+        <v>0.36423841059602646</v>
+      </c>
+      <c r="G44" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>235</v>
+      </c>
+      <c r="B45" s="1">
+        <v>38</v>
+      </c>
+      <c r="C45" s="1">
+        <v>0</v>
+      </c>
+      <c r="D45" s="1">
+        <v>1111</v>
+      </c>
+      <c r="E45" s="1">
+        <v>113</v>
+      </c>
+      <c r="F45" s="1">
+        <f t="shared" si="2"/>
+        <v>0.25165562913907286</v>
+      </c>
+      <c r="G45" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>240</v>
+      </c>
+      <c r="B46" s="1">
+        <v>27</v>
+      </c>
+      <c r="C46" s="1">
+        <v>0</v>
+      </c>
+      <c r="D46" s="1">
+        <v>1111</v>
+      </c>
+      <c r="E46" s="1">
+        <v>124</v>
+      </c>
+      <c r="F46" s="1">
+        <f t="shared" si="2"/>
+        <v>0.17880794701986755</v>
+      </c>
+      <c r="G46" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>245</v>
+      </c>
+      <c r="B47" s="1">
+        <v>15</v>
+      </c>
+      <c r="C47" s="1">
+        <v>0</v>
+      </c>
+      <c r="D47" s="1">
+        <v>1111</v>
+      </c>
+      <c r="E47" s="1">
+        <v>136</v>
+      </c>
+      <c r="F47" s="1">
+        <f t="shared" si="2"/>
+        <v>9.9337748344370855E-2</v>
+      </c>
+      <c r="G47" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>250</v>
+      </c>
+      <c r="B48" s="1">
+        <v>5</v>
+      </c>
+      <c r="C48" s="1">
+        <v>0</v>
+      </c>
+      <c r="D48" s="1">
+        <v>1111</v>
+      </c>
+      <c r="E48" s="1">
+        <v>146</v>
+      </c>
+      <c r="F48" s="1">
+        <f t="shared" si="2"/>
+        <v>3.3112582781456956E-2</v>
+      </c>
+      <c r="G48" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>255</v>
+      </c>
+      <c r="B49" s="1">
+        <v>1</v>
+      </c>
+      <c r="C49" s="1">
+        <v>0</v>
+      </c>
+      <c r="D49" s="1">
+        <v>1111</v>
+      </c>
+      <c r="E49" s="1">
+        <v>150</v>
+      </c>
+      <c r="F49" s="1">
+        <f t="shared" si="2"/>
+        <v>6.6225165562913907E-3</v>
+      </c>
+      <c r="G49" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A26:G26"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -2304,848 +4434,512 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11ABD654-7414-4BA5-A0D0-D04633A6838E}">
-  <dimension ref="A1:L22"/>
+  <dimension ref="B1:L25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H22"/>
+      <selection activeCell="B4" sqref="B4:E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
+    <row r="1" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B1">
-        <v>151</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
+        <v>106</v>
+      </c>
+      <c r="C1">
+        <v>99</v>
       </c>
       <c r="D1">
-        <v>889</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1">
-        <v>222</v>
-      </c>
-      <c r="G1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1">
-        <v>0</v>
-      </c>
-      <c r="I1" t="s">
-        <v>5</v>
+        <v>1012</v>
+      </c>
+      <c r="E1">
+        <v>45</v>
       </c>
       <c r="J1">
         <v>1262</v>
       </c>
-      <c r="K1" t="s">
-        <v>4</v>
-      </c>
       <c r="L1">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
+        <v>151</v>
+      </c>
+    </row>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B2">
-        <v>151</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1</v>
+        <v>106</v>
+      </c>
+      <c r="C2">
+        <v>99</v>
       </c>
       <c r="D2">
-        <v>791</v>
-      </c>
-      <c r="E2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2">
-        <v>320</v>
-      </c>
-      <c r="G2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2" t="s">
-        <v>5</v>
+        <v>1012</v>
+      </c>
+      <c r="E2">
+        <v>45</v>
       </c>
       <c r="J2">
         <v>1262</v>
       </c>
-      <c r="K2" t="s">
-        <v>4</v>
-      </c>
       <c r="L2">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
+        <v>151</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B3">
-        <v>151</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1</v>
+        <v>106</v>
+      </c>
+      <c r="C3">
+        <v>100</v>
       </c>
       <c r="D3">
-        <v>675</v>
-      </c>
-      <c r="E3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3">
-        <v>436</v>
-      </c>
-      <c r="G3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3" t="s">
-        <v>5</v>
+        <v>1011</v>
+      </c>
+      <c r="E3">
+        <v>45</v>
       </c>
       <c r="J3">
         <v>1262</v>
       </c>
-      <c r="K3" t="s">
-        <v>4</v>
-      </c>
       <c r="L3">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
+        <v>151</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4">
-        <v>151</v>
-      </c>
-      <c r="C4" t="s">
-        <v>1</v>
+        <v>108</v>
+      </c>
+      <c r="C4">
+        <v>100</v>
       </c>
       <c r="D4">
-        <v>597</v>
-      </c>
-      <c r="E4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4">
-        <v>514</v>
-      </c>
-      <c r="G4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4" t="s">
-        <v>5</v>
+        <v>1011</v>
+      </c>
+      <c r="E4">
+        <v>43</v>
       </c>
       <c r="J4">
         <v>1262</v>
       </c>
-      <c r="K4" t="s">
-        <v>4</v>
-      </c>
       <c r="L4">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>0</v>
-      </c>
+        <v>151</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5">
-        <v>151</v>
-      </c>
-      <c r="C5" t="s">
-        <v>1</v>
+        <v>108</v>
+      </c>
+      <c r="C5">
+        <v>101</v>
       </c>
       <c r="D5">
-        <v>535</v>
-      </c>
-      <c r="E5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F5">
-        <v>576</v>
-      </c>
-      <c r="G5" t="s">
-        <v>3</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5" t="s">
-        <v>5</v>
+        <v>1010</v>
+      </c>
+      <c r="E5">
+        <v>43</v>
       </c>
       <c r="J5">
         <v>1262</v>
       </c>
-      <c r="K5" t="s">
-        <v>4</v>
-      </c>
       <c r="L5">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>0</v>
-      </c>
+        <v>151</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B6">
-        <v>151</v>
-      </c>
-      <c r="C6" t="s">
-        <v>1</v>
+        <v>110</v>
+      </c>
+      <c r="C6">
+        <v>104</v>
       </c>
       <c r="D6">
-        <v>468</v>
-      </c>
-      <c r="E6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F6">
-        <v>643</v>
-      </c>
-      <c r="G6" t="s">
-        <v>3</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6" t="s">
-        <v>5</v>
+        <v>1007</v>
+      </c>
+      <c r="E6">
+        <v>41</v>
       </c>
       <c r="J6">
         <v>1262</v>
       </c>
-      <c r="K6" t="s">
-        <v>4</v>
-      </c>
       <c r="L6">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>0</v>
-      </c>
+        <v>151</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7">
-        <v>151</v>
-      </c>
-      <c r="C7" t="s">
-        <v>1</v>
+        <v>110</v>
+      </c>
+      <c r="C7">
+        <v>103</v>
       </c>
       <c r="D7">
-        <v>386</v>
-      </c>
-      <c r="E7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F7">
-        <v>725</v>
-      </c>
-      <c r="G7" t="s">
-        <v>3</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7" t="s">
-        <v>5</v>
+        <v>1008</v>
+      </c>
+      <c r="E7">
+        <v>41</v>
       </c>
       <c r="J7">
         <v>1262</v>
       </c>
-      <c r="K7" t="s">
-        <v>4</v>
-      </c>
       <c r="L7">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>0</v>
-      </c>
+        <v>151</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B8">
-        <v>151</v>
-      </c>
-      <c r="C8" t="s">
-        <v>1</v>
+        <v>110</v>
+      </c>
+      <c r="C8">
+        <v>102</v>
       </c>
       <c r="D8">
-        <v>308</v>
-      </c>
-      <c r="E8" t="s">
-        <v>2</v>
-      </c>
-      <c r="F8">
-        <v>803</v>
-      </c>
-      <c r="G8" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8" t="s">
-        <v>5</v>
+        <v>1009</v>
+      </c>
+      <c r="E8">
+        <v>41</v>
       </c>
       <c r="J8">
         <v>1262</v>
       </c>
-      <c r="K8" t="s">
-        <v>4</v>
-      </c>
       <c r="L8">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>0</v>
-      </c>
+        <v>151</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B9">
-        <v>151</v>
-      </c>
-      <c r="C9" t="s">
-        <v>1</v>
+        <v>108</v>
+      </c>
+      <c r="C9">
+        <v>98</v>
       </c>
       <c r="D9">
-        <v>231</v>
-      </c>
-      <c r="E9" t="s">
-        <v>2</v>
-      </c>
-      <c r="F9">
-        <v>880</v>
-      </c>
-      <c r="G9" t="s">
-        <v>3</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9" t="s">
-        <v>5</v>
+        <v>1013</v>
+      </c>
+      <c r="E9">
+        <v>43</v>
       </c>
       <c r="J9">
         <v>1262</v>
       </c>
-      <c r="K9" t="s">
-        <v>4</v>
-      </c>
       <c r="L9">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>0</v>
-      </c>
+        <v>151</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B10">
-        <v>151</v>
-      </c>
-      <c r="C10" t="s">
-        <v>1</v>
+        <v>106</v>
+      </c>
+      <c r="C10">
+        <v>86</v>
       </c>
       <c r="D10">
-        <v>169</v>
-      </c>
-      <c r="E10" t="s">
-        <v>2</v>
-      </c>
-      <c r="F10">
-        <v>942</v>
-      </c>
-      <c r="G10" t="s">
-        <v>3</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10" t="s">
-        <v>5</v>
+        <v>1025</v>
+      </c>
+      <c r="E10">
+        <v>45</v>
       </c>
       <c r="J10">
         <v>1262</v>
       </c>
-      <c r="K10" t="s">
-        <v>4</v>
-      </c>
       <c r="L10">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>0</v>
-      </c>
+        <v>151</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B11">
-        <v>151</v>
-      </c>
-      <c r="C11" t="s">
-        <v>1</v>
+        <v>105</v>
+      </c>
+      <c r="C11">
+        <v>68</v>
       </c>
       <c r="D11">
-        <v>124</v>
-      </c>
-      <c r="E11" t="s">
-        <v>2</v>
-      </c>
-      <c r="F11">
-        <v>987</v>
-      </c>
-      <c r="G11" t="s">
-        <v>3</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11" t="s">
-        <v>5</v>
+        <v>1043</v>
+      </c>
+      <c r="E11">
+        <v>46</v>
       </c>
       <c r="J11">
         <v>1262</v>
       </c>
-      <c r="K11" t="s">
-        <v>4</v>
-      </c>
       <c r="L11">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>0</v>
-      </c>
+        <v>151</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B12">
-        <v>148</v>
-      </c>
-      <c r="C12" t="s">
-        <v>1</v>
+        <v>104</v>
+      </c>
+      <c r="C12">
+        <v>52</v>
       </c>
       <c r="D12">
-        <v>82</v>
-      </c>
-      <c r="E12" t="s">
-        <v>2</v>
-      </c>
-      <c r="F12">
-        <v>1029</v>
-      </c>
-      <c r="G12" t="s">
-        <v>3</v>
-      </c>
-      <c r="H12">
-        <v>3</v>
-      </c>
-      <c r="I12" t="s">
-        <v>5</v>
+        <v>1059</v>
+      </c>
+      <c r="E12">
+        <v>47</v>
       </c>
       <c r="J12">
         <v>1262</v>
       </c>
-      <c r="K12" t="s">
-        <v>4</v>
-      </c>
       <c r="L12">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>0</v>
-      </c>
+        <v>151</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B13">
-        <v>143</v>
-      </c>
-      <c r="C13" t="s">
-        <v>1</v>
+        <v>101</v>
+      </c>
+      <c r="C13">
+        <v>38</v>
       </c>
       <c r="D13">
-        <v>59</v>
-      </c>
-      <c r="E13" t="s">
-        <v>2</v>
-      </c>
-      <c r="F13">
-        <v>1052</v>
-      </c>
-      <c r="G13" t="s">
-        <v>3</v>
-      </c>
-      <c r="H13">
-        <v>8</v>
-      </c>
-      <c r="I13" t="s">
-        <v>5</v>
+        <v>1073</v>
+      </c>
+      <c r="E13">
+        <v>50</v>
       </c>
       <c r="J13">
         <v>1262</v>
       </c>
-      <c r="K13" t="s">
-        <v>4</v>
-      </c>
       <c r="L13">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>0</v>
-      </c>
+        <v>151</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B14">
-        <v>133</v>
-      </c>
-      <c r="C14" t="s">
-        <v>1</v>
+        <v>101</v>
+      </c>
+      <c r="C14">
+        <v>24</v>
       </c>
       <c r="D14">
-        <v>43</v>
-      </c>
-      <c r="E14" t="s">
-        <v>2</v>
-      </c>
-      <c r="F14">
-        <v>1068</v>
-      </c>
-      <c r="G14" t="s">
-        <v>3</v>
-      </c>
-      <c r="H14">
-        <v>18</v>
-      </c>
-      <c r="I14" t="s">
-        <v>5</v>
+        <v>1087</v>
+      </c>
+      <c r="E14">
+        <v>50</v>
       </c>
       <c r="J14">
         <v>1262</v>
       </c>
-      <c r="K14" t="s">
-        <v>4</v>
-      </c>
       <c r="L14">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>0</v>
-      </c>
+        <v>151</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B15">
-        <v>121</v>
-      </c>
-      <c r="C15" t="s">
-        <v>1</v>
+        <v>96</v>
+      </c>
+      <c r="C15">
+        <v>10</v>
       </c>
       <c r="D15">
-        <v>30</v>
-      </c>
-      <c r="E15" t="s">
-        <v>2</v>
-      </c>
-      <c r="F15">
-        <v>1081</v>
-      </c>
-      <c r="G15" t="s">
-        <v>3</v>
-      </c>
-      <c r="H15">
-        <v>30</v>
-      </c>
-      <c r="I15" t="s">
-        <v>5</v>
+        <v>1101</v>
+      </c>
+      <c r="E15">
+        <v>55</v>
       </c>
       <c r="J15">
         <v>1262</v>
       </c>
-      <c r="K15" t="s">
-        <v>4</v>
-      </c>
       <c r="L15">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>0</v>
-      </c>
+        <v>151</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B16">
-        <v>99</v>
-      </c>
-      <c r="C16" t="s">
-        <v>1</v>
+        <v>94</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
       </c>
       <c r="D16">
-        <v>14</v>
-      </c>
-      <c r="E16" t="s">
-        <v>2</v>
-      </c>
-      <c r="F16">
-        <v>1097</v>
-      </c>
-      <c r="G16" t="s">
-        <v>3</v>
-      </c>
-      <c r="H16">
-        <v>52</v>
-      </c>
-      <c r="I16" t="s">
-        <v>5</v>
+        <v>1109</v>
+      </c>
+      <c r="E16">
+        <v>57</v>
       </c>
       <c r="J16">
         <v>1262</v>
       </c>
-      <c r="K16" t="s">
-        <v>4</v>
-      </c>
       <c r="L16">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>89</v>
+      </c>
+      <c r="C17">
         <v>0</v>
       </c>
-      <c r="B17">
-        <v>75</v>
-      </c>
-      <c r="C17" t="s">
-        <v>1</v>
-      </c>
       <c r="D17">
-        <v>5</v>
-      </c>
-      <c r="E17" t="s">
-        <v>2</v>
-      </c>
-      <c r="F17">
-        <v>1106</v>
-      </c>
-      <c r="G17" t="s">
-        <v>3</v>
-      </c>
-      <c r="H17">
-        <v>76</v>
-      </c>
-      <c r="I17" t="s">
-        <v>5</v>
+        <v>1111</v>
+      </c>
+      <c r="E17">
+        <v>62</v>
       </c>
       <c r="J17">
         <v>1262</v>
       </c>
-      <c r="K17" t="s">
-        <v>4</v>
-      </c>
       <c r="L17">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>80</v>
+      </c>
+      <c r="C18">
         <v>0</v>
       </c>
-      <c r="B18">
-        <v>48</v>
-      </c>
-      <c r="C18" t="s">
-        <v>1</v>
-      </c>
       <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18" t="s">
-        <v>2</v>
-      </c>
-      <c r="F18">
-        <v>1110</v>
-      </c>
-      <c r="G18" t="s">
-        <v>3</v>
-      </c>
-      <c r="H18">
-        <v>103</v>
-      </c>
-      <c r="I18" t="s">
-        <v>5</v>
+        <v>1111</v>
+      </c>
+      <c r="E18">
+        <v>71</v>
       </c>
       <c r="J18">
         <v>1262</v>
       </c>
-      <c r="K18" t="s">
-        <v>4</v>
-      </c>
       <c r="L18">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>67</v>
+      </c>
+      <c r="C19">
         <v>0</v>
       </c>
-      <c r="B19">
-        <v>31</v>
-      </c>
-      <c r="C19" t="s">
-        <v>1</v>
-      </c>
       <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19" t="s">
-        <v>2</v>
-      </c>
-      <c r="F19">
         <v>1111</v>
       </c>
-      <c r="G19" t="s">
-        <v>3</v>
-      </c>
-      <c r="H19">
-        <v>120</v>
-      </c>
-      <c r="I19" t="s">
-        <v>5</v>
+      <c r="E19">
+        <v>84</v>
       </c>
       <c r="J19">
         <v>1262</v>
       </c>
-      <c r="K19" t="s">
-        <v>4</v>
-      </c>
       <c r="L19">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>55</v>
+      </c>
+      <c r="C20">
         <v>0</v>
       </c>
-      <c r="B20">
-        <v>16</v>
-      </c>
-      <c r="C20" t="s">
-        <v>1</v>
-      </c>
       <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20" t="s">
-        <v>2</v>
-      </c>
-      <c r="F20">
         <v>1111</v>
       </c>
-      <c r="G20" t="s">
-        <v>3</v>
-      </c>
-      <c r="H20">
-        <v>135</v>
-      </c>
-      <c r="I20" t="s">
-        <v>5</v>
+      <c r="E20">
+        <v>96</v>
       </c>
       <c r="J20">
         <v>1262</v>
       </c>
-      <c r="K20" t="s">
-        <v>4</v>
-      </c>
       <c r="L20">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>38</v>
+      </c>
+      <c r="C21">
         <v>0</v>
       </c>
-      <c r="B21">
-        <v>5</v>
-      </c>
-      <c r="C21" t="s">
-        <v>1</v>
-      </c>
       <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21" t="s">
-        <v>2</v>
-      </c>
-      <c r="F21">
         <v>1111</v>
       </c>
-      <c r="G21" t="s">
-        <v>3</v>
-      </c>
-      <c r="H21">
-        <v>146</v>
-      </c>
-      <c r="I21" t="s">
-        <v>5</v>
+      <c r="E21">
+        <v>113</v>
       </c>
       <c r="J21">
         <v>1262</v>
       </c>
-      <c r="K21" t="s">
-        <v>4</v>
-      </c>
       <c r="L21">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>27</v>
+      </c>
+      <c r="C22">
         <v>0</v>
       </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-      <c r="C22" t="s">
-        <v>1</v>
-      </c>
       <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22" t="s">
-        <v>2</v>
-      </c>
-      <c r="F22">
         <v>1111</v>
       </c>
-      <c r="G22" t="s">
-        <v>3</v>
-      </c>
-      <c r="H22">
-        <v>150</v>
-      </c>
-      <c r="I22" t="s">
-        <v>5</v>
+      <c r="E22">
+        <v>124</v>
       </c>
       <c r="J22">
         <v>1262</v>
       </c>
-      <c r="K22" t="s">
-        <v>4</v>
-      </c>
       <c r="L22">
-        <v>255</v>
+        <v>151</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>15</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>1111</v>
+      </c>
+      <c r="E23">
+        <v>136</v>
+      </c>
+      <c r="J23">
+        <v>1262</v>
+      </c>
+      <c r="L23">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>5</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>1111</v>
+      </c>
+      <c r="E24">
+        <v>146</v>
+      </c>
+      <c r="J24">
+        <v>1262</v>
+      </c>
+      <c r="L24">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>1111</v>
+      </c>
+      <c r="E25">
+        <v>150</v>
+      </c>
+      <c r="J25">
+        <v>1262</v>
+      </c>
+      <c r="L25">
+        <v>151</v>
       </c>
     </row>
   </sheetData>
